--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,24 @@
     <t>['76', '90+2']</t>
   </si>
   <si>
+    <t>['40', '74', '90+1']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['16', '73', '74', '90+8']</t>
+  </si>
+  <si>
+    <t>['84', '90+2']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -652,9 +670,6 @@
     <t>['14']</t>
   </si>
   <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['31', '90+2']</t>
   </si>
   <si>
@@ -722,6 +737,12 @@
   </si>
   <si>
     <t>['19', '90+4']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['55', '71']</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1348,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1518,7 +1539,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1709,7 +1730,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1796,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT4">
         <v>1.18</v>
@@ -1990,7 +2011,7 @@
         <v>1.18</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2091,7 +2112,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2178,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT6">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2473,7 +2494,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2560,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT8">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2664,7 +2685,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2855,7 +2876,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2945,7 +2966,7 @@
         <v>1.55</v>
       </c>
       <c r="AT10">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3133,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT11">
         <v>0.82</v>
@@ -3237,7 +3258,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3324,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT12">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3428,7 +3449,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3515,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4001,7 +4022,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4088,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT16">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>1.2</v>
@@ -4192,7 +4213,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4282,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU17">
         <v>1.95</v>
@@ -4470,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT18">
         <v>1.18</v>
@@ -4661,10 +4682,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT19">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU19">
         <v>2.72</v>
@@ -4852,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT20">
         <v>0.75</v>
@@ -5043,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
         <v>1.36</v>
@@ -5147,7 +5168,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5237,7 +5258,7 @@
         <v>1.18</v>
       </c>
       <c r="AT22">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>2.03</v>
@@ -5529,7 +5550,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5616,10 +5637,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT24">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -5810,7 +5831,7 @@
         <v>2.36</v>
       </c>
       <c r="AT25">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU25">
         <v>0.91</v>
@@ -5911,7 +5932,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5998,7 +6019,7 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT26">
         <v>1.36</v>
@@ -6189,10 +6210,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT27">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU27">
         <v>2.23</v>
@@ -6380,10 +6401,10 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6484,7 +6505,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6574,7 +6595,7 @@
         <v>1.45</v>
       </c>
       <c r="AT29">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6675,7 +6696,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6765,7 +6786,7 @@
         <v>1.18</v>
       </c>
       <c r="AT30">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU30">
         <v>1.82</v>
@@ -6866,7 +6887,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6953,7 +6974,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT31">
         <v>0.75</v>
@@ -7057,7 +7078,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7338,7 +7359,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>1.41</v>
@@ -7526,7 +7547,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT34">
         <v>1.18</v>
@@ -7630,7 +7651,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7720,7 +7741,7 @@
         <v>1.25</v>
       </c>
       <c r="AT35">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU35">
         <v>0.82</v>
@@ -7908,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT36">
         <v>1.36</v>
@@ -8012,7 +8033,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8099,10 +8120,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT37">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU37">
         <v>1.09</v>
@@ -8203,7 +8224,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8290,10 +8311,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT38">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU38">
         <v>1.57</v>
@@ -8394,7 +8415,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8481,10 +8502,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT39">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU39">
         <v>1.76</v>
@@ -8776,7 +8797,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8863,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT41">
         <v>1.36</v>
@@ -9057,7 +9078,7 @@
         <v>1.45</v>
       </c>
       <c r="AT42">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9158,7 +9179,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9349,7 +9370,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9630,7 +9651,7 @@
         <v>1.55</v>
       </c>
       <c r="AT45">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU45">
         <v>1.34</v>
@@ -9731,7 +9752,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9922,7 +9943,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10009,10 +10030,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT47">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU47">
         <v>1.86</v>
@@ -10200,7 +10221,7 @@
         <v>0.67</v>
       </c>
       <c r="AS48">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT48">
         <v>0.75</v>
@@ -10304,7 +10325,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10582,10 +10603,10 @@
         <v>2.25</v>
       </c>
       <c r="AS50">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT50">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU50">
         <v>1.83</v>
@@ -10773,7 +10794,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT51">
         <v>0.82</v>
@@ -10877,7 +10898,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -10964,10 +10985,10 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT52">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -11068,7 +11089,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11155,10 +11176,10 @@
         <v>1.75</v>
       </c>
       <c r="AS53">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT53">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU53">
         <v>1.13</v>
@@ -11259,7 +11280,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11346,10 +11367,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT54">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU54">
         <v>1.31</v>
@@ -11540,7 +11561,7 @@
         <v>1.25</v>
       </c>
       <c r="AT55">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU55">
         <v>1.55</v>
@@ -11641,7 +11662,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11731,7 +11752,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU56">
         <v>1.5</v>
@@ -11832,7 +11853,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11919,7 +11940,7 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT57">
         <v>0.75</v>
@@ -12023,7 +12044,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12113,7 +12134,7 @@
         <v>1.45</v>
       </c>
       <c r="AT58">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU58">
         <v>1.47</v>
@@ -12214,7 +12235,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12301,7 +12322,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT59">
         <v>1.36</v>
@@ -12405,7 +12426,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12492,10 +12513,10 @@
         <v>0.6</v>
       </c>
       <c r="AS60">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT60">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12787,7 +12808,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12877,7 +12898,7 @@
         <v>1.55</v>
       </c>
       <c r="AT62">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU62">
         <v>1.42</v>
@@ -12978,7 +12999,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13169,7 +13190,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13256,7 +13277,7 @@
         <v>0.2</v>
       </c>
       <c r="AS64">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT64">
         <v>0.82</v>
@@ -13829,10 +13850,10 @@
         <v>1.4</v>
       </c>
       <c r="AS67">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT67">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -14124,7 +14145,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14697,7 +14718,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14784,7 +14805,7 @@
         <v>0.8</v>
       </c>
       <c r="AS72">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT72">
         <v>1.09</v>
@@ -14888,7 +14909,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -14978,7 +14999,7 @@
         <v>1.45</v>
       </c>
       <c r="AT73">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU73">
         <v>1.42</v>
@@ -15079,7 +15100,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15166,10 +15187,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT74">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU74">
         <v>1.51</v>
@@ -15270,7 +15291,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15357,10 +15378,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU75">
         <v>1.94</v>
@@ -15461,7 +15482,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15548,7 +15569,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT76">
         <v>0.82</v>
@@ -15652,7 +15673,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15742,7 +15763,7 @@
         <v>2.36</v>
       </c>
       <c r="AT77">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU77">
         <v>1.49</v>
@@ -15930,7 +15951,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT78">
         <v>1.09</v>
@@ -16034,7 +16055,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16124,7 +16145,7 @@
         <v>1.25</v>
       </c>
       <c r="AT79">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU79">
         <v>1.46</v>
@@ -16225,7 +16246,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16312,7 +16333,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT80">
         <v>1.18</v>
@@ -16416,7 +16437,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16506,7 +16527,7 @@
         <v>2</v>
       </c>
       <c r="AT81">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU81">
         <v>1.7</v>
@@ -16697,7 +16718,7 @@
         <v>1.45</v>
       </c>
       <c r="AT82">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -16885,7 +16906,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT83">
         <v>1.36</v>
@@ -16989,7 +17010,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17076,10 +17097,10 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT84">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU84">
         <v>1.45</v>
@@ -17180,7 +17201,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17267,10 +17288,10 @@
         <v>0.4</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT85">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17371,7 +17392,7 @@
         <v>135</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17562,7 +17583,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17944,7 +17965,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18135,7 +18156,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18225,7 +18246,7 @@
         <v>2.36</v>
       </c>
       <c r="AT90">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18413,7 +18434,7 @@
         <v>1.14</v>
       </c>
       <c r="AS91">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT91">
         <v>1.09</v>
@@ -18604,10 +18625,10 @@
         <v>2.57</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT92">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18708,7 +18729,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18795,10 +18816,10 @@
         <v>0.33</v>
       </c>
       <c r="AS93">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT93">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU93">
         <v>1.38</v>
@@ -18899,7 +18920,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19090,7 +19111,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19177,7 +19198,7 @@
         <v>1.43</v>
       </c>
       <c r="AS95">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
         <v>1.36</v>
@@ -19281,7 +19302,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19562,7 +19583,7 @@
         <v>1.55</v>
       </c>
       <c r="AT97">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU97">
         <v>1.44</v>
@@ -19663,7 +19684,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19753,7 +19774,7 @@
         <v>1.25</v>
       </c>
       <c r="AT98">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU98">
         <v>1.43</v>
@@ -19854,7 +19875,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19941,10 +19962,10 @@
         <v>2.13</v>
       </c>
       <c r="AS99">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT99">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -20045,7 +20066,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20132,7 +20153,7 @@
         <v>0.88</v>
       </c>
       <c r="AS100">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT100">
         <v>0.82</v>
@@ -20323,10 +20344,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT101">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU101">
         <v>1.48</v>
@@ -20514,10 +20535,10 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT102">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU102">
         <v>1.74</v>
@@ -20618,7 +20639,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20705,10 +20726,10 @@
         <v>1.13</v>
       </c>
       <c r="AS103">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT103">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU103">
         <v>1.15</v>
@@ -20809,7 +20830,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20899,7 +20920,7 @@
         <v>1.55</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU104">
         <v>1.37</v>
@@ -21000,7 +21021,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21090,7 +21111,7 @@
         <v>2.36</v>
       </c>
       <c r="AT105">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU105">
         <v>1.7</v>
@@ -21191,7 +21212,7 @@
         <v>93</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21382,7 +21403,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21469,7 +21490,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT107">
         <v>1.09</v>
@@ -21573,7 +21594,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21851,7 +21872,7 @@
         <v>1.25</v>
       </c>
       <c r="AS109">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT109">
         <v>1.36</v>
@@ -21955,7 +21976,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22042,10 +22063,10 @@
         <v>1.22</v>
       </c>
       <c r="AS110">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT110">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU110">
         <v>1.33</v>
@@ -22146,7 +22167,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22236,7 +22257,7 @@
         <v>1.18</v>
       </c>
       <c r="AT111">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU111">
         <v>1.74</v>
@@ -22424,7 +22445,7 @@
         <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
         <v>1.09</v>
@@ -22528,7 +22549,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22618,7 +22639,7 @@
         <v>2.36</v>
       </c>
       <c r="AT113">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU113">
         <v>1.7</v>
@@ -22719,7 +22740,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22806,7 +22827,7 @@
         <v>1.22</v>
       </c>
       <c r="AS114">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT114">
         <v>1.36</v>
@@ -22910,7 +22931,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23188,10 +23209,10 @@
         <v>1.7</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT116">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU116">
         <v>1.45</v>
@@ -23292,7 +23313,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23573,7 +23594,7 @@
         <v>2</v>
       </c>
       <c r="AT118">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU118">
         <v>1.7</v>
@@ -23761,10 +23782,10 @@
         <v>2.33</v>
       </c>
       <c r="AS119">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU119">
         <v>1.79</v>
@@ -23865,7 +23886,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -23952,10 +23973,10 @@
         <v>0.63</v>
       </c>
       <c r="AS120">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT120">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU120">
         <v>1.72</v>
@@ -24143,7 +24164,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT121">
         <v>0.75</v>
@@ -24247,7 +24268,7 @@
         <v>116</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24337,7 +24358,7 @@
         <v>1.18</v>
       </c>
       <c r="AT122">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU122">
         <v>1.71</v>
@@ -24438,7 +24459,7 @@
         <v>157</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24525,7 +24546,7 @@
         <v>1.22</v>
       </c>
       <c r="AS123">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AT123">
         <v>1.18</v>
@@ -24716,10 +24737,10 @@
         <v>2.4</v>
       </c>
       <c r="AS124">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT124">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU124">
         <v>1.78</v>
@@ -24820,7 +24841,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25098,10 +25119,10 @@
         <v>1.4</v>
       </c>
       <c r="AS126">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT126">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU126">
         <v>1.47</v>
@@ -25202,7 +25223,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25775,7 +25796,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25966,7 +25987,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26053,7 +26074,7 @@
         <v>1.4</v>
       </c>
       <c r="AS131">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AT131">
         <v>1.36</v>
@@ -26157,7 +26178,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26247,7 +26268,7 @@
         <v>2</v>
       </c>
       <c r="AT132">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU132">
         <v>1.69</v>
@@ -26348,7 +26369,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26490,6 +26511,1152 @@
       </c>
       <c r="BK133">
         <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5139618</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45122.29166666666</v>
+      </c>
+      <c r="F134">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>67</v>
+      </c>
+      <c r="H134" t="s">
+        <v>65</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>165</v>
+      </c>
+      <c r="P134" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q134">
+        <v>2</v>
+      </c>
+      <c r="R134">
+        <v>5</v>
+      </c>
+      <c r="S134">
+        <v>7</v>
+      </c>
+      <c r="T134">
+        <v>4.4</v>
+      </c>
+      <c r="U134">
+        <v>2.15</v>
+      </c>
+      <c r="V134">
+        <v>2.3</v>
+      </c>
+      <c r="W134">
+        <v>1.39</v>
+      </c>
+      <c r="X134">
+        <v>2.88</v>
+      </c>
+      <c r="Y134">
+        <v>2.82</v>
+      </c>
+      <c r="Z134">
+        <v>1.4</v>
+      </c>
+      <c r="AA134">
+        <v>7.1</v>
+      </c>
+      <c r="AB134">
+        <v>1.08</v>
+      </c>
+      <c r="AC134">
+        <v>3.95</v>
+      </c>
+      <c r="AD134">
+        <v>3.7</v>
+      </c>
+      <c r="AE134">
+        <v>1.78</v>
+      </c>
+      <c r="AF134">
+        <v>1.06</v>
+      </c>
+      <c r="AG134">
+        <v>8</v>
+      </c>
+      <c r="AH134">
+        <v>1.3</v>
+      </c>
+      <c r="AI134">
+        <v>3.4</v>
+      </c>
+      <c r="AJ134">
+        <v>1.84</v>
+      </c>
+      <c r="AK134">
+        <v>1.86</v>
+      </c>
+      <c r="AL134">
+        <v>1.82</v>
+      </c>
+      <c r="AM134">
+        <v>1.94</v>
+      </c>
+      <c r="AN134">
+        <v>1.96</v>
+      </c>
+      <c r="AO134">
+        <v>1.28</v>
+      </c>
+      <c r="AP134">
+        <v>1.22</v>
+      </c>
+      <c r="AQ134">
+        <v>0.27</v>
+      </c>
+      <c r="AR134">
+        <v>2.45</v>
+      </c>
+      <c r="AS134">
+        <v>0.5</v>
+      </c>
+      <c r="AT134">
+        <v>2.25</v>
+      </c>
+      <c r="AU134">
+        <v>1.35</v>
+      </c>
+      <c r="AV134">
+        <v>1.57</v>
+      </c>
+      <c r="AW134">
+        <v>2.92</v>
+      </c>
+      <c r="AX134">
+        <v>3.17</v>
+      </c>
+      <c r="AY134">
+        <v>8</v>
+      </c>
+      <c r="AZ134">
+        <v>1.51</v>
+      </c>
+      <c r="BA134">
+        <v>1.45</v>
+      </c>
+      <c r="BB134">
+        <v>1.9</v>
+      </c>
+      <c r="BC134">
+        <v>2.36</v>
+      </c>
+      <c r="BD134">
+        <v>3.2</v>
+      </c>
+      <c r="BE134">
+        <v>4.65</v>
+      </c>
+      <c r="BF134">
+        <v>5</v>
+      </c>
+      <c r="BG134">
+        <v>4</v>
+      </c>
+      <c r="BH134">
+        <v>5</v>
+      </c>
+      <c r="BI134">
+        <v>8</v>
+      </c>
+      <c r="BJ134">
+        <v>10</v>
+      </c>
+      <c r="BK134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5139619</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45122.3125</v>
+      </c>
+      <c r="F135">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>75</v>
+      </c>
+      <c r="H135" t="s">
+        <v>66</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>166</v>
+      </c>
+      <c r="P135" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>3</v>
+      </c>
+      <c r="S135">
+        <v>4</v>
+      </c>
+      <c r="T135">
+        <v>4</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
+        <v>2.7</v>
+      </c>
+      <c r="W135">
+        <v>1.47</v>
+      </c>
+      <c r="X135">
+        <v>2.58</v>
+      </c>
+      <c r="Y135">
+        <v>3.22</v>
+      </c>
+      <c r="Z135">
+        <v>1.32</v>
+      </c>
+      <c r="AA135">
+        <v>8.6</v>
+      </c>
+      <c r="AB135">
+        <v>1.05</v>
+      </c>
+      <c r="AC135">
+        <v>3.22</v>
+      </c>
+      <c r="AD135">
+        <v>3.35</v>
+      </c>
+      <c r="AE135">
+        <v>2.1</v>
+      </c>
+      <c r="AF135">
+        <v>1.08</v>
+      </c>
+      <c r="AG135">
+        <v>7</v>
+      </c>
+      <c r="AH135">
+        <v>1.4</v>
+      </c>
+      <c r="AI135">
+        <v>2.75</v>
+      </c>
+      <c r="AJ135">
+        <v>2.03</v>
+      </c>
+      <c r="AK135">
+        <v>1.7</v>
+      </c>
+      <c r="AL135">
+        <v>1.95</v>
+      </c>
+      <c r="AM135">
+        <v>1.81</v>
+      </c>
+      <c r="AN135">
+        <v>1.72</v>
+      </c>
+      <c r="AO135">
+        <v>1.33</v>
+      </c>
+      <c r="AP135">
+        <v>1.3</v>
+      </c>
+      <c r="AQ135">
+        <v>0.6</v>
+      </c>
+      <c r="AR135">
+        <v>1.27</v>
+      </c>
+      <c r="AS135">
+        <v>0.64</v>
+      </c>
+      <c r="AT135">
+        <v>1.25</v>
+      </c>
+      <c r="AU135">
+        <v>1.2</v>
+      </c>
+      <c r="AV135">
+        <v>1.34</v>
+      </c>
+      <c r="AW135">
+        <v>2.54</v>
+      </c>
+      <c r="AX135">
+        <v>2.29</v>
+      </c>
+      <c r="AY135">
+        <v>7.5</v>
+      </c>
+      <c r="AZ135">
+        <v>1.85</v>
+      </c>
+      <c r="BA135">
+        <v>1.35</v>
+      </c>
+      <c r="BB135">
+        <v>1.65</v>
+      </c>
+      <c r="BC135">
+        <v>2.13</v>
+      </c>
+      <c r="BD135">
+        <v>2.84</v>
+      </c>
+      <c r="BE135">
+        <v>3.92</v>
+      </c>
+      <c r="BF135">
+        <v>4</v>
+      </c>
+      <c r="BG135">
+        <v>4</v>
+      </c>
+      <c r="BH135">
+        <v>7</v>
+      </c>
+      <c r="BI135">
+        <v>5</v>
+      </c>
+      <c r="BJ135">
+        <v>11</v>
+      </c>
+      <c r="BK135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5139620</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45122.33333333334</v>
+      </c>
+      <c r="F136">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>76</v>
+      </c>
+      <c r="H136" t="s">
+        <v>73</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>167</v>
+      </c>
+      <c r="P136" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q136">
+        <v>3</v>
+      </c>
+      <c r="R136">
+        <v>3</v>
+      </c>
+      <c r="S136">
+        <v>6</v>
+      </c>
+      <c r="T136">
+        <v>2.8</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+      <c r="V136">
+        <v>3.7</v>
+      </c>
+      <c r="W136">
+        <v>1.44</v>
+      </c>
+      <c r="X136">
+        <v>2.68</v>
+      </c>
+      <c r="Y136">
+        <v>3.05</v>
+      </c>
+      <c r="Z136">
+        <v>1.35</v>
+      </c>
+      <c r="AA136">
+        <v>8</v>
+      </c>
+      <c r="AB136">
+        <v>1.06</v>
+      </c>
+      <c r="AC136">
+        <v>2.15</v>
+      </c>
+      <c r="AD136">
+        <v>3.2</v>
+      </c>
+      <c r="AE136">
+        <v>3.25</v>
+      </c>
+      <c r="AF136">
+        <v>1.07</v>
+      </c>
+      <c r="AG136">
+        <v>7.5</v>
+      </c>
+      <c r="AH136">
+        <v>1.4</v>
+      </c>
+      <c r="AI136">
+        <v>2.75</v>
+      </c>
+      <c r="AJ136">
+        <v>2.06</v>
+      </c>
+      <c r="AK136">
+        <v>1.68</v>
+      </c>
+      <c r="AL136">
+        <v>1.87</v>
+      </c>
+      <c r="AM136">
+        <v>1.89</v>
+      </c>
+      <c r="AN136">
+        <v>1.31</v>
+      </c>
+      <c r="AO136">
+        <v>1.32</v>
+      </c>
+      <c r="AP136">
+        <v>1.72</v>
+      </c>
+      <c r="AQ136">
+        <v>1.55</v>
+      </c>
+      <c r="AR136">
+        <v>1.36</v>
+      </c>
+      <c r="AS136">
+        <v>1.5</v>
+      </c>
+      <c r="AT136">
+        <v>1.33</v>
+      </c>
+      <c r="AU136">
+        <v>1.73</v>
+      </c>
+      <c r="AV136">
+        <v>1.19</v>
+      </c>
+      <c r="AW136">
+        <v>2.92</v>
+      </c>
+      <c r="AX136">
+        <v>1.69</v>
+      </c>
+      <c r="AY136">
+        <v>7.5</v>
+      </c>
+      <c r="AZ136">
+        <v>2.64</v>
+      </c>
+      <c r="BA136">
+        <v>1.46</v>
+      </c>
+      <c r="BB136">
+        <v>1.83</v>
+      </c>
+      <c r="BC136">
+        <v>2.39</v>
+      </c>
+      <c r="BD136">
+        <v>3.28</v>
+      </c>
+      <c r="BE136">
+        <v>4.7</v>
+      </c>
+      <c r="BF136">
+        <v>3</v>
+      </c>
+      <c r="BG136">
+        <v>5</v>
+      </c>
+      <c r="BH136">
+        <v>6</v>
+      </c>
+      <c r="BI136">
+        <v>4</v>
+      </c>
+      <c r="BJ136">
+        <v>9</v>
+      </c>
+      <c r="BK136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5139621</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F137">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>74</v>
+      </c>
+      <c r="H137" t="s">
+        <v>72</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>168</v>
+      </c>
+      <c r="P137" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q137">
+        <v>5</v>
+      </c>
+      <c r="R137">
+        <v>5</v>
+      </c>
+      <c r="S137">
+        <v>10</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
+        <v>2.4</v>
+      </c>
+      <c r="V137">
+        <v>4.75</v>
+      </c>
+      <c r="W137">
+        <v>1.35</v>
+      </c>
+      <c r="X137">
+        <v>3.05</v>
+      </c>
+      <c r="Y137">
+        <v>2.49</v>
+      </c>
+      <c r="Z137">
+        <v>1.5</v>
+      </c>
+      <c r="AA137">
+        <v>5.85</v>
+      </c>
+      <c r="AB137">
+        <v>1.12</v>
+      </c>
+      <c r="AC137">
+        <v>1.73</v>
+      </c>
+      <c r="AD137">
+        <v>3.8</v>
+      </c>
+      <c r="AE137">
+        <v>4.72</v>
+      </c>
+      <c r="AF137">
+        <v>1.04</v>
+      </c>
+      <c r="AG137">
+        <v>10</v>
+      </c>
+      <c r="AH137">
+        <v>1.22</v>
+      </c>
+      <c r="AI137">
+        <v>4</v>
+      </c>
+      <c r="AJ137">
+        <v>1.56</v>
+      </c>
+      <c r="AK137">
+        <v>2.35</v>
+      </c>
+      <c r="AL137">
+        <v>1.73</v>
+      </c>
+      <c r="AM137">
+        <v>2.05</v>
+      </c>
+      <c r="AN137">
+        <v>1.14</v>
+      </c>
+      <c r="AO137">
+        <v>1.24</v>
+      </c>
+      <c r="AP137">
+        <v>2.34</v>
+      </c>
+      <c r="AQ137">
+        <v>2</v>
+      </c>
+      <c r="AR137">
+        <v>0.5</v>
+      </c>
+      <c r="AS137">
+        <v>2.08</v>
+      </c>
+      <c r="AT137">
+        <v>0.45</v>
+      </c>
+      <c r="AU137">
+        <v>1.47</v>
+      </c>
+      <c r="AV137">
+        <v>1.48</v>
+      </c>
+      <c r="AW137">
+        <v>2.95</v>
+      </c>
+      <c r="AX137">
+        <v>1.41</v>
+      </c>
+      <c r="AY137">
+        <v>8.5</v>
+      </c>
+      <c r="AZ137">
+        <v>3.51</v>
+      </c>
+      <c r="BA137">
+        <v>1.33</v>
+      </c>
+      <c r="BB137">
+        <v>1.63</v>
+      </c>
+      <c r="BC137">
+        <v>2.09</v>
+      </c>
+      <c r="BD137">
+        <v>2.76</v>
+      </c>
+      <c r="BE137">
+        <v>3.74</v>
+      </c>
+      <c r="BF137">
+        <v>6</v>
+      </c>
+      <c r="BG137">
+        <v>5</v>
+      </c>
+      <c r="BH137">
+        <v>7</v>
+      </c>
+      <c r="BI137">
+        <v>6</v>
+      </c>
+      <c r="BJ137">
+        <v>13</v>
+      </c>
+      <c r="BK137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5139626</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45123.3125</v>
+      </c>
+      <c r="F138">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>69</v>
+      </c>
+      <c r="H138" t="s">
+        <v>68</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>6</v>
+      </c>
+      <c r="O138" t="s">
+        <v>169</v>
+      </c>
+      <c r="P138" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q138">
+        <v>2</v>
+      </c>
+      <c r="R138">
+        <v>10</v>
+      </c>
+      <c r="S138">
+        <v>12</v>
+      </c>
+      <c r="T138">
+        <v>2.3</v>
+      </c>
+      <c r="U138">
+        <v>2.2</v>
+      </c>
+      <c r="V138">
+        <v>4.33</v>
+      </c>
+      <c r="W138">
+        <v>1.41</v>
+      </c>
+      <c r="X138">
+        <v>2.79</v>
+      </c>
+      <c r="Y138">
+        <v>2.68</v>
+      </c>
+      <c r="Z138">
+        <v>1.44</v>
+      </c>
+      <c r="AA138">
+        <v>6.6</v>
+      </c>
+      <c r="AB138">
+        <v>1.09</v>
+      </c>
+      <c r="AC138">
+        <v>1.9</v>
+      </c>
+      <c r="AD138">
+        <v>3.38</v>
+      </c>
+      <c r="AE138">
+        <v>4.3</v>
+      </c>
+      <c r="AF138">
+        <v>1.05</v>
+      </c>
+      <c r="AG138">
+        <v>9</v>
+      </c>
+      <c r="AH138">
+        <v>1.29</v>
+      </c>
+      <c r="AI138">
+        <v>3.5</v>
+      </c>
+      <c r="AJ138">
+        <v>1.96</v>
+      </c>
+      <c r="AK138">
+        <v>1.8</v>
+      </c>
+      <c r="AL138">
+        <v>1.72</v>
+      </c>
+      <c r="AM138">
+        <v>2.07</v>
+      </c>
+      <c r="AN138">
+        <v>1.19</v>
+      </c>
+      <c r="AO138">
+        <v>1.29</v>
+      </c>
+      <c r="AP138">
+        <v>2.04</v>
+      </c>
+      <c r="AQ138">
+        <v>2.09</v>
+      </c>
+      <c r="AR138">
+        <v>1.55</v>
+      </c>
+      <c r="AS138">
+        <v>2.17</v>
+      </c>
+      <c r="AT138">
+        <v>1.42</v>
+      </c>
+      <c r="AU138">
+        <v>1.77</v>
+      </c>
+      <c r="AV138">
+        <v>1.62</v>
+      </c>
+      <c r="AW138">
+        <v>3.39</v>
+      </c>
+      <c r="AX138">
+        <v>1.75</v>
+      </c>
+      <c r="AY138">
+        <v>7.5</v>
+      </c>
+      <c r="AZ138">
+        <v>2.53</v>
+      </c>
+      <c r="BA138">
+        <v>1.48</v>
+      </c>
+      <c r="BB138">
+        <v>1.87</v>
+      </c>
+      <c r="BC138">
+        <v>2.44</v>
+      </c>
+      <c r="BD138">
+        <v>3.34</v>
+      </c>
+      <c r="BE138">
+        <v>4.8</v>
+      </c>
+      <c r="BF138">
+        <v>7</v>
+      </c>
+      <c r="BG138">
+        <v>5</v>
+      </c>
+      <c r="BH138">
+        <v>3</v>
+      </c>
+      <c r="BI138">
+        <v>7</v>
+      </c>
+      <c r="BJ138">
+        <v>10</v>
+      </c>
+      <c r="BK138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5139627</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45123.33333333334</v>
+      </c>
+      <c r="F139">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>71</v>
+      </c>
+      <c r="H139" t="s">
+        <v>70</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>170</v>
+      </c>
+      <c r="P139" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q139">
+        <v>3</v>
+      </c>
+      <c r="R139">
+        <v>4</v>
+      </c>
+      <c r="S139">
+        <v>7</v>
+      </c>
+      <c r="T139">
+        <v>2.6</v>
+      </c>
+      <c r="U139">
+        <v>2.15</v>
+      </c>
+      <c r="V139">
+        <v>3.7</v>
+      </c>
+      <c r="W139">
+        <v>1.36</v>
+      </c>
+      <c r="X139">
+        <v>3</v>
+      </c>
+      <c r="Y139">
+        <v>2.62</v>
+      </c>
+      <c r="Z139">
+        <v>1.44</v>
+      </c>
+      <c r="AA139">
+        <v>6</v>
+      </c>
+      <c r="AB139">
+        <v>1.11</v>
+      </c>
+      <c r="AC139">
+        <v>2.17</v>
+      </c>
+      <c r="AD139">
+        <v>3.26</v>
+      </c>
+      <c r="AE139">
+        <v>3.49</v>
+      </c>
+      <c r="AF139">
+        <v>1.06</v>
+      </c>
+      <c r="AG139">
+        <v>8</v>
+      </c>
+      <c r="AH139">
+        <v>1.29</v>
+      </c>
+      <c r="AI139">
+        <v>3.5</v>
+      </c>
+      <c r="AJ139">
+        <v>1.88</v>
+      </c>
+      <c r="AK139">
+        <v>1.88</v>
+      </c>
+      <c r="AL139">
+        <v>1.73</v>
+      </c>
+      <c r="AM139">
+        <v>2</v>
+      </c>
+      <c r="AN139">
+        <v>1.28</v>
+      </c>
+      <c r="AO139">
+        <v>1.33</v>
+      </c>
+      <c r="AP139">
+        <v>1.73</v>
+      </c>
+      <c r="AQ139">
+        <v>1.09</v>
+      </c>
+      <c r="AR139">
+        <v>1.27</v>
+      </c>
+      <c r="AS139">
+        <v>1.25</v>
+      </c>
+      <c r="AT139">
+        <v>1.17</v>
+      </c>
+      <c r="AU139">
+        <v>1.65</v>
+      </c>
+      <c r="AV139">
+        <v>1.32</v>
+      </c>
+      <c r="AW139">
+        <v>2.97</v>
+      </c>
+      <c r="AX139">
+        <v>1.64</v>
+      </c>
+      <c r="AY139">
+        <v>8</v>
+      </c>
+      <c r="AZ139">
+        <v>2.67</v>
+      </c>
+      <c r="BA139">
+        <v>1.32</v>
+      </c>
+      <c r="BB139">
+        <v>1.61</v>
+      </c>
+      <c r="BC139">
+        <v>2.06</v>
+      </c>
+      <c r="BD139">
+        <v>2.72</v>
+      </c>
+      <c r="BE139">
+        <v>3.65</v>
+      </c>
+      <c r="BF139">
+        <v>4</v>
+      </c>
+      <c r="BG139">
+        <v>3</v>
+      </c>
+      <c r="BH139">
+        <v>1</v>
+      </c>
+      <c r="BI139">
+        <v>3</v>
+      </c>
+      <c r="BJ139">
+        <v>5</v>
+      </c>
+      <c r="BK139">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,12 @@
     <t>['84', '90+2']</t>
   </si>
   <si>
+    <t>['30', '35']</t>
+  </si>
+  <si>
+    <t>['35', '89']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -743,6 +749,9 @@
   </si>
   <si>
     <t>['55', '71']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1357,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1435,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT2">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1539,7 +1548,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1730,7 +1739,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2112,7 +2121,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2199,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT6">
         <v>1.33</v>
@@ -2494,7 +2503,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2685,7 +2694,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2876,7 +2885,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2966,7 +2975,7 @@
         <v>1.55</v>
       </c>
       <c r="AT10">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3258,7 +3267,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3449,7 +3458,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4022,7 +4031,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4213,7 +4222,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4685,7 +4694,7 @@
         <v>1.25</v>
       </c>
       <c r="AT19">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU19">
         <v>2.72</v>
@@ -4873,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT20">
         <v>0.75</v>
@@ -5168,7 +5177,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5449,7 +5458,7 @@
         <v>1.55</v>
       </c>
       <c r="AT23">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>1.42</v>
@@ -5550,7 +5559,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5828,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT25">
         <v>0.45</v>
@@ -5932,7 +5941,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6505,7 +6514,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6696,7 +6705,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6887,7 +6896,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7078,7 +7087,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7165,7 +7174,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT32">
         <v>0.82</v>
@@ -7547,7 +7556,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT34">
         <v>1.18</v>
@@ -7651,7 +7660,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8033,7 +8042,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8123,7 +8132,7 @@
         <v>0.64</v>
       </c>
       <c r="AT37">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU37">
         <v>1.09</v>
@@ -8224,7 +8233,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8314,7 +8323,7 @@
         <v>0.5</v>
       </c>
       <c r="AT38">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU38">
         <v>1.57</v>
@@ -8415,7 +8424,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8502,7 +8511,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT39">
         <v>1.25</v>
@@ -8696,7 +8705,7 @@
         <v>1.25</v>
       </c>
       <c r="AT40">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU40">
         <v>1.41</v>
@@ -8797,7 +8806,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9179,7 +9188,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9370,7 +9379,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9752,7 +9761,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9839,7 +9848,7 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT46">
         <v>1.36</v>
@@ -9943,7 +9952,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10325,7 +10334,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10415,7 +10424,7 @@
         <v>1.18</v>
       </c>
       <c r="AT49">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.84</v>
@@ -10794,7 +10803,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT51">
         <v>0.82</v>
@@ -10898,7 +10907,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -10988,7 +10997,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -11089,7 +11098,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11280,7 +11289,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11662,7 +11671,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11853,7 +11862,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12044,7 +12053,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12134,7 +12143,7 @@
         <v>1.45</v>
       </c>
       <c r="AT58">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU58">
         <v>1.47</v>
@@ -12235,7 +12244,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12322,7 +12331,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT59">
         <v>1.36</v>
@@ -12426,7 +12435,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12704,7 +12713,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT61">
         <v>1.18</v>
@@ -12808,7 +12817,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12999,7 +13008,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13089,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="AT63">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.63</v>
@@ -13190,7 +13199,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -14041,7 +14050,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT68">
         <v>0.75</v>
@@ -14145,7 +14154,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14718,7 +14727,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14808,7 +14817,7 @@
         <v>0.5</v>
       </c>
       <c r="AT72">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>1.54</v>
@@ -14909,7 +14918,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15100,7 +15109,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15187,7 +15196,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT74">
         <v>1.17</v>
@@ -15291,7 +15300,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15482,7 +15491,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15673,7 +15682,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15760,7 +15769,7 @@
         <v>1.67</v>
       </c>
       <c r="AS77">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT77">
         <v>1.25</v>
@@ -15954,7 +15963,7 @@
         <v>1.25</v>
       </c>
       <c r="AT78">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.73</v>
@@ -16055,7 +16064,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16145,7 +16154,7 @@
         <v>1.25</v>
       </c>
       <c r="AT79">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU79">
         <v>1.46</v>
@@ -16246,7 +16255,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16437,7 +16446,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16527,7 +16536,7 @@
         <v>2</v>
       </c>
       <c r="AT81">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU81">
         <v>1.7</v>
@@ -17010,7 +17019,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17201,7 +17210,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17583,7 +17592,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17965,7 +17974,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18156,7 +18165,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18243,7 +18252,7 @@
         <v>1.14</v>
       </c>
       <c r="AS90">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT90">
         <v>1.17</v>
@@ -18434,10 +18443,10 @@
         <v>1.14</v>
       </c>
       <c r="AS91">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT91">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU91">
         <v>1.6</v>
@@ -18729,7 +18738,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18920,7 +18929,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19111,7 +19120,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19302,7 +19311,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19684,7 +19693,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19875,7 +19884,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19962,10 +19971,10 @@
         <v>2.13</v>
       </c>
       <c r="AS99">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT99">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -20066,7 +20075,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20639,7 +20648,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20830,7 +20839,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21021,7 +21030,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21108,10 +21117,10 @@
         <v>1.89</v>
       </c>
       <c r="AS105">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT105">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU105">
         <v>1.7</v>
@@ -21212,7 +21221,7 @@
         <v>93</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21403,7 +21412,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21493,7 +21502,7 @@
         <v>0.64</v>
       </c>
       <c r="AT107">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -21594,7 +21603,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21976,7 +21985,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22167,7 +22176,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22448,7 +22457,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU112">
         <v>1.81</v>
@@ -22549,7 +22558,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22636,7 +22645,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT113">
         <v>1.33</v>
@@ -22740,7 +22749,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22931,7 +22940,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23212,7 +23221,7 @@
         <v>2.08</v>
       </c>
       <c r="AT116">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU116">
         <v>1.45</v>
@@ -23313,7 +23322,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23886,7 +23895,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -23973,7 +23982,7 @@
         <v>0.63</v>
       </c>
       <c r="AS120">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT120">
         <v>0.45</v>
@@ -24268,7 +24277,7 @@
         <v>116</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24459,7 +24468,7 @@
         <v>157</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24737,7 +24746,7 @@
         <v>2.4</v>
       </c>
       <c r="AS124">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT124">
         <v>2.25</v>
@@ -24841,7 +24850,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25223,7 +25232,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25796,7 +25805,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25883,7 +25892,7 @@
         <v>1.2</v>
       </c>
       <c r="AS130">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT130">
         <v>1.36</v>
@@ -25987,7 +25996,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26178,7 +26187,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26369,7 +26378,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26459,7 +26468,7 @@
         <v>1.45</v>
       </c>
       <c r="AT133">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.64</v>
@@ -26560,7 +26569,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26942,7 +26951,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27324,7 +27333,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27411,10 +27420,10 @@
         <v>1.55</v>
       </c>
       <c r="AS138">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT138">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU138">
         <v>1.77</v>
@@ -27657,6 +27666,388 @@
       </c>
       <c r="BK139">
         <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5139628</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45128.3125</v>
+      </c>
+      <c r="F140">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s">
+        <v>65</v>
+      </c>
+      <c r="H140" t="s">
+        <v>68</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>171</v>
+      </c>
+      <c r="P140" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>8</v>
+      </c>
+      <c r="S140">
+        <v>13</v>
+      </c>
+      <c r="T140">
+        <v>2.15</v>
+      </c>
+      <c r="U140">
+        <v>2.5</v>
+      </c>
+      <c r="V140">
+        <v>4.75</v>
+      </c>
+      <c r="W140">
+        <v>1.29</v>
+      </c>
+      <c r="X140">
+        <v>3.25</v>
+      </c>
+      <c r="Y140">
+        <v>2.57</v>
+      </c>
+      <c r="Z140">
+        <v>1.54</v>
+      </c>
+      <c r="AA140">
+        <v>5.5</v>
+      </c>
+      <c r="AB140">
+        <v>1.13</v>
+      </c>
+      <c r="AC140">
+        <v>1.62</v>
+      </c>
+      <c r="AD140">
+        <v>3.75</v>
+      </c>
+      <c r="AE140">
+        <v>4.6</v>
+      </c>
+      <c r="AF140">
+        <v>1.02</v>
+      </c>
+      <c r="AG140">
+        <v>16</v>
+      </c>
+      <c r="AH140">
+        <v>1.18</v>
+      </c>
+      <c r="AI140">
+        <v>4.5</v>
+      </c>
+      <c r="AJ140">
+        <v>1.56</v>
+      </c>
+      <c r="AK140">
+        <v>2.27</v>
+      </c>
+      <c r="AL140">
+        <v>1.6</v>
+      </c>
+      <c r="AM140">
+        <v>2.25</v>
+      </c>
+      <c r="AN140">
+        <v>1.18</v>
+      </c>
+      <c r="AO140">
+        <v>1.17</v>
+      </c>
+      <c r="AP140">
+        <v>2.15</v>
+      </c>
+      <c r="AQ140">
+        <v>2.36</v>
+      </c>
+      <c r="AR140">
+        <v>1.42</v>
+      </c>
+      <c r="AS140">
+        <v>2.42</v>
+      </c>
+      <c r="AT140">
+        <v>1.31</v>
+      </c>
+      <c r="AU140">
+        <v>1.73</v>
+      </c>
+      <c r="AV140">
+        <v>1.64</v>
+      </c>
+      <c r="AW140">
+        <v>3.37</v>
+      </c>
+      <c r="AX140">
+        <v>1.64</v>
+      </c>
+      <c r="AY140">
+        <v>8</v>
+      </c>
+      <c r="AZ140">
+        <v>2.77</v>
+      </c>
+      <c r="BA140">
+        <v>1.49</v>
+      </c>
+      <c r="BB140">
+        <v>1.81</v>
+      </c>
+      <c r="BC140">
+        <v>2.23</v>
+      </c>
+      <c r="BD140">
+        <v>3.04</v>
+      </c>
+      <c r="BE140">
+        <v>4.33</v>
+      </c>
+      <c r="BF140">
+        <v>6</v>
+      </c>
+      <c r="BG140">
+        <v>6</v>
+      </c>
+      <c r="BH140">
+        <v>1</v>
+      </c>
+      <c r="BI140">
+        <v>5</v>
+      </c>
+      <c r="BJ140">
+        <v>7</v>
+      </c>
+      <c r="BK140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5139629</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45128.3125</v>
+      </c>
+      <c r="F141">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>69</v>
+      </c>
+      <c r="H141" t="s">
+        <v>74</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>172</v>
+      </c>
+      <c r="P141" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q141">
+        <v>3</v>
+      </c>
+      <c r="R141">
+        <v>5</v>
+      </c>
+      <c r="S141">
+        <v>8</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>2.1</v>
+      </c>
+      <c r="V141">
+        <v>3.8</v>
+      </c>
+      <c r="W141">
+        <v>1.42</v>
+      </c>
+      <c r="X141">
+        <v>2.75</v>
+      </c>
+      <c r="Y141">
+        <v>2.95</v>
+      </c>
+      <c r="Z141">
+        <v>1.37</v>
+      </c>
+      <c r="AA141">
+        <v>7.6</v>
+      </c>
+      <c r="AB141">
+        <v>1.07</v>
+      </c>
+      <c r="AC141">
+        <v>2.36</v>
+      </c>
+      <c r="AD141">
+        <v>3.2</v>
+      </c>
+      <c r="AE141">
+        <v>2.74</v>
+      </c>
+      <c r="AF141">
+        <v>1.05</v>
+      </c>
+      <c r="AG141">
+        <v>8</v>
+      </c>
+      <c r="AH141">
+        <v>1.3</v>
+      </c>
+      <c r="AI141">
+        <v>3.2</v>
+      </c>
+      <c r="AJ141">
+        <v>1.89</v>
+      </c>
+      <c r="AK141">
+        <v>1.81</v>
+      </c>
+      <c r="AL141">
+        <v>1.75</v>
+      </c>
+      <c r="AM141">
+        <v>1.95</v>
+      </c>
+      <c r="AN141">
+        <v>1.35</v>
+      </c>
+      <c r="AO141">
+        <v>1.3</v>
+      </c>
+      <c r="AP141">
+        <v>1.7</v>
+      </c>
+      <c r="AQ141">
+        <v>2.17</v>
+      </c>
+      <c r="AR141">
+        <v>1.09</v>
+      </c>
+      <c r="AS141">
+        <v>2.23</v>
+      </c>
+      <c r="AT141">
+        <v>1</v>
+      </c>
+      <c r="AU141">
+        <v>1.75</v>
+      </c>
+      <c r="AV141">
+        <v>1.61</v>
+      </c>
+      <c r="AW141">
+        <v>3.36</v>
+      </c>
+      <c r="AX141">
+        <v>1.69</v>
+      </c>
+      <c r="AY141">
+        <v>8</v>
+      </c>
+      <c r="AZ141">
+        <v>2.63</v>
+      </c>
+      <c r="BA141">
+        <v>1.51</v>
+      </c>
+      <c r="BB141">
+        <v>1.84</v>
+      </c>
+      <c r="BC141">
+        <v>2.28</v>
+      </c>
+      <c r="BD141">
+        <v>3.18</v>
+      </c>
+      <c r="BE141">
+        <v>4.55</v>
+      </c>
+      <c r="BF141">
+        <v>6</v>
+      </c>
+      <c r="BG141">
+        <v>7</v>
+      </c>
+      <c r="BH141">
+        <v>6</v>
+      </c>
+      <c r="BI141">
+        <v>5</v>
+      </c>
+      <c r="BJ141">
+        <v>12</v>
+      </c>
+      <c r="BK141">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,9 @@
     <t>['35', '89']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -703,9 +706,6 @@
     <t>['80']</t>
   </si>
   <si>
-    <t>['41']</t>
-  </si>
-  <si>
     <t>['27', '60']</t>
   </si>
   <si>
@@ -752,6 +752,15 @@
   </si>
   <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['23', '60']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1366,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1548,7 +1557,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1635,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT3">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1739,7 +1748,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1829,7 +1838,7 @@
         <v>0.5</v>
       </c>
       <c r="AT4">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2121,7 +2130,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2211,7 +2220,7 @@
         <v>2.23</v>
       </c>
       <c r="AT6">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2399,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT7">
         <v>0.75</v>
@@ -2503,7 +2512,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2694,7 +2703,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2781,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT9">
         <v>1.36</v>
@@ -2885,7 +2894,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3166,7 +3175,7 @@
         <v>2.08</v>
       </c>
       <c r="AT11">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3267,7 +3276,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3354,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT12">
         <v>2.25</v>
@@ -3458,7 +3467,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3736,10 +3745,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT14">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0.3</v>
@@ -3927,7 +3936,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT15">
         <v>1.36</v>
@@ -4031,7 +4040,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4118,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT16">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU16">
         <v>1.2</v>
@@ -4222,7 +4231,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4309,7 +4318,7 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT17">
         <v>2.25</v>
@@ -4503,7 +4512,7 @@
         <v>2.08</v>
       </c>
       <c r="AT18">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>1.34</v>
@@ -5076,7 +5085,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU21">
         <v>1.25</v>
@@ -5177,7 +5186,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5559,7 +5568,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5941,7 +5950,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6222,7 +6231,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU27">
         <v>2.23</v>
@@ -6514,7 +6523,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6601,7 +6610,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT29">
         <v>1.25</v>
@@ -6705,7 +6714,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6896,7 +6905,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7087,7 +7096,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7177,7 +7186,7 @@
         <v>2.42</v>
       </c>
       <c r="AT32">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7365,10 +7374,10 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU33">
         <v>1.41</v>
@@ -7559,7 +7568,7 @@
         <v>2.23</v>
       </c>
       <c r="AT34">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>1.91</v>
@@ -7660,7 +7669,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7747,7 +7756,7 @@
         <v>2</v>
       </c>
       <c r="AS35">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT35">
         <v>1.17</v>
@@ -7941,7 +7950,7 @@
         <v>2.08</v>
       </c>
       <c r="AT36">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -8042,7 +8051,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8129,7 +8138,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT37">
         <v>1.31</v>
@@ -8233,7 +8242,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8424,7 +8433,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8702,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -8806,7 +8815,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8893,10 +8902,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT41">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>1.19</v>
@@ -9084,7 +9093,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT42">
         <v>2.25</v>
@@ -9188,7 +9197,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9278,7 +9287,7 @@
         <v>1.55</v>
       </c>
       <c r="AT43">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>1.37</v>
@@ -9379,7 +9388,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9466,10 +9475,10 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT44">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -9761,7 +9770,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9952,7 +9961,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10334,7 +10343,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10806,7 +10815,7 @@
         <v>2.23</v>
       </c>
       <c r="AT51">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU51">
         <v>1.7</v>
@@ -10907,7 +10916,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11098,7 +11107,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11185,7 +11194,7 @@
         <v>1.75</v>
       </c>
       <c r="AS53">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT53">
         <v>1.25</v>
@@ -11289,7 +11298,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11567,10 +11576,10 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT55">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU55">
         <v>1.55</v>
@@ -11671,7 +11680,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11758,7 +11767,7 @@
         <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT56">
         <v>1.25</v>
@@ -11862,7 +11871,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12053,7 +12062,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12140,7 +12149,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT58">
         <v>1.31</v>
@@ -12244,7 +12253,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12334,7 +12343,7 @@
         <v>2.23</v>
       </c>
       <c r="AT59">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU59">
         <v>1.64</v>
@@ -12435,7 +12444,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12525,7 +12534,7 @@
         <v>0.5</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12716,7 +12725,7 @@
         <v>2.42</v>
       </c>
       <c r="AT61">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.43</v>
@@ -12817,7 +12826,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13008,7 +13017,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13095,7 +13104,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13199,7 +13208,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13289,7 +13298,7 @@
         <v>1.25</v>
       </c>
       <c r="AT64">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>1.66</v>
@@ -13668,7 +13677,7 @@
         <v>1.2</v>
       </c>
       <c r="AS66">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT66">
         <v>0.75</v>
@@ -14154,7 +14163,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14432,10 +14441,10 @@
         <v>1.2</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT70">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU70">
         <v>1.64</v>
@@ -14626,7 +14635,7 @@
         <v>1.18</v>
       </c>
       <c r="AT71">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU71">
         <v>1.79</v>
@@ -14727,7 +14736,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14918,7 +14927,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15005,7 +15014,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT73">
         <v>0.45</v>
@@ -15109,7 +15118,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15300,7 +15309,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15390,7 +15399,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU75">
         <v>1.94</v>
@@ -15491,7 +15500,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15578,10 +15587,10 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT76">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>1.17</v>
@@ -15682,7 +15691,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16064,7 +16073,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16151,7 +16160,7 @@
         <v>2.17</v>
       </c>
       <c r="AS79">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT79">
         <v>1.31</v>
@@ -16255,7 +16264,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16345,7 +16354,7 @@
         <v>1.25</v>
       </c>
       <c r="AT80">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.71</v>
@@ -16446,7 +16455,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16533,7 +16542,7 @@
         <v>2.29</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT81">
         <v>1.31</v>
@@ -16724,10 +16733,10 @@
         <v>1.29</v>
       </c>
       <c r="AS82">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT82">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -16915,7 +16924,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT83">
         <v>1.36</v>
@@ -17019,7 +17028,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17210,7 +17219,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17491,7 +17500,7 @@
         <v>1.18</v>
       </c>
       <c r="AT86">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.86</v>
@@ -17592,7 +17601,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17682,7 +17691,7 @@
         <v>1.55</v>
       </c>
       <c r="AT87">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU87">
         <v>1.37</v>
@@ -17870,7 +17879,7 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT88">
         <v>0.75</v>
@@ -17974,7 +17983,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18061,10 +18070,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT89">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18165,7 +18174,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18738,7 +18747,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18929,7 +18938,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19120,7 +19129,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19311,7 +19320,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19398,10 +19407,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT96">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU96">
         <v>1.62</v>
@@ -19693,7 +19702,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19780,7 +19789,7 @@
         <v>2.25</v>
       </c>
       <c r="AS98">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT98">
         <v>2.25</v>
@@ -19884,7 +19893,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20075,7 +20084,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20165,7 +20174,7 @@
         <v>1.5</v>
       </c>
       <c r="AT100">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.86</v>
@@ -20356,7 +20365,7 @@
         <v>2.08</v>
       </c>
       <c r="AT101">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU101">
         <v>1.48</v>
@@ -20735,7 +20744,7 @@
         <v>1.13</v>
       </c>
       <c r="AS103">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT103">
         <v>1.17</v>
@@ -20839,7 +20848,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21030,7 +21039,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21221,7 +21230,7 @@
         <v>93</v>
       </c>
       <c r="P106" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="Q106">
         <v>7</v>
@@ -21308,10 +21317,10 @@
         <v>1.25</v>
       </c>
       <c r="AS106">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT106">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21499,7 +21508,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -21690,7 +21699,7 @@
         <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT108">
         <v>1.36</v>
@@ -21884,7 +21893,7 @@
         <v>0.5</v>
       </c>
       <c r="AT109">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU109">
         <v>1.41</v>
@@ -22558,7 +22567,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22648,7 +22657,7 @@
         <v>2.42</v>
       </c>
       <c r="AT113">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU113">
         <v>1.7</v>
@@ -23027,7 +23036,7 @@
         <v>0.78</v>
       </c>
       <c r="AS115">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT115">
         <v>0.75</v>
@@ -23322,7 +23331,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23412,7 +23421,7 @@
         <v>1.55</v>
       </c>
       <c r="AT117">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU117">
         <v>1.4</v>
@@ -23600,7 +23609,7 @@
         <v>1.3</v>
       </c>
       <c r="AS118">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT118">
         <v>1.17</v>
@@ -23895,7 +23904,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24367,7 +24376,7 @@
         <v>1.18</v>
       </c>
       <c r="AT122">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU122">
         <v>1.71</v>
@@ -24555,10 +24564,10 @@
         <v>1.22</v>
       </c>
       <c r="AS123">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT123">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU123">
         <v>1.21</v>
@@ -24937,10 +24946,10 @@
         <v>1.22</v>
       </c>
       <c r="AS125">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT125">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -25319,10 +25328,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT127">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU127">
         <v>1.62</v>
@@ -25704,7 +25713,7 @@
         <v>1.18</v>
       </c>
       <c r="AT129">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU129">
         <v>1.68</v>
@@ -25895,7 +25904,7 @@
         <v>2.42</v>
       </c>
       <c r="AT130">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU130">
         <v>1.73</v>
@@ -25996,7 +26005,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26274,7 +26283,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS132">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT132">
         <v>0.45</v>
@@ -26465,7 +26474,7 @@
         <v>1.1</v>
       </c>
       <c r="AS133">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -26847,7 +26856,7 @@
         <v>1.27</v>
       </c>
       <c r="AS135">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT135">
         <v>1.25</v>
@@ -27041,7 +27050,7 @@
         <v>1.5</v>
       </c>
       <c r="AT136">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU136">
         <v>1.73</v>
@@ -27841,22 +27850,22 @@
         <v>4.33</v>
       </c>
       <c r="BF140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG140">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH140">
         <v>1</v>
       </c>
       <c r="BI140">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK140">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:63">
@@ -28038,16 +28047,780 @@
         <v>7</v>
       </c>
       <c r="BH141">
+        <v>9</v>
+      </c>
+      <c r="BI141">
+        <v>7</v>
+      </c>
+      <c r="BJ141">
+        <v>15</v>
+      </c>
+      <c r="BK141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5139630</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45129.29166666666</v>
+      </c>
+      <c r="F142">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s">
+        <v>72</v>
+      </c>
+      <c r="H142" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>79</v>
+      </c>
+      <c r="P142" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q142">
+        <v>5</v>
+      </c>
+      <c r="R142">
+        <v>4</v>
+      </c>
+      <c r="S142">
+        <v>9</v>
+      </c>
+      <c r="T142">
+        <v>4.08</v>
+      </c>
+      <c r="U142">
+        <v>2.22</v>
+      </c>
+      <c r="V142">
+        <v>2.57</v>
+      </c>
+      <c r="W142">
+        <v>1.35</v>
+      </c>
+      <c r="X142">
+        <v>3.05</v>
+      </c>
+      <c r="Y142">
+        <v>2.64</v>
+      </c>
+      <c r="Z142">
+        <v>1.45</v>
+      </c>
+      <c r="AA142">
+        <v>6.45</v>
+      </c>
+      <c r="AB142">
+        <v>1.1</v>
+      </c>
+      <c r="AC142">
+        <v>3.51</v>
+      </c>
+      <c r="AD142">
+        <v>3.59</v>
+      </c>
+      <c r="AE142">
+        <v>2.13</v>
+      </c>
+      <c r="AF142">
+        <v>1.01</v>
+      </c>
+      <c r="AG142">
+        <v>13</v>
+      </c>
+      <c r="AH142">
+        <v>1.24</v>
+      </c>
+      <c r="AI142">
+        <v>3.7</v>
+      </c>
+      <c r="AJ142">
+        <v>1.81</v>
+      </c>
+      <c r="AK142">
+        <v>1.95</v>
+      </c>
+      <c r="AL142">
+        <v>1.65</v>
+      </c>
+      <c r="AM142">
+        <v>2.1</v>
+      </c>
+      <c r="AN142">
+        <v>1.72</v>
+      </c>
+      <c r="AO142">
+        <v>1.27</v>
+      </c>
+      <c r="AP142">
+        <v>1.3</v>
+      </c>
+      <c r="AQ142">
+        <v>1.25</v>
+      </c>
+      <c r="AR142">
+        <v>1.18</v>
+      </c>
+      <c r="AS142">
+        <v>1.15</v>
+      </c>
+      <c r="AT142">
+        <v>1.33</v>
+      </c>
+      <c r="AU142">
+        <v>1.46</v>
+      </c>
+      <c r="AV142">
+        <v>1.36</v>
+      </c>
+      <c r="AW142">
+        <v>2.82</v>
+      </c>
+      <c r="AX142">
+        <v>2.63</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>1.69</v>
+      </c>
+      <c r="BA142">
+        <v>1.42</v>
+      </c>
+      <c r="BB142">
+        <v>1.79</v>
+      </c>
+      <c r="BC142">
+        <v>2.23</v>
+      </c>
+      <c r="BD142">
+        <v>3.04</v>
+      </c>
+      <c r="BE142">
+        <v>4.35</v>
+      </c>
+      <c r="BF142">
+        <v>8</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>4</v>
+      </c>
+      <c r="BI142">
+        <v>7</v>
+      </c>
+      <c r="BJ142">
+        <v>12</v>
+      </c>
+      <c r="BK142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5139631</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45129.3125</v>
+      </c>
+      <c r="F143">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" t="s">
+        <v>67</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>173</v>
+      </c>
+      <c r="P143" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q143">
+        <v>8</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>10</v>
+      </c>
+      <c r="T143">
+        <v>3.2</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>3.3</v>
+      </c>
+      <c r="W143">
+        <v>1.46</v>
+      </c>
+      <c r="X143">
+        <v>2.55</v>
+      </c>
+      <c r="Y143">
+        <v>3.15</v>
+      </c>
+      <c r="Z143">
+        <v>1.32</v>
+      </c>
+      <c r="AA143">
+        <v>9.5</v>
+      </c>
+      <c r="AB143">
+        <v>1.07</v>
+      </c>
+      <c r="AC143">
+        <v>2.54</v>
+      </c>
+      <c r="AD143">
+        <v>3.24</v>
+      </c>
+      <c r="AE143">
+        <v>2.97</v>
+      </c>
+      <c r="AF143">
+        <v>1.07</v>
+      </c>
+      <c r="AG143">
+        <v>9.25</v>
+      </c>
+      <c r="AH143">
+        <v>1.38</v>
+      </c>
+      <c r="AI143">
+        <v>2.9</v>
+      </c>
+      <c r="AJ143">
+        <v>2.33</v>
+      </c>
+      <c r="AK143">
+        <v>1.57</v>
+      </c>
+      <c r="AL143">
+        <v>1.87</v>
+      </c>
+      <c r="AM143">
+        <v>1.87</v>
+      </c>
+      <c r="AN143">
+        <v>1.38</v>
+      </c>
+      <c r="AO143">
+        <v>1.28</v>
+      </c>
+      <c r="AP143">
+        <v>1.44</v>
+      </c>
+      <c r="AQ143">
+        <v>0.64</v>
+      </c>
+      <c r="AR143">
+        <v>0.82</v>
+      </c>
+      <c r="AS143">
+        <v>0.58</v>
+      </c>
+      <c r="AT143">
+        <v>1</v>
+      </c>
+      <c r="AU143">
+        <v>1.2</v>
+      </c>
+      <c r="AV143">
+        <v>1.33</v>
+      </c>
+      <c r="AW143">
+        <v>2.53</v>
+      </c>
+      <c r="AX143">
+        <v>1.69</v>
+      </c>
+      <c r="AY143">
+        <v>8</v>
+      </c>
+      <c r="AZ143">
+        <v>2.65</v>
+      </c>
+      <c r="BA143">
+        <v>1.49</v>
+      </c>
+      <c r="BB143">
+        <v>1.81</v>
+      </c>
+      <c r="BC143">
+        <v>2.25</v>
+      </c>
+      <c r="BD143">
+        <v>3.08</v>
+      </c>
+      <c r="BE143">
+        <v>4.4</v>
+      </c>
+      <c r="BF143">
+        <v>5</v>
+      </c>
+      <c r="BG143">
         <v>6</v>
       </c>
-      <c r="BI141">
+      <c r="BH143">
         <v>5</v>
       </c>
-      <c r="BJ141">
-        <v>12</v>
-      </c>
-      <c r="BK141">
-        <v>12</v>
+      <c r="BI143">
+        <v>3</v>
+      </c>
+      <c r="BJ143">
+        <v>10</v>
+      </c>
+      <c r="BK143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5139632</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45129.3125</v>
+      </c>
+      <c r="F144">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s">
+        <v>66</v>
+      </c>
+      <c r="H144" t="s">
+        <v>71</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>79</v>
+      </c>
+      <c r="P144" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q144">
+        <v>8</v>
+      </c>
+      <c r="R144">
+        <v>5</v>
+      </c>
+      <c r="S144">
+        <v>13</v>
+      </c>
+      <c r="T144">
+        <v>2.5</v>
+      </c>
+      <c r="U144">
+        <v>2.15</v>
+      </c>
+      <c r="V144">
+        <v>4.2</v>
+      </c>
+      <c r="W144">
+        <v>1.4</v>
+      </c>
+      <c r="X144">
+        <v>2.7</v>
+      </c>
+      <c r="Y144">
+        <v>2.8</v>
+      </c>
+      <c r="Z144">
+        <v>1.38</v>
+      </c>
+      <c r="AA144">
+        <v>6.5</v>
+      </c>
+      <c r="AB144">
+        <v>1.08</v>
+      </c>
+      <c r="AC144">
+        <v>2.07</v>
+      </c>
+      <c r="AD144">
+        <v>3.53</v>
+      </c>
+      <c r="AE144">
+        <v>3.72</v>
+      </c>
+      <c r="AF144">
+        <v>1.05</v>
+      </c>
+      <c r="AG144">
+        <v>8</v>
+      </c>
+      <c r="AH144">
+        <v>1.3</v>
+      </c>
+      <c r="AI144">
+        <v>3.2</v>
+      </c>
+      <c r="AJ144">
+        <v>2.02</v>
+      </c>
+      <c r="AK144">
+        <v>1.85</v>
+      </c>
+      <c r="AL144">
+        <v>1.8</v>
+      </c>
+      <c r="AM144">
+        <v>1.91</v>
+      </c>
+      <c r="AN144">
+        <v>1.3</v>
+      </c>
+      <c r="AO144">
+        <v>1.3</v>
+      </c>
+      <c r="AP144">
+        <v>1.78</v>
+      </c>
+      <c r="AQ144">
+        <v>2</v>
+      </c>
+      <c r="AR144">
+        <v>1.36</v>
+      </c>
+      <c r="AS144">
+        <v>1.83</v>
+      </c>
+      <c r="AT144">
+        <v>1.5</v>
+      </c>
+      <c r="AU144">
+        <v>1.78</v>
+      </c>
+      <c r="AV144">
+        <v>1.3</v>
+      </c>
+      <c r="AW144">
+        <v>3.08</v>
+      </c>
+      <c r="AX144">
+        <v>1.59</v>
+      </c>
+      <c r="AY144">
+        <v>8</v>
+      </c>
+      <c r="AZ144">
+        <v>2.8</v>
+      </c>
+      <c r="BA144">
+        <v>1.28</v>
+      </c>
+      <c r="BB144">
+        <v>1.53</v>
+      </c>
+      <c r="BC144">
+        <v>2</v>
+      </c>
+      <c r="BD144">
+        <v>2.49</v>
+      </c>
+      <c r="BE144">
+        <v>3.34</v>
+      </c>
+      <c r="BF144">
+        <v>5</v>
+      </c>
+      <c r="BG144">
+        <v>5</v>
+      </c>
+      <c r="BH144">
+        <v>5</v>
+      </c>
+      <c r="BI144">
+        <v>5</v>
+      </c>
+      <c r="BJ144">
+        <v>10</v>
+      </c>
+      <c r="BK144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5139633</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45129.33333333334</v>
+      </c>
+      <c r="F145">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s">
+        <v>70</v>
+      </c>
+      <c r="H145" t="s">
+        <v>73</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>162</v>
+      </c>
+      <c r="P145" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q145">
+        <v>3</v>
+      </c>
+      <c r="R145">
+        <v>6</v>
+      </c>
+      <c r="S145">
+        <v>9</v>
+      </c>
+      <c r="T145">
+        <v>3</v>
+      </c>
+      <c r="U145">
+        <v>2.15</v>
+      </c>
+      <c r="V145">
+        <v>3.1</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>2.75</v>
+      </c>
+      <c r="Y145">
+        <v>2.6</v>
+      </c>
+      <c r="Z145">
+        <v>1.45</v>
+      </c>
+      <c r="AA145">
+        <v>5.5</v>
+      </c>
+      <c r="AB145">
+        <v>1.11</v>
+      </c>
+      <c r="AC145">
+        <v>2.64</v>
+      </c>
+      <c r="AD145">
+        <v>3.4</v>
+      </c>
+      <c r="AE145">
+        <v>2.74</v>
+      </c>
+      <c r="AF145">
+        <v>1.05</v>
+      </c>
+      <c r="AG145">
+        <v>8</v>
+      </c>
+      <c r="AH145">
+        <v>1.25</v>
+      </c>
+      <c r="AI145">
+        <v>3.75</v>
+      </c>
+      <c r="AJ145">
+        <v>1.85</v>
+      </c>
+      <c r="AK145">
+        <v>2.01</v>
+      </c>
+      <c r="AL145">
+        <v>1.6</v>
+      </c>
+      <c r="AM145">
+        <v>2.25</v>
+      </c>
+      <c r="AN145">
+        <v>1.4</v>
+      </c>
+      <c r="AO145">
+        <v>1.25</v>
+      </c>
+      <c r="AP145">
+        <v>1.5</v>
+      </c>
+      <c r="AQ145">
+        <v>1.45</v>
+      </c>
+      <c r="AR145">
+        <v>1.33</v>
+      </c>
+      <c r="AS145">
+        <v>1.58</v>
+      </c>
+      <c r="AT145">
+        <v>1.23</v>
+      </c>
+      <c r="AU145">
+        <v>1.64</v>
+      </c>
+      <c r="AV145">
+        <v>1.2</v>
+      </c>
+      <c r="AW145">
+        <v>2.84</v>
+      </c>
+      <c r="AX145">
+        <v>1.85</v>
+      </c>
+      <c r="AY145">
+        <v>7.5</v>
+      </c>
+      <c r="AZ145">
+        <v>2.33</v>
+      </c>
+      <c r="BA145">
+        <v>1.39</v>
+      </c>
+      <c r="BB145">
+        <v>1.72</v>
+      </c>
+      <c r="BC145">
+        <v>2.19</v>
+      </c>
+      <c r="BD145">
+        <v>2.93</v>
+      </c>
+      <c r="BE145">
+        <v>4.15</v>
+      </c>
+      <c r="BF145">
+        <v>4</v>
+      </c>
+      <c r="BG145">
+        <v>3</v>
+      </c>
+      <c r="BH145">
+        <v>3</v>
+      </c>
+      <c r="BI145">
+        <v>2</v>
+      </c>
+      <c r="BJ145">
+        <v>7</v>
+      </c>
+      <c r="BK145">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['8', '13', '63']</t>
+  </si>
+  <si>
+    <t>['54', '68']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -761,6 +767,12 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['64', '90+4']</t>
+  </si>
+  <si>
+    <t>['26', '45+3']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1378,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1557,7 +1569,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1644,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT3">
         <v>1.5</v>
@@ -1748,7 +1760,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1835,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT4">
         <v>1.33</v>
@@ -2029,7 +2041,7 @@
         <v>1.18</v>
       </c>
       <c r="AT5">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2130,7 +2142,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2512,7 +2524,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2602,7 +2614,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2703,7 +2715,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2793,7 +2805,7 @@
         <v>1.15</v>
       </c>
       <c r="AT9">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2894,7 +2906,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2981,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
         <v>1.31</v>
@@ -3276,7 +3288,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3366,7 +3378,7 @@
         <v>0.58</v>
       </c>
       <c r="AT12">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3467,7 +3479,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3554,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT13">
         <v>1.25</v>
@@ -3939,7 +3951,7 @@
         <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>1.61</v>
@@ -4040,7 +4052,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4231,7 +4243,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4318,10 +4330,10 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT17">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU17">
         <v>1.95</v>
@@ -5082,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT21">
         <v>1.5</v>
@@ -5186,7 +5198,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5464,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5568,7 +5580,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5655,10 +5667,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT24">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -5849,7 +5861,7 @@
         <v>2.42</v>
       </c>
       <c r="AT25">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU25">
         <v>0.91</v>
@@ -5950,7 +5962,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6040,7 +6052,7 @@
         <v>2.08</v>
       </c>
       <c r="AT26">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU26">
         <v>1.47</v>
@@ -6419,10 +6431,10 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT28">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6523,7 +6535,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6714,7 +6726,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6804,7 +6816,7 @@
         <v>1.18</v>
       </c>
       <c r="AT30">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU30">
         <v>1.82</v>
@@ -6905,7 +6917,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6992,7 +7004,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT31">
         <v>0.75</v>
@@ -7096,7 +7108,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7374,7 +7386,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT33">
         <v>1.23</v>
@@ -7669,7 +7681,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7759,7 +7771,7 @@
         <v>1.15</v>
       </c>
       <c r="AT35">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU35">
         <v>0.82</v>
@@ -8051,7 +8063,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8242,7 +8254,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8329,7 +8341,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT38">
         <v>1.31</v>
@@ -8433,7 +8445,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8815,7 +8827,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9096,7 +9108,7 @@
         <v>1.58</v>
       </c>
       <c r="AT42">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9197,7 +9209,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9284,7 +9296,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
         <v>1.33</v>
@@ -9388,7 +9400,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9475,7 +9487,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT44">
         <v>1</v>
@@ -9666,10 +9678,10 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU45">
         <v>1.34</v>
@@ -9770,7 +9782,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9860,7 +9872,7 @@
         <v>2.42</v>
       </c>
       <c r="AT46">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -9961,7 +9973,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10051,7 +10063,7 @@
         <v>1.25</v>
       </c>
       <c r="AT47">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU47">
         <v>1.86</v>
@@ -10239,7 +10251,7 @@
         <v>0.67</v>
       </c>
       <c r="AS48">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT48">
         <v>0.75</v>
@@ -10343,7 +10355,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10624,7 +10636,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU50">
         <v>1.83</v>
@@ -10916,7 +10928,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11003,7 +11015,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT52">
         <v>1.31</v>
@@ -11107,7 +11119,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11298,7 +11310,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11388,7 +11400,7 @@
         <v>2.08</v>
       </c>
       <c r="AT54">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU54">
         <v>1.31</v>
@@ -11680,7 +11692,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11871,7 +11883,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12062,7 +12074,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12253,7 +12265,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12444,7 +12456,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12531,7 +12543,7 @@
         <v>0.6</v>
       </c>
       <c r="AS60">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT60">
         <v>1.23</v>
@@ -12826,7 +12838,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12913,10 +12925,10 @@
         <v>2.4</v>
       </c>
       <c r="AS62">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU62">
         <v>1.42</v>
@@ -13017,7 +13029,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13104,7 +13116,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13208,7 +13220,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13489,7 +13501,7 @@
         <v>1.18</v>
       </c>
       <c r="AT65">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU65">
         <v>1.82</v>
@@ -13868,10 +13880,10 @@
         <v>1.4</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT67">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -14163,7 +14175,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14250,10 +14262,10 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU69">
         <v>1.42</v>
@@ -14441,7 +14453,7 @@
         <v>1.2</v>
       </c>
       <c r="AS70">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT70">
         <v>1.33</v>
@@ -14736,7 +14748,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14823,7 +14835,7 @@
         <v>0.8</v>
       </c>
       <c r="AS72">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -14927,7 +14939,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15017,7 +15029,7 @@
         <v>1.58</v>
       </c>
       <c r="AT73">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU73">
         <v>1.42</v>
@@ -15118,7 +15130,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15208,7 +15220,7 @@
         <v>2.23</v>
       </c>
       <c r="AT74">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU74">
         <v>1.51</v>
@@ -15309,7 +15321,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15396,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT75">
         <v>1.23</v>
@@ -15500,7 +15512,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15691,7 +15703,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16073,7 +16085,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16264,7 +16276,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16455,7 +16467,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16542,7 +16554,7 @@
         <v>2.29</v>
       </c>
       <c r="AS81">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT81">
         <v>1.31</v>
@@ -16927,7 +16939,7 @@
         <v>0.58</v>
       </c>
       <c r="AT83">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>1.22</v>
@@ -17028,7 +17040,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17115,10 +17127,10 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT84">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU84">
         <v>1.45</v>
@@ -17219,7 +17231,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17309,7 +17321,7 @@
         <v>2.08</v>
       </c>
       <c r="AT85">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17601,7 +17613,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17688,7 +17700,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT87">
         <v>1.5</v>
@@ -17879,7 +17891,7 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT88">
         <v>0.75</v>
@@ -17983,7 +17995,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18174,7 +18186,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18264,7 +18276,7 @@
         <v>2.42</v>
       </c>
       <c r="AT90">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18646,7 +18658,7 @@
         <v>2.08</v>
       </c>
       <c r="AT92">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18747,7 +18759,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18834,10 +18846,10 @@
         <v>0.33</v>
       </c>
       <c r="AS93">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT93">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU93">
         <v>1.38</v>
@@ -18938,7 +18950,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19129,7 +19141,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19216,10 +19228,10 @@
         <v>1.43</v>
       </c>
       <c r="AS95">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT95">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU95">
         <v>1.9</v>
@@ -19320,7 +19332,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19598,7 +19610,7 @@
         <v>1.43</v>
       </c>
       <c r="AS97">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT97">
         <v>1.25</v>
@@ -19702,7 +19714,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19792,7 +19804,7 @@
         <v>1.15</v>
       </c>
       <c r="AT98">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU98">
         <v>1.43</v>
@@ -19893,7 +19905,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20171,7 +20183,7 @@
         <v>0.88</v>
       </c>
       <c r="AS100">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20657,7 +20669,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20747,7 +20759,7 @@
         <v>0.58</v>
       </c>
       <c r="AT103">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU103">
         <v>1.15</v>
@@ -20848,7 +20860,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20935,10 +20947,10 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU104">
         <v>1.37</v>
@@ -21039,7 +21051,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21421,7 +21433,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21612,7 +21624,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21699,10 +21711,10 @@
         <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT108">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU108">
         <v>1.76</v>
@@ -21890,7 +21902,7 @@
         <v>1.25</v>
       </c>
       <c r="AS109">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT109">
         <v>1.5</v>
@@ -21994,7 +22006,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22081,7 +22093,7 @@
         <v>1.22</v>
       </c>
       <c r="AS110">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT110">
         <v>1.25</v>
@@ -22185,7 +22197,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22275,7 +22287,7 @@
         <v>1.18</v>
       </c>
       <c r="AT111">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU111">
         <v>1.74</v>
@@ -22463,7 +22475,7 @@
         <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT112">
         <v>1</v>
@@ -22567,7 +22579,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22758,7 +22770,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22848,7 +22860,7 @@
         <v>1.25</v>
       </c>
       <c r="AT114">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU114">
         <v>1.67</v>
@@ -22949,7 +22961,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23331,7 +23343,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23418,7 +23430,7 @@
         <v>0.78</v>
       </c>
       <c r="AS117">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -23609,10 +23621,10 @@
         <v>1.3</v>
       </c>
       <c r="AS118">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT118">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU118">
         <v>1.7</v>
@@ -23800,10 +23812,10 @@
         <v>2.33</v>
       </c>
       <c r="AS119">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT119">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU119">
         <v>1.79</v>
@@ -23904,7 +23916,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -23994,7 +24006,7 @@
         <v>2.23</v>
       </c>
       <c r="AT120">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU120">
         <v>1.72</v>
@@ -24286,7 +24298,7 @@
         <v>116</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24477,7 +24489,7 @@
         <v>157</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24758,7 +24770,7 @@
         <v>2.23</v>
       </c>
       <c r="AT124">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU124">
         <v>1.78</v>
@@ -24859,7 +24871,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25241,7 +25253,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25519,7 +25531,7 @@
         <v>0.73</v>
       </c>
       <c r="AS128">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT128">
         <v>0.75</v>
@@ -25814,7 +25826,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26005,7 +26017,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26092,10 +26104,10 @@
         <v>1.4</v>
       </c>
       <c r="AS131">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT131">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU131">
         <v>1.33</v>
@@ -26196,7 +26208,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26283,10 +26295,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS132">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT132">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU132">
         <v>1.69</v>
@@ -26387,7 +26399,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26578,7 +26590,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26665,10 +26677,10 @@
         <v>2.45</v>
       </c>
       <c r="AS134">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AT134">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -26960,7 +26972,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27047,7 +27059,7 @@
         <v>1.36</v>
       </c>
       <c r="AS136">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT136">
         <v>1.23</v>
@@ -27241,7 +27253,7 @@
         <v>2.08</v>
       </c>
       <c r="AT137">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -27342,7 +27354,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27623,7 +27635,7 @@
         <v>1.25</v>
       </c>
       <c r="AT139">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU139">
         <v>1.65</v>
@@ -27724,7 +27736,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28106,7 +28118,7 @@
         <v>79</v>
       </c>
       <c r="P142" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28297,7 +28309,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28488,7 +28500,7 @@
         <v>79</v>
       </c>
       <c r="P144" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -28575,7 +28587,7 @@
         <v>1.36</v>
       </c>
       <c r="AS144">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT144">
         <v>1.5</v>
@@ -28821,6 +28833,770 @@
       </c>
       <c r="BK145">
         <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5139634</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45142.3125</v>
+      </c>
+      <c r="F146">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s">
+        <v>76</v>
+      </c>
+      <c r="H146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>174</v>
+      </c>
+      <c r="P146" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q146">
+        <v>4</v>
+      </c>
+      <c r="R146">
+        <v>3</v>
+      </c>
+      <c r="S146">
+        <v>7</v>
+      </c>
+      <c r="T146">
+        <v>2.75</v>
+      </c>
+      <c r="U146">
+        <v>2.2</v>
+      </c>
+      <c r="V146">
+        <v>3.75</v>
+      </c>
+      <c r="W146">
+        <v>1.4</v>
+      </c>
+      <c r="X146">
+        <v>2.75</v>
+      </c>
+      <c r="Y146">
+        <v>2.75</v>
+      </c>
+      <c r="Z146">
+        <v>1.4</v>
+      </c>
+      <c r="AA146">
+        <v>8</v>
+      </c>
+      <c r="AB146">
+        <v>1.08</v>
+      </c>
+      <c r="AC146">
+        <v>2.15</v>
+      </c>
+      <c r="AD146">
+        <v>3.2</v>
+      </c>
+      <c r="AE146">
+        <v>3.15</v>
+      </c>
+      <c r="AF146">
+        <v>1.06</v>
+      </c>
+      <c r="AG146">
+        <v>8</v>
+      </c>
+      <c r="AH146">
+        <v>1.3</v>
+      </c>
+      <c r="AI146">
+        <v>3.3</v>
+      </c>
+      <c r="AJ146">
+        <v>1.9</v>
+      </c>
+      <c r="AK146">
+        <v>1.83</v>
+      </c>
+      <c r="AL146">
+        <v>1.73</v>
+      </c>
+      <c r="AM146">
+        <v>2</v>
+      </c>
+      <c r="AN146">
+        <v>1.28</v>
+      </c>
+      <c r="AO146">
+        <v>1.25</v>
+      </c>
+      <c r="AP146">
+        <v>1.7</v>
+      </c>
+      <c r="AQ146">
+        <v>1.5</v>
+      </c>
+      <c r="AR146">
+        <v>1.17</v>
+      </c>
+      <c r="AS146">
+        <v>1.62</v>
+      </c>
+      <c r="AT146">
+        <v>1.08</v>
+      </c>
+      <c r="AU146">
+        <v>1.7</v>
+      </c>
+      <c r="AV146">
+        <v>1.28</v>
+      </c>
+      <c r="AW146">
+        <v>2.98</v>
+      </c>
+      <c r="AX146">
+        <v>1.69</v>
+      </c>
+      <c r="AY146">
+        <v>7.5</v>
+      </c>
+      <c r="AZ146">
+        <v>2.64</v>
+      </c>
+      <c r="BA146">
+        <v>1.53</v>
+      </c>
+      <c r="BB146">
+        <v>1.85</v>
+      </c>
+      <c r="BC146">
+        <v>2.58</v>
+      </c>
+      <c r="BD146">
+        <v>3.56</v>
+      </c>
+      <c r="BE146">
+        <v>5.25</v>
+      </c>
+      <c r="BF146">
+        <v>10</v>
+      </c>
+      <c r="BG146">
+        <v>3</v>
+      </c>
+      <c r="BH146">
+        <v>4</v>
+      </c>
+      <c r="BI146">
+        <v>7</v>
+      </c>
+      <c r="BJ146">
+        <v>14</v>
+      </c>
+      <c r="BK146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5139635</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45142.3125</v>
+      </c>
+      <c r="F147">
+        <v>25</v>
+      </c>
+      <c r="G147" t="s">
+        <v>66</v>
+      </c>
+      <c r="H147" t="s">
+        <v>69</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>175</v>
+      </c>
+      <c r="P147" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q147">
+        <v>6</v>
+      </c>
+      <c r="R147">
+        <v>3</v>
+      </c>
+      <c r="S147">
+        <v>9</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
+        <v>2.1</v>
+      </c>
+      <c r="V147">
+        <v>3.75</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>2.63</v>
+      </c>
+      <c r="Y147">
+        <v>3.25</v>
+      </c>
+      <c r="Z147">
+        <v>1.33</v>
+      </c>
+      <c r="AA147">
+        <v>9</v>
+      </c>
+      <c r="AB147">
+        <v>1.07</v>
+      </c>
+      <c r="AC147">
+        <v>2.3</v>
+      </c>
+      <c r="AD147">
+        <v>3.15</v>
+      </c>
+      <c r="AE147">
+        <v>2.85</v>
+      </c>
+      <c r="AF147">
+        <v>1.04</v>
+      </c>
+      <c r="AG147">
+        <v>7.8</v>
+      </c>
+      <c r="AH147">
+        <v>1.33</v>
+      </c>
+      <c r="AI147">
+        <v>3.1</v>
+      </c>
+      <c r="AJ147">
+        <v>2.15</v>
+      </c>
+      <c r="AK147">
+        <v>1.65</v>
+      </c>
+      <c r="AL147">
+        <v>1.83</v>
+      </c>
+      <c r="AM147">
+        <v>1.83</v>
+      </c>
+      <c r="AN147">
+        <v>1.33</v>
+      </c>
+      <c r="AO147">
+        <v>1.25</v>
+      </c>
+      <c r="AP147">
+        <v>1.57</v>
+      </c>
+      <c r="AQ147">
+        <v>1.83</v>
+      </c>
+      <c r="AR147">
+        <v>1.36</v>
+      </c>
+      <c r="AS147">
+        <v>1.77</v>
+      </c>
+      <c r="AT147">
+        <v>1.33</v>
+      </c>
+      <c r="AU147">
+        <v>1.79</v>
+      </c>
+      <c r="AV147">
+        <v>1.31</v>
+      </c>
+      <c r="AW147">
+        <v>3.1</v>
+      </c>
+      <c r="AX147">
+        <v>1.91</v>
+      </c>
+      <c r="AY147">
+        <v>7.5</v>
+      </c>
+      <c r="AZ147">
+        <v>2.2</v>
+      </c>
+      <c r="BA147">
+        <v>1.38</v>
+      </c>
+      <c r="BB147">
+        <v>1.7</v>
+      </c>
+      <c r="BC147">
+        <v>2.16</v>
+      </c>
+      <c r="BD147">
+        <v>2.88</v>
+      </c>
+      <c r="BE147">
+        <v>4.05</v>
+      </c>
+      <c r="BF147">
+        <v>7</v>
+      </c>
+      <c r="BG147">
+        <v>4</v>
+      </c>
+      <c r="BH147">
+        <v>4</v>
+      </c>
+      <c r="BI147">
+        <v>2</v>
+      </c>
+      <c r="BJ147">
+        <v>11</v>
+      </c>
+      <c r="BK147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5139636</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45143.29166666666</v>
+      </c>
+      <c r="F148">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s">
+        <v>67</v>
+      </c>
+      <c r="H148" t="s">
+        <v>72</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>79</v>
+      </c>
+      <c r="P148" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q148">
+        <v>3</v>
+      </c>
+      <c r="R148">
+        <v>3</v>
+      </c>
+      <c r="S148">
+        <v>6</v>
+      </c>
+      <c r="T148">
+        <v>2.63</v>
+      </c>
+      <c r="U148">
+        <v>2.2</v>
+      </c>
+      <c r="V148">
+        <v>4</v>
+      </c>
+      <c r="W148">
+        <v>1.36</v>
+      </c>
+      <c r="X148">
+        <v>3</v>
+      </c>
+      <c r="Y148">
+        <v>2.75</v>
+      </c>
+      <c r="Z148">
+        <v>1.4</v>
+      </c>
+      <c r="AA148">
+        <v>7</v>
+      </c>
+      <c r="AB148">
+        <v>1.1</v>
+      </c>
+      <c r="AC148">
+        <v>2.08</v>
+      </c>
+      <c r="AD148">
+        <v>3.66</v>
+      </c>
+      <c r="AE148">
+        <v>3.5</v>
+      </c>
+      <c r="AF148">
+        <v>1.05</v>
+      </c>
+      <c r="AG148">
+        <v>9</v>
+      </c>
+      <c r="AH148">
+        <v>1.25</v>
+      </c>
+      <c r="AI148">
+        <v>3.6</v>
+      </c>
+      <c r="AJ148">
+        <v>1.84</v>
+      </c>
+      <c r="AK148">
+        <v>2.02</v>
+      </c>
+      <c r="AL148">
+        <v>1.67</v>
+      </c>
+      <c r="AM148">
+        <v>2.1</v>
+      </c>
+      <c r="AN148">
+        <v>1.25</v>
+      </c>
+      <c r="AO148">
+        <v>1.22</v>
+      </c>
+      <c r="AP148">
+        <v>1.75</v>
+      </c>
+      <c r="AQ148">
+        <v>0.5</v>
+      </c>
+      <c r="AR148">
+        <v>0.45</v>
+      </c>
+      <c r="AS148">
+        <v>0.46</v>
+      </c>
+      <c r="AT148">
+        <v>0.67</v>
+      </c>
+      <c r="AU148">
+        <v>1.34</v>
+      </c>
+      <c r="AV148">
+        <v>1.47</v>
+      </c>
+      <c r="AW148">
+        <v>2.81</v>
+      </c>
+      <c r="AX148">
+        <v>1.69</v>
+      </c>
+      <c r="AY148">
+        <v>8</v>
+      </c>
+      <c r="AZ148">
+        <v>2.65</v>
+      </c>
+      <c r="BA148">
+        <v>1.36</v>
+      </c>
+      <c r="BB148">
+        <v>1.67</v>
+      </c>
+      <c r="BC148">
+        <v>2.11</v>
+      </c>
+      <c r="BD148">
+        <v>2.79</v>
+      </c>
+      <c r="BE148">
+        <v>3.94</v>
+      </c>
+      <c r="BF148">
+        <v>3</v>
+      </c>
+      <c r="BG148">
+        <v>4</v>
+      </c>
+      <c r="BH148">
+        <v>5</v>
+      </c>
+      <c r="BI148">
+        <v>4</v>
+      </c>
+      <c r="BJ148">
+        <v>8</v>
+      </c>
+      <c r="BK148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5139637</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45143.3125</v>
+      </c>
+      <c r="F149">
+        <v>25</v>
+      </c>
+      <c r="G149" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149" t="s">
+        <v>65</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>79</v>
+      </c>
+      <c r="P149" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q149">
+        <v>2</v>
+      </c>
+      <c r="R149">
+        <v>12</v>
+      </c>
+      <c r="S149">
+        <v>14</v>
+      </c>
+      <c r="T149">
+        <v>4.33</v>
+      </c>
+      <c r="U149">
+        <v>2.2</v>
+      </c>
+      <c r="V149">
+        <v>2.6</v>
+      </c>
+      <c r="W149">
+        <v>1.36</v>
+      </c>
+      <c r="X149">
+        <v>3</v>
+      </c>
+      <c r="Y149">
+        <v>2.75</v>
+      </c>
+      <c r="Z149">
+        <v>1.4</v>
+      </c>
+      <c r="AA149">
+        <v>7</v>
+      </c>
+      <c r="AB149">
+        <v>1.1</v>
+      </c>
+      <c r="AC149">
+        <v>3.9</v>
+      </c>
+      <c r="AD149">
+        <v>3.68</v>
+      </c>
+      <c r="AE149">
+        <v>1.95</v>
+      </c>
+      <c r="AF149">
+        <v>1.05</v>
+      </c>
+      <c r="AG149">
+        <v>9</v>
+      </c>
+      <c r="AH149">
+        <v>1.28</v>
+      </c>
+      <c r="AI149">
+        <v>3.5</v>
+      </c>
+      <c r="AJ149">
+        <v>1.84</v>
+      </c>
+      <c r="AK149">
+        <v>2.02</v>
+      </c>
+      <c r="AL149">
+        <v>1.73</v>
+      </c>
+      <c r="AM149">
+        <v>2</v>
+      </c>
+      <c r="AN149">
+        <v>1.8</v>
+      </c>
+      <c r="AO149">
+        <v>1.22</v>
+      </c>
+      <c r="AP149">
+        <v>1.2</v>
+      </c>
+      <c r="AQ149">
+        <v>1.55</v>
+      </c>
+      <c r="AR149">
+        <v>2.25</v>
+      </c>
+      <c r="AS149">
+        <v>1.5</v>
+      </c>
+      <c r="AT149">
+        <v>2.15</v>
+      </c>
+      <c r="AU149">
+        <v>1.44</v>
+      </c>
+      <c r="AV149">
+        <v>1.58</v>
+      </c>
+      <c r="AW149">
+        <v>3.02</v>
+      </c>
+      <c r="AX149">
+        <v>2.8</v>
+      </c>
+      <c r="AY149">
+        <v>8</v>
+      </c>
+      <c r="AZ149">
+        <v>1.59</v>
+      </c>
+      <c r="BA149">
+        <v>1.4</v>
+      </c>
+      <c r="BB149">
+        <v>1.85</v>
+      </c>
+      <c r="BC149">
+        <v>2.23</v>
+      </c>
+      <c r="BD149">
+        <v>2.98</v>
+      </c>
+      <c r="BE149">
+        <v>4.25</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
+        <v>7</v>
+      </c>
+      <c r="BH149">
+        <v>8</v>
+      </c>
+      <c r="BI149">
+        <v>5</v>
+      </c>
+      <c r="BJ149">
+        <v>8</v>
+      </c>
+      <c r="BK149">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,12 @@
     <t>['54', '68']</t>
   </si>
   <si>
+    <t>['15', '45']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -629,9 +635,6 @@
   </si>
   <si>
     <t>['22', '51', '72']</t>
-  </si>
-  <si>
-    <t>['90+6']</t>
   </si>
   <si>
     <t>['21', '33', '79']</t>
@@ -773,6 +776,9 @@
   </si>
   <si>
     <t>['26', '45+3']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK149"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1384,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1569,7 +1575,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1659,7 +1665,7 @@
         <v>1.77</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1760,7 +1766,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2038,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT5">
         <v>0.67</v>
@@ -2142,7 +2148,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2423,7 +2429,7 @@
         <v>1.58</v>
       </c>
       <c r="AT7">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2524,7 +2530,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2715,7 +2721,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2906,7 +2912,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3184,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3288,7 +3294,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3479,7 +3485,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4052,7 +4058,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4243,7 +4249,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4521,7 +4527,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -4906,7 +4912,7 @@
         <v>2.23</v>
       </c>
       <c r="AT20">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU20">
         <v>1.91</v>
@@ -5097,7 +5103,7 @@
         <v>1.62</v>
       </c>
       <c r="AT21">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU21">
         <v>1.25</v>
@@ -5198,7 +5204,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5285,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
         <v>1.25</v>
@@ -5580,7 +5586,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5962,7 +5968,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6049,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT26">
         <v>1.33</v>
@@ -6535,7 +6541,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6726,7 +6732,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6813,7 +6819,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT30">
         <v>2.15</v>
@@ -6917,7 +6923,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7007,7 +7013,7 @@
         <v>0.46</v>
       </c>
       <c r="AT31">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7108,7 +7114,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7681,7 +7687,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7959,10 +7965,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT36">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -8063,7 +8069,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8254,7 +8260,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8445,7 +8451,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8827,7 +8833,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8917,7 +8923,7 @@
         <v>0.58</v>
       </c>
       <c r="AT41">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU41">
         <v>1.19</v>
@@ -9209,7 +9215,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9400,7 +9406,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9782,7 +9788,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9973,7 +9979,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10254,7 +10260,7 @@
         <v>1.62</v>
       </c>
       <c r="AT48">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU48">
         <v>1.9</v>
@@ -10355,7 +10361,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10442,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10928,7 +10934,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11119,7 +11125,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11310,7 +11316,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11397,7 +11403,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT54">
         <v>1.08</v>
@@ -11692,7 +11698,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11883,7 +11889,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11970,10 +11976,10 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT57">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU57">
         <v>1.37</v>
@@ -12074,7 +12080,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12265,7 +12271,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12355,7 +12361,7 @@
         <v>2.23</v>
       </c>
       <c r="AT59">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU59">
         <v>1.64</v>
@@ -12456,7 +12462,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12838,7 +12844,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13029,7 +13035,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13220,7 +13226,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13498,7 +13504,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT65">
         <v>1.33</v>
@@ -13692,7 +13698,7 @@
         <v>1.15</v>
       </c>
       <c r="AT66">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -14074,7 +14080,7 @@
         <v>2.42</v>
       </c>
       <c r="AT68">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU68">
         <v>1.49</v>
@@ -14175,7 +14181,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14644,10 +14650,10 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT71">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU71">
         <v>1.79</v>
@@ -14748,7 +14754,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14939,7 +14945,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15130,7 +15136,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15321,7 +15327,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15512,7 +15518,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15703,7 +15709,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16085,7 +16091,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16276,7 +16282,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16467,7 +16473,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -17040,7 +17046,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17231,7 +17237,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17318,7 +17324,7 @@
         <v>0.4</v>
       </c>
       <c r="AS85">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT85">
         <v>0.67</v>
@@ -17509,7 +17515,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17613,7 +17619,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17703,7 +17709,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU87">
         <v>1.37</v>
@@ -17894,7 +17900,7 @@
         <v>1.77</v>
       </c>
       <c r="AT88">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU88">
         <v>1.74</v>
@@ -17995,7 +18001,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18186,7 +18192,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18655,7 +18661,7 @@
         <v>2.57</v>
       </c>
       <c r="AS92">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT92">
         <v>2.15</v>
@@ -18759,7 +18765,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18950,7 +18956,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19037,10 +19043,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT94">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU94">
         <v>1.78</v>
@@ -19141,7 +19147,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19332,7 +19338,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19422,7 +19428,7 @@
         <v>1.58</v>
       </c>
       <c r="AT96">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU96">
         <v>1.62</v>
@@ -19714,7 +19720,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19905,7 +19911,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20374,7 +20380,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT101">
         <v>1.23</v>
@@ -20669,7 +20675,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20860,7 +20866,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21051,7 +21057,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21433,7 +21439,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21624,7 +21630,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21905,7 +21911,7 @@
         <v>0.46</v>
       </c>
       <c r="AT109">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU109">
         <v>1.41</v>
@@ -22006,7 +22012,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22197,7 +22203,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22284,7 +22290,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT111">
         <v>1.08</v>
@@ -22579,7 +22585,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22770,7 +22776,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22961,7 +22967,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23051,7 +23057,7 @@
         <v>1.15</v>
       </c>
       <c r="AT115">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU115">
         <v>1.41</v>
@@ -23239,7 +23245,7 @@
         <v>1.7</v>
       </c>
       <c r="AS116">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT116">
         <v>1.31</v>
@@ -23343,7 +23349,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23916,7 +23922,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24197,7 +24203,7 @@
         <v>1.25</v>
       </c>
       <c r="AT121">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU121">
         <v>1.68</v>
@@ -24298,7 +24304,7 @@
         <v>116</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24385,7 +24391,7 @@
         <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT122">
         <v>1.23</v>
@@ -24489,7 +24495,7 @@
         <v>157</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24871,7 +24877,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -24961,7 +24967,7 @@
         <v>1.15</v>
       </c>
       <c r="AT125">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -25149,7 +25155,7 @@
         <v>1.4</v>
       </c>
       <c r="AS126">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT126">
         <v>1.25</v>
@@ -25253,7 +25259,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25534,7 +25540,7 @@
         <v>1.5</v>
       </c>
       <c r="AT128">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU128">
         <v>1.42</v>
@@ -25722,7 +25728,7 @@
         <v>1.2</v>
       </c>
       <c r="AS129">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT129">
         <v>1.33</v>
@@ -25826,7 +25832,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25916,7 +25922,7 @@
         <v>2.42</v>
       </c>
       <c r="AT130">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU130">
         <v>1.73</v>
@@ -26017,7 +26023,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26208,7 +26214,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26399,7 +26405,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26590,7 +26596,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26972,7 +26978,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27250,7 +27256,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT137">
         <v>0.67</v>
@@ -27354,7 +27360,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27736,7 +27742,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28118,7 +28124,7 @@
         <v>79</v>
       </c>
       <c r="P142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28309,7 +28315,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28500,7 +28506,7 @@
         <v>79</v>
       </c>
       <c r="P144" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -28590,7 +28596,7 @@
         <v>1.77</v>
       </c>
       <c r="AT144">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -29073,7 +29079,7 @@
         <v>175</v>
       </c>
       <c r="P147" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29264,7 +29270,7 @@
         <v>79</v>
       </c>
       <c r="P148" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29597,6 +29603,388 @@
       </c>
       <c r="BK149">
         <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5139638</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F150">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s">
+        <v>74</v>
+      </c>
+      <c r="H150" t="s">
+        <v>71</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>176</v>
+      </c>
+      <c r="P150" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q150">
+        <v>5</v>
+      </c>
+      <c r="R150">
+        <v>12</v>
+      </c>
+      <c r="S150">
+        <v>17</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>2.2</v>
+      </c>
+      <c r="V150">
+        <v>4.33</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>3</v>
+      </c>
+      <c r="Y150">
+        <v>2.75</v>
+      </c>
+      <c r="Z150">
+        <v>1.4</v>
+      </c>
+      <c r="AA150">
+        <v>7</v>
+      </c>
+      <c r="AB150">
+        <v>1.1</v>
+      </c>
+      <c r="AC150">
+        <v>1.85</v>
+      </c>
+      <c r="AD150">
+        <v>3.6</v>
+      </c>
+      <c r="AE150">
+        <v>3.9</v>
+      </c>
+      <c r="AF150">
+        <v>1.05</v>
+      </c>
+      <c r="AG150">
+        <v>9</v>
+      </c>
+      <c r="AH150">
+        <v>1.28</v>
+      </c>
+      <c r="AI150">
+        <v>3.5</v>
+      </c>
+      <c r="AJ150">
+        <v>1.8</v>
+      </c>
+      <c r="AK150">
+        <v>1.91</v>
+      </c>
+      <c r="AL150">
+        <v>1.73</v>
+      </c>
+      <c r="AM150">
+        <v>2</v>
+      </c>
+      <c r="AN150">
+        <v>1.23</v>
+      </c>
+      <c r="AO150">
+        <v>1.25</v>
+      </c>
+      <c r="AP150">
+        <v>1.76</v>
+      </c>
+      <c r="AQ150">
+        <v>2.08</v>
+      </c>
+      <c r="AR150">
+        <v>1.5</v>
+      </c>
+      <c r="AS150">
+        <v>2.15</v>
+      </c>
+      <c r="AT150">
+        <v>1.38</v>
+      </c>
+      <c r="AU150">
+        <v>1.48</v>
+      </c>
+      <c r="AV150">
+        <v>1.3</v>
+      </c>
+      <c r="AW150">
+        <v>2.78</v>
+      </c>
+      <c r="AX150">
+        <v>1.75</v>
+      </c>
+      <c r="AY150">
+        <v>8</v>
+      </c>
+      <c r="AZ150">
+        <v>2.52</v>
+      </c>
+      <c r="BA150">
+        <v>1.31</v>
+      </c>
+      <c r="BB150">
+        <v>1.59</v>
+      </c>
+      <c r="BC150">
+        <v>1.85</v>
+      </c>
+      <c r="BD150">
+        <v>2.65</v>
+      </c>
+      <c r="BE150">
+        <v>3.64</v>
+      </c>
+      <c r="BF150">
+        <v>6</v>
+      </c>
+      <c r="BG150">
+        <v>3</v>
+      </c>
+      <c r="BH150">
+        <v>2</v>
+      </c>
+      <c r="BI150">
+        <v>5</v>
+      </c>
+      <c r="BJ150">
+        <v>8</v>
+      </c>
+      <c r="BK150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5139639</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45144.3125</v>
+      </c>
+      <c r="F151">
+        <v>25</v>
+      </c>
+      <c r="G151" t="s">
+        <v>68</v>
+      </c>
+      <c r="H151" t="s">
+        <v>75</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>177</v>
+      </c>
+      <c r="P151" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q151">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <v>1</v>
+      </c>
+      <c r="S151">
+        <v>4</v>
+      </c>
+      <c r="T151">
+        <v>2.6</v>
+      </c>
+      <c r="U151">
+        <v>2.1</v>
+      </c>
+      <c r="V151">
+        <v>4.5</v>
+      </c>
+      <c r="W151">
+        <v>1.44</v>
+      </c>
+      <c r="X151">
+        <v>2.63</v>
+      </c>
+      <c r="Y151">
+        <v>3.25</v>
+      </c>
+      <c r="Z151">
+        <v>1.33</v>
+      </c>
+      <c r="AA151">
+        <v>9</v>
+      </c>
+      <c r="AB151">
+        <v>1.07</v>
+      </c>
+      <c r="AC151">
+        <v>2</v>
+      </c>
+      <c r="AD151">
+        <v>3.5</v>
+      </c>
+      <c r="AE151">
+        <v>3.5</v>
+      </c>
+      <c r="AF151">
+        <v>1.07</v>
+      </c>
+      <c r="AG151">
+        <v>7.5</v>
+      </c>
+      <c r="AH151">
+        <v>1.33</v>
+      </c>
+      <c r="AI151">
+        <v>3.1</v>
+      </c>
+      <c r="AJ151">
+        <v>2.1</v>
+      </c>
+      <c r="AK151">
+        <v>1.67</v>
+      </c>
+      <c r="AL151">
+        <v>1.91</v>
+      </c>
+      <c r="AM151">
+        <v>1.8</v>
+      </c>
+      <c r="AN151">
+        <v>1.2</v>
+      </c>
+      <c r="AO151">
+        <v>1.25</v>
+      </c>
+      <c r="AP151">
+        <v>1.72</v>
+      </c>
+      <c r="AQ151">
+        <v>1.18</v>
+      </c>
+      <c r="AR151">
+        <v>0.75</v>
+      </c>
+      <c r="AS151">
+        <v>1.17</v>
+      </c>
+      <c r="AT151">
+        <v>0.77</v>
+      </c>
+      <c r="AU151">
+        <v>1.62</v>
+      </c>
+      <c r="AV151">
+        <v>1.2</v>
+      </c>
+      <c r="AW151">
+        <v>2.82</v>
+      </c>
+      <c r="AX151">
+        <v>1.69</v>
+      </c>
+      <c r="AY151">
+        <v>7.5</v>
+      </c>
+      <c r="AZ151">
+        <v>2.64</v>
+      </c>
+      <c r="BA151">
+        <v>1.4</v>
+      </c>
+      <c r="BB151">
+        <v>1.95</v>
+      </c>
+      <c r="BC151">
+        <v>2.21</v>
+      </c>
+      <c r="BD151">
+        <v>2.98</v>
+      </c>
+      <c r="BE151">
+        <v>4.25</v>
+      </c>
+      <c r="BF151">
+        <v>3</v>
+      </c>
+      <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
+        <v>10</v>
+      </c>
+      <c r="BI151">
+        <v>3</v>
+      </c>
+      <c r="BJ151">
+        <v>13</v>
+      </c>
+      <c r="BK151">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,24 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['38', '90+7']</t>
+  </si>
+  <si>
+    <t>['35', '45+3', '63']</t>
+  </si>
+  <si>
+    <t>['32', '42', '87', '90+1']</t>
+  </si>
+  <si>
+    <t>['23', '32', '45+1']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -653,9 +671,6 @@
   </si>
   <si>
     <t>['30']</t>
-  </si>
-  <si>
-    <t>['21']</t>
   </si>
   <si>
     <t>['1', '41', '66']</t>
@@ -779,6 +794,9 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['45', '89', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1402,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1575,7 +1593,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1766,7 +1784,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1856,7 +1874,7 @@
         <v>0.46</v>
       </c>
       <c r="AT4">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2044,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2148,7 +2166,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2235,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT6">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2426,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT7">
         <v>0.77</v>
@@ -2530,7 +2548,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2617,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT8">
         <v>1.08</v>
@@ -2721,7 +2739,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2912,7 +2930,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3190,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3294,7 +3312,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3381,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT12">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3485,7 +3503,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3575,7 +3593,7 @@
         <v>1.62</v>
       </c>
       <c r="AT13">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3954,7 +3972,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT15">
         <v>1.33</v>
@@ -4058,7 +4076,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4145,10 +4163,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT16">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU16">
         <v>1.2</v>
@@ -4249,7 +4267,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4339,7 +4357,7 @@
         <v>1.77</v>
       </c>
       <c r="AT17">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU17">
         <v>1.95</v>
@@ -4527,10 +4545,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU18">
         <v>1.34</v>
@@ -4718,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT19">
         <v>1.31</v>
@@ -4909,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT20">
         <v>0.77</v>
@@ -5204,7 +5222,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5291,10 +5309,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU22">
         <v>2.03</v>
@@ -5586,7 +5604,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5867,7 +5885,7 @@
         <v>2.42</v>
       </c>
       <c r="AT25">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU25">
         <v>0.91</v>
@@ -5968,7 +5986,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6055,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT26">
         <v>1.33</v>
@@ -6246,10 +6264,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT27">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU27">
         <v>2.23</v>
@@ -6440,7 +6458,7 @@
         <v>1.62</v>
       </c>
       <c r="AT28">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6541,7 +6559,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6628,10 +6646,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT29">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6732,7 +6750,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6819,10 +6837,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT30">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU30">
         <v>1.82</v>
@@ -6923,7 +6941,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7114,7 +7132,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7395,7 +7413,7 @@
         <v>1.77</v>
       </c>
       <c r="AT33">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU33">
         <v>1.41</v>
@@ -7583,10 +7601,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT34">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU34">
         <v>1.91</v>
@@ -7687,7 +7705,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7965,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT36">
         <v>1.38</v>
@@ -8069,7 +8087,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8156,7 +8174,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT37">
         <v>1.31</v>
@@ -8260,7 +8278,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8451,7 +8469,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8538,10 +8556,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT39">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU39">
         <v>1.76</v>
@@ -8833,7 +8851,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8920,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT41">
         <v>1.38</v>
@@ -9111,10 +9129,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT42">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9215,7 +9233,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9305,7 +9323,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU43">
         <v>1.37</v>
@@ -9406,7 +9424,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9788,7 +9806,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9979,7 +9997,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10066,10 +10084,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU47">
         <v>1.86</v>
@@ -10361,7 +10379,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10448,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10639,10 +10657,10 @@
         <v>2.25</v>
       </c>
       <c r="AS50">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT50">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU50">
         <v>1.83</v>
@@ -10830,7 +10848,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -10934,7 +10952,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11125,7 +11143,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11212,10 +11230,10 @@
         <v>1.75</v>
       </c>
       <c r="AS53">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT53">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU53">
         <v>1.13</v>
@@ -11316,7 +11334,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11403,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT54">
         <v>1.08</v>
@@ -11597,7 +11615,7 @@
         <v>1.15</v>
       </c>
       <c r="AT55">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU55">
         <v>1.55</v>
@@ -11698,7 +11716,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11788,7 +11806,7 @@
         <v>1.15</v>
       </c>
       <c r="AT56">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU56">
         <v>1.5</v>
@@ -11976,7 +11994,7 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT57">
         <v>0.77</v>
@@ -12080,7 +12098,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12167,7 +12185,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT58">
         <v>1.31</v>
@@ -12271,7 +12289,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12358,7 +12376,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT59">
         <v>1.38</v>
@@ -12462,7 +12480,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12552,7 +12570,7 @@
         <v>0.46</v>
       </c>
       <c r="AT60">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12743,7 +12761,7 @@
         <v>2.42</v>
       </c>
       <c r="AT61">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU61">
         <v>1.43</v>
@@ -12844,7 +12862,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12934,7 +12952,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU62">
         <v>1.42</v>
@@ -13035,7 +13053,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13226,7 +13244,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13313,7 +13331,7 @@
         <v>0.2</v>
       </c>
       <c r="AS64">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -13504,7 +13522,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT65">
         <v>1.33</v>
@@ -14181,7 +14199,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -14462,7 +14480,7 @@
         <v>1.77</v>
       </c>
       <c r="AT70">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU70">
         <v>1.64</v>
@@ -14650,7 +14668,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT71">
         <v>1.38</v>
@@ -14754,7 +14772,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14945,7 +14963,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15032,10 +15050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT73">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU73">
         <v>1.42</v>
@@ -15136,7 +15154,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15223,7 +15241,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT74">
         <v>1.08</v>
@@ -15327,7 +15345,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15417,7 +15435,7 @@
         <v>1.62</v>
       </c>
       <c r="AT75">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU75">
         <v>1.94</v>
@@ -15518,7 +15536,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15605,7 +15623,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15709,7 +15727,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15799,7 +15817,7 @@
         <v>2.42</v>
       </c>
       <c r="AT77">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU77">
         <v>1.49</v>
@@ -15987,7 +16005,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16091,7 +16109,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16282,7 +16300,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16369,10 +16387,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU80">
         <v>1.71</v>
@@ -16473,7 +16491,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16751,10 +16769,10 @@
         <v>1.29</v>
       </c>
       <c r="AS82">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT82">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -16942,7 +16960,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT83">
         <v>1.33</v>
@@ -17046,7 +17064,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17136,7 +17154,7 @@
         <v>0.46</v>
       </c>
       <c r="AT84">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU84">
         <v>1.45</v>
@@ -17237,7 +17255,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17324,10 +17342,10 @@
         <v>0.4</v>
       </c>
       <c r="AS85">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT85">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17515,7 +17533,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17619,7 +17637,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18001,7 +18019,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18091,7 +18109,7 @@
         <v>1.15</v>
       </c>
       <c r="AT89">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18192,7 +18210,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18470,7 +18488,7 @@
         <v>1.14</v>
       </c>
       <c r="AS91">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -18661,10 +18679,10 @@
         <v>2.57</v>
       </c>
       <c r="AS92">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT92">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18765,7 +18783,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18855,7 +18873,7 @@
         <v>0.46</v>
       </c>
       <c r="AT93">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU93">
         <v>1.38</v>
@@ -18956,7 +18974,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19043,7 +19061,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT94">
         <v>0.77</v>
@@ -19147,7 +19165,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19338,7 +19356,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19425,7 +19443,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT96">
         <v>1.38</v>
@@ -19619,7 +19637,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU97">
         <v>1.44</v>
@@ -19720,7 +19738,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19810,7 +19828,7 @@
         <v>1.15</v>
       </c>
       <c r="AT98">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU98">
         <v>1.43</v>
@@ -19911,7 +19929,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19998,7 +20016,7 @@
         <v>2.13</v>
       </c>
       <c r="AS99">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT99">
         <v>1.31</v>
@@ -20380,10 +20398,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT101">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU101">
         <v>1.48</v>
@@ -20571,10 +20589,10 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT102">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU102">
         <v>1.74</v>
@@ -20675,7 +20693,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20762,7 +20780,7 @@
         <v>1.13</v>
       </c>
       <c r="AS103">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT103">
         <v>1.08</v>
@@ -20866,7 +20884,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20956,7 +20974,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU104">
         <v>1.37</v>
@@ -21057,7 +21075,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21335,10 +21353,10 @@
         <v>1.25</v>
       </c>
       <c r="AS106">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT106">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21439,7 +21457,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21526,7 +21544,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -21630,7 +21648,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -22012,7 +22030,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22102,7 +22120,7 @@
         <v>0.46</v>
       </c>
       <c r="AT110">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU110">
         <v>1.33</v>
@@ -22203,7 +22221,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22290,7 +22308,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT111">
         <v>1.08</v>
@@ -22585,7 +22603,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22675,7 +22693,7 @@
         <v>2.42</v>
       </c>
       <c r="AT113">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU113">
         <v>1.7</v>
@@ -22776,7 +22794,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22863,7 +22881,7 @@
         <v>1.22</v>
       </c>
       <c r="AS114">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT114">
         <v>1.33</v>
@@ -22967,7 +22985,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23245,7 +23263,7 @@
         <v>1.7</v>
       </c>
       <c r="AS116">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT116">
         <v>1.31</v>
@@ -23349,7 +23367,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23821,7 +23839,7 @@
         <v>1.62</v>
       </c>
       <c r="AT119">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU119">
         <v>1.79</v>
@@ -23922,7 +23940,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24009,10 +24027,10 @@
         <v>0.63</v>
       </c>
       <c r="AS120">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT120">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU120">
         <v>1.72</v>
@@ -24200,7 +24218,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT121">
         <v>0.77</v>
@@ -24304,7 +24322,7 @@
         <v>116</v>
       </c>
       <c r="P122" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24391,10 +24409,10 @@
         <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT122">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU122">
         <v>1.71</v>
@@ -24495,7 +24513,7 @@
         <v>157</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24582,10 +24600,10 @@
         <v>1.22</v>
       </c>
       <c r="AS123">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT123">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU123">
         <v>1.21</v>
@@ -24773,10 +24791,10 @@
         <v>2.4</v>
       </c>
       <c r="AS124">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT124">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU124">
         <v>1.78</v>
@@ -24877,7 +24895,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25155,10 +25173,10 @@
         <v>1.4</v>
       </c>
       <c r="AS126">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT126">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU126">
         <v>1.47</v>
@@ -25259,7 +25277,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25346,7 +25364,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT127">
         <v>1</v>
@@ -25728,10 +25746,10 @@
         <v>1.2</v>
       </c>
       <c r="AS129">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT129">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU129">
         <v>1.68</v>
@@ -25832,7 +25850,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26023,7 +26041,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26214,7 +26232,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26304,7 +26322,7 @@
         <v>1.77</v>
       </c>
       <c r="AT132">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU132">
         <v>1.69</v>
@@ -26405,7 +26423,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26492,7 +26510,7 @@
         <v>1.1</v>
       </c>
       <c r="AS133">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -26596,7 +26614,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26686,7 +26704,7 @@
         <v>0.46</v>
       </c>
       <c r="AT134">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -26874,10 +26892,10 @@
         <v>1.27</v>
       </c>
       <c r="AS135">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT135">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU135">
         <v>1.2</v>
@@ -26978,7 +26996,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27068,7 +27086,7 @@
         <v>1.62</v>
       </c>
       <c r="AT136">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU136">
         <v>1.73</v>
@@ -27256,10 +27274,10 @@
         <v>0.5</v>
       </c>
       <c r="AS137">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT137">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -27360,7 +27378,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27447,7 +27465,7 @@
         <v>1.55</v>
       </c>
       <c r="AS138">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT138">
         <v>1.31</v>
@@ -27638,7 +27656,7 @@
         <v>1.27</v>
       </c>
       <c r="AS139">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT139">
         <v>1.08</v>
@@ -27742,7 +27760,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28020,7 +28038,7 @@
         <v>1.09</v>
       </c>
       <c r="AS141">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT141">
         <v>1</v>
@@ -28124,7 +28142,7 @@
         <v>79</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28214,7 +28232,7 @@
         <v>1.15</v>
       </c>
       <c r="AT142">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU142">
         <v>1.46</v>
@@ -28315,7 +28333,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28402,7 +28420,7 @@
         <v>0.82</v>
       </c>
       <c r="AS143">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28506,7 +28524,7 @@
         <v>79</v>
       </c>
       <c r="P144" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -28784,10 +28802,10 @@
         <v>1.33</v>
       </c>
       <c r="AS145">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT145">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU145">
         <v>1.64</v>
@@ -29079,7 +29097,7 @@
         <v>175</v>
       </c>
       <c r="P147" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29270,7 +29288,7 @@
         <v>79</v>
       </c>
       <c r="P148" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29360,7 +29378,7 @@
         <v>0.46</v>
       </c>
       <c r="AT148">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU148">
         <v>1.34</v>
@@ -29551,7 +29569,7 @@
         <v>1.5</v>
       </c>
       <c r="AT149">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AU149">
         <v>1.44</v>
@@ -29739,7 +29757,7 @@
         <v>1.5</v>
       </c>
       <c r="AS150">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT150">
         <v>1.38</v>
@@ -29843,7 +29861,7 @@
         <v>177</v>
       </c>
       <c r="P151" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -29930,7 +29948,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT151">
         <v>0.77</v>
@@ -29984,6 +30002,1152 @@
         <v>13</v>
       </c>
       <c r="BK151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5139640</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45150.29166666666</v>
+      </c>
+      <c r="F152">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>74</v>
+      </c>
+      <c r="H152" t="s">
+        <v>67</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>178</v>
+      </c>
+      <c r="P152" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q152">
+        <v>7</v>
+      </c>
+      <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>9</v>
+      </c>
+      <c r="T152">
+        <v>2.25</v>
+      </c>
+      <c r="U152">
+        <v>2.15</v>
+      </c>
+      <c r="V152">
+        <v>4.75</v>
+      </c>
+      <c r="W152">
+        <v>1.39</v>
+      </c>
+      <c r="X152">
+        <v>2.8</v>
+      </c>
+      <c r="Y152">
+        <v>2.75</v>
+      </c>
+      <c r="Z152">
+        <v>1.4</v>
+      </c>
+      <c r="AA152">
+        <v>6</v>
+      </c>
+      <c r="AB152">
+        <v>1.09</v>
+      </c>
+      <c r="AC152">
+        <v>1.65</v>
+      </c>
+      <c r="AD152">
+        <v>3.5</v>
+      </c>
+      <c r="AE152">
+        <v>4.33</v>
+      </c>
+      <c r="AF152">
+        <v>1.02</v>
+      </c>
+      <c r="AG152">
+        <v>9.1</v>
+      </c>
+      <c r="AH152">
+        <v>1.28</v>
+      </c>
+      <c r="AI152">
+        <v>3.4</v>
+      </c>
+      <c r="AJ152">
+        <v>1.85</v>
+      </c>
+      <c r="AK152">
+        <v>1.85</v>
+      </c>
+      <c r="AL152">
+        <v>1.83</v>
+      </c>
+      <c r="AM152">
+        <v>1.9</v>
+      </c>
+      <c r="AN152">
+        <v>1.15</v>
+      </c>
+      <c r="AO152">
+        <v>1.2</v>
+      </c>
+      <c r="AP152">
+        <v>2</v>
+      </c>
+      <c r="AQ152">
+        <v>2.15</v>
+      </c>
+      <c r="AR152">
+        <v>1</v>
+      </c>
+      <c r="AS152">
+        <v>2.07</v>
+      </c>
+      <c r="AT152">
+        <v>1</v>
+      </c>
+      <c r="AU152">
+        <v>1.46</v>
+      </c>
+      <c r="AV152">
+        <v>1.33</v>
+      </c>
+      <c r="AW152">
+        <v>2.79</v>
+      </c>
+      <c r="AX152">
+        <v>1.36</v>
+      </c>
+      <c r="AY152">
+        <v>6</v>
+      </c>
+      <c r="AZ152">
+        <v>3.75</v>
+      </c>
+      <c r="BA152">
+        <v>1.38</v>
+      </c>
+      <c r="BB152">
+        <v>1.8</v>
+      </c>
+      <c r="BC152">
+        <v>2.13</v>
+      </c>
+      <c r="BD152">
+        <v>2.85</v>
+      </c>
+      <c r="BE152">
+        <v>4.2</v>
+      </c>
+      <c r="BF152">
+        <v>5</v>
+      </c>
+      <c r="BG152">
+        <v>3</v>
+      </c>
+      <c r="BH152">
+        <v>2</v>
+      </c>
+      <c r="BI152">
+        <v>2</v>
+      </c>
+      <c r="BJ152">
+        <v>7</v>
+      </c>
+      <c r="BK152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>5139641</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45150.3125</v>
+      </c>
+      <c r="F153">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>75</v>
+      </c>
+      <c r="H153" t="s">
+        <v>65</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>179</v>
+      </c>
+      <c r="P153" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q153">
+        <v>3</v>
+      </c>
+      <c r="R153">
+        <v>6</v>
+      </c>
+      <c r="S153">
+        <v>9</v>
+      </c>
+      <c r="T153">
+        <v>4.5</v>
+      </c>
+      <c r="U153">
+        <v>2.25</v>
+      </c>
+      <c r="V153">
+        <v>2.3</v>
+      </c>
+      <c r="W153">
+        <v>1.36</v>
+      </c>
+      <c r="X153">
+        <v>2.9</v>
+      </c>
+      <c r="Y153">
+        <v>2.63</v>
+      </c>
+      <c r="Z153">
+        <v>1.43</v>
+      </c>
+      <c r="AA153">
+        <v>5.75</v>
+      </c>
+      <c r="AB153">
+        <v>1.1</v>
+      </c>
+      <c r="AC153">
+        <v>4.33</v>
+      </c>
+      <c r="AD153">
+        <v>3.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.65</v>
+      </c>
+      <c r="AF153">
+        <v>1.04</v>
+      </c>
+      <c r="AG153">
+        <v>13</v>
+      </c>
+      <c r="AH153">
+        <v>1.25</v>
+      </c>
+      <c r="AI153">
+        <v>3.6</v>
+      </c>
+      <c r="AJ153">
+        <v>1.85</v>
+      </c>
+      <c r="AK153">
+        <v>1.85</v>
+      </c>
+      <c r="AL153">
+        <v>1.75</v>
+      </c>
+      <c r="AM153">
+        <v>1.95</v>
+      </c>
+      <c r="AN153">
+        <v>2</v>
+      </c>
+      <c r="AO153">
+        <v>1.29</v>
+      </c>
+      <c r="AP153">
+        <v>1.22</v>
+      </c>
+      <c r="AQ153">
+        <v>0.58</v>
+      </c>
+      <c r="AR153">
+        <v>2.15</v>
+      </c>
+      <c r="AS153">
+        <v>0.77</v>
+      </c>
+      <c r="AT153">
+        <v>2</v>
+      </c>
+      <c r="AU153">
+        <v>1.22</v>
+      </c>
+      <c r="AV153">
+        <v>1.64</v>
+      </c>
+      <c r="AW153">
+        <v>2.86</v>
+      </c>
+      <c r="AX153">
+        <v>2.85</v>
+      </c>
+      <c r="AY153">
+        <v>5.75</v>
+      </c>
+      <c r="AZ153">
+        <v>1.57</v>
+      </c>
+      <c r="BA153">
+        <v>1.54</v>
+      </c>
+      <c r="BB153">
+        <v>1.85</v>
+      </c>
+      <c r="BC153">
+        <v>2.36</v>
+      </c>
+      <c r="BD153">
+        <v>3.28</v>
+      </c>
+      <c r="BE153">
+        <v>4.8</v>
+      </c>
+      <c r="BF153">
+        <v>9</v>
+      </c>
+      <c r="BG153">
+        <v>4</v>
+      </c>
+      <c r="BH153">
+        <v>3</v>
+      </c>
+      <c r="BI153">
+        <v>5</v>
+      </c>
+      <c r="BJ153">
+        <v>12</v>
+      </c>
+      <c r="BK153">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5139642</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45150.33333333334</v>
+      </c>
+      <c r="F154">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s">
+        <v>68</v>
+      </c>
+      <c r="H154" t="s">
+        <v>72</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>180</v>
+      </c>
+      <c r="P154" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q154">
+        <v>2</v>
+      </c>
+      <c r="R154">
+        <v>3</v>
+      </c>
+      <c r="S154">
+        <v>5</v>
+      </c>
+      <c r="T154">
+        <v>2.3</v>
+      </c>
+      <c r="U154">
+        <v>2.38</v>
+      </c>
+      <c r="V154">
+        <v>4</v>
+      </c>
+      <c r="W154">
+        <v>1.3</v>
+      </c>
+      <c r="X154">
+        <v>3.2</v>
+      </c>
+      <c r="Y154">
+        <v>2.38</v>
+      </c>
+      <c r="Z154">
+        <v>1.53</v>
+      </c>
+      <c r="AA154">
+        <v>5.25</v>
+      </c>
+      <c r="AB154">
+        <v>1.13</v>
+      </c>
+      <c r="AC154">
+        <v>1.75</v>
+      </c>
+      <c r="AD154">
+        <v>3.5</v>
+      </c>
+      <c r="AE154">
+        <v>3.75</v>
+      </c>
+      <c r="AF154">
+        <v>1.03</v>
+      </c>
+      <c r="AG154">
+        <v>16</v>
+      </c>
+      <c r="AH154">
+        <v>1.2</v>
+      </c>
+      <c r="AI154">
+        <v>4</v>
+      </c>
+      <c r="AJ154">
+        <v>1.6</v>
+      </c>
+      <c r="AK154">
+        <v>2.2</v>
+      </c>
+      <c r="AL154">
+        <v>1.57</v>
+      </c>
+      <c r="AM154">
+        <v>2.25</v>
+      </c>
+      <c r="AN154">
+        <v>1.25</v>
+      </c>
+      <c r="AO154">
+        <v>1.25</v>
+      </c>
+      <c r="AP154">
+        <v>1.95</v>
+      </c>
+      <c r="AQ154">
+        <v>1.17</v>
+      </c>
+      <c r="AR154">
+        <v>0.67</v>
+      </c>
+      <c r="AS154">
+        <v>1.31</v>
+      </c>
+      <c r="AT154">
+        <v>0.62</v>
+      </c>
+      <c r="AU154">
+        <v>1.62</v>
+      </c>
+      <c r="AV154">
+        <v>1.45</v>
+      </c>
+      <c r="AW154">
+        <v>3.07</v>
+      </c>
+      <c r="AX154">
+        <v>1.33</v>
+      </c>
+      <c r="AY154">
+        <v>6.5</v>
+      </c>
+      <c r="AZ154">
+        <v>3.8</v>
+      </c>
+      <c r="BA154">
+        <v>1.35</v>
+      </c>
+      <c r="BB154">
+        <v>1.8</v>
+      </c>
+      <c r="BC154">
+        <v>2.08</v>
+      </c>
+      <c r="BD154">
+        <v>2.75</v>
+      </c>
+      <c r="BE154">
+        <v>3.86</v>
+      </c>
+      <c r="BF154">
+        <v>9</v>
+      </c>
+      <c r="BG154">
+        <v>7</v>
+      </c>
+      <c r="BH154">
+        <v>5</v>
+      </c>
+      <c r="BI154">
+        <v>0</v>
+      </c>
+      <c r="BJ154">
+        <v>14</v>
+      </c>
+      <c r="BK154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5139643</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45151.29166666666</v>
+      </c>
+      <c r="F155">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>70</v>
+      </c>
+      <c r="H155" t="s">
+        <v>66</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
+      <c r="M155">
+        <v>3</v>
+      </c>
+      <c r="N155">
+        <v>7</v>
+      </c>
+      <c r="O155" t="s">
+        <v>181</v>
+      </c>
+      <c r="P155" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q155">
+        <v>4</v>
+      </c>
+      <c r="R155">
+        <v>4</v>
+      </c>
+      <c r="S155">
+        <v>8</v>
+      </c>
+      <c r="T155">
+        <v>3.5</v>
+      </c>
+      <c r="U155">
+        <v>2.2</v>
+      </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
+      <c r="W155">
+        <v>1.36</v>
+      </c>
+      <c r="X155">
+        <v>3</v>
+      </c>
+      <c r="Y155">
+        <v>2.75</v>
+      </c>
+      <c r="Z155">
+        <v>1.4</v>
+      </c>
+      <c r="AA155">
+        <v>7</v>
+      </c>
+      <c r="AB155">
+        <v>1.1</v>
+      </c>
+      <c r="AC155">
+        <v>2.65</v>
+      </c>
+      <c r="AD155">
+        <v>3.15</v>
+      </c>
+      <c r="AE155">
+        <v>2.2</v>
+      </c>
+      <c r="AF155">
+        <v>1.05</v>
+      </c>
+      <c r="AG155">
+        <v>7.8</v>
+      </c>
+      <c r="AH155">
+        <v>1.25</v>
+      </c>
+      <c r="AI155">
+        <v>3.5</v>
+      </c>
+      <c r="AJ155">
+        <v>1.78</v>
+      </c>
+      <c r="AK155">
+        <v>1.87</v>
+      </c>
+      <c r="AL155">
+        <v>1.67</v>
+      </c>
+      <c r="AM155">
+        <v>2.1</v>
+      </c>
+      <c r="AN155">
+        <v>1.57</v>
+      </c>
+      <c r="AO155">
+        <v>1.25</v>
+      </c>
+      <c r="AP155">
+        <v>1.37</v>
+      </c>
+      <c r="AQ155">
+        <v>1.58</v>
+      </c>
+      <c r="AR155">
+        <v>1.25</v>
+      </c>
+      <c r="AS155">
+        <v>1.69</v>
+      </c>
+      <c r="AT155">
+        <v>1.15</v>
+      </c>
+      <c r="AU155">
+        <v>1.61</v>
+      </c>
+      <c r="AV155">
+        <v>1.35</v>
+      </c>
+      <c r="AW155">
+        <v>2.96</v>
+      </c>
+      <c r="AX155">
+        <v>2.3</v>
+      </c>
+      <c r="AY155">
+        <v>5.5</v>
+      </c>
+      <c r="AZ155">
+        <v>1.74</v>
+      </c>
+      <c r="BA155">
+        <v>1.42</v>
+      </c>
+      <c r="BB155">
+        <v>1.65</v>
+      </c>
+      <c r="BC155">
+        <v>2.02</v>
+      </c>
+      <c r="BD155">
+        <v>3.08</v>
+      </c>
+      <c r="BE155">
+        <v>4.4</v>
+      </c>
+      <c r="BF155">
+        <v>7</v>
+      </c>
+      <c r="BG155">
+        <v>7</v>
+      </c>
+      <c r="BH155">
+        <v>2</v>
+      </c>
+      <c r="BI155">
+        <v>5</v>
+      </c>
+      <c r="BJ155">
+        <v>9</v>
+      </c>
+      <c r="BK155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5139644</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45151.3125</v>
+      </c>
+      <c r="F156">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>71</v>
+      </c>
+      <c r="H156" t="s">
+        <v>73</v>
+      </c>
+      <c r="I156">
+        <v>3</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156" t="s">
+        <v>182</v>
+      </c>
+      <c r="P156" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q156">
+        <v>2</v>
+      </c>
+      <c r="R156">
+        <v>3</v>
+      </c>
+      <c r="S156">
+        <v>5</v>
+      </c>
+      <c r="T156">
+        <v>3.1</v>
+      </c>
+      <c r="U156">
+        <v>2.1</v>
+      </c>
+      <c r="V156">
+        <v>3.6</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>2.63</v>
+      </c>
+      <c r="Y156">
+        <v>3.25</v>
+      </c>
+      <c r="Z156">
+        <v>1.33</v>
+      </c>
+      <c r="AA156">
+        <v>9</v>
+      </c>
+      <c r="AB156">
+        <v>1.07</v>
+      </c>
+      <c r="AC156">
+        <v>2.38</v>
+      </c>
+      <c r="AD156">
+        <v>3.2</v>
+      </c>
+      <c r="AE156">
+        <v>2.72</v>
+      </c>
+      <c r="AF156">
+        <v>1.07</v>
+      </c>
+      <c r="AG156">
+        <v>7.5</v>
+      </c>
+      <c r="AH156">
+        <v>1.36</v>
+      </c>
+      <c r="AI156">
+        <v>3</v>
+      </c>
+      <c r="AJ156">
+        <v>2.17</v>
+      </c>
+      <c r="AK156">
+        <v>1.61</v>
+      </c>
+      <c r="AL156">
+        <v>1.8</v>
+      </c>
+      <c r="AM156">
+        <v>1.91</v>
+      </c>
+      <c r="AN156">
+        <v>1.33</v>
+      </c>
+      <c r="AO156">
+        <v>1.25</v>
+      </c>
+      <c r="AP156">
+        <v>1.57</v>
+      </c>
+      <c r="AQ156">
+        <v>1.25</v>
+      </c>
+      <c r="AR156">
+        <v>1.23</v>
+      </c>
+      <c r="AS156">
+        <v>1.38</v>
+      </c>
+      <c r="AT156">
+        <v>1.14</v>
+      </c>
+      <c r="AU156">
+        <v>1.59</v>
+      </c>
+      <c r="AV156">
+        <v>1.18</v>
+      </c>
+      <c r="AW156">
+        <v>2.77</v>
+      </c>
+      <c r="AX156">
+        <v>1.47</v>
+      </c>
+      <c r="AY156">
+        <v>5.5</v>
+      </c>
+      <c r="AZ156">
+        <v>3.05</v>
+      </c>
+      <c r="BA156">
+        <v>1.51</v>
+      </c>
+      <c r="BB156">
+        <v>1.78</v>
+      </c>
+      <c r="BC156">
+        <v>2.25</v>
+      </c>
+      <c r="BD156">
+        <v>2.93</v>
+      </c>
+      <c r="BE156">
+        <v>4.1</v>
+      </c>
+      <c r="BF156">
+        <v>6</v>
+      </c>
+      <c r="BG156">
+        <v>3</v>
+      </c>
+      <c r="BH156">
+        <v>5</v>
+      </c>
+      <c r="BI156">
+        <v>4</v>
+      </c>
+      <c r="BJ156">
+        <v>11</v>
+      </c>
+      <c r="BK156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5139645</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45151.33333333334</v>
+      </c>
+      <c r="F157">
+        <v>26</v>
+      </c>
+      <c r="G157" t="s">
+        <v>69</v>
+      </c>
+      <c r="H157" t="s">
+        <v>76</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>183</v>
+      </c>
+      <c r="P157" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q157">
+        <v>3</v>
+      </c>
+      <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>5</v>
+      </c>
+      <c r="T157">
+        <v>2.63</v>
+      </c>
+      <c r="U157">
+        <v>2.1</v>
+      </c>
+      <c r="V157">
+        <v>4.5</v>
+      </c>
+      <c r="W157">
+        <v>1.44</v>
+      </c>
+      <c r="X157">
+        <v>2.63</v>
+      </c>
+      <c r="Y157">
+        <v>3.25</v>
+      </c>
+      <c r="Z157">
+        <v>1.33</v>
+      </c>
+      <c r="AA157">
+        <v>9</v>
+      </c>
+      <c r="AB157">
+        <v>1.07</v>
+      </c>
+      <c r="AC157">
+        <v>2.07</v>
+      </c>
+      <c r="AD157">
+        <v>3.3</v>
+      </c>
+      <c r="AE157">
+        <v>3.2</v>
+      </c>
+      <c r="AF157">
+        <v>1.07</v>
+      </c>
+      <c r="AG157">
+        <v>7.5</v>
+      </c>
+      <c r="AH157">
+        <v>1.36</v>
+      </c>
+      <c r="AI157">
+        <v>2.95</v>
+      </c>
+      <c r="AJ157">
+        <v>1.94</v>
+      </c>
+      <c r="AK157">
+        <v>1.76</v>
+      </c>
+      <c r="AL157">
+        <v>1.91</v>
+      </c>
+      <c r="AM157">
+        <v>1.8</v>
+      </c>
+      <c r="AN157">
+        <v>1.22</v>
+      </c>
+      <c r="AO157">
+        <v>1.25</v>
+      </c>
+      <c r="AP157">
+        <v>1.75</v>
+      </c>
+      <c r="AQ157">
+        <v>2.23</v>
+      </c>
+      <c r="AR157">
+        <v>1.33</v>
+      </c>
+      <c r="AS157">
+        <v>2.14</v>
+      </c>
+      <c r="AT157">
+        <v>1.31</v>
+      </c>
+      <c r="AU157">
+        <v>1.75</v>
+      </c>
+      <c r="AV157">
+        <v>1.39</v>
+      </c>
+      <c r="AW157">
+        <v>3.14</v>
+      </c>
+      <c r="AX157">
+        <v>1.76</v>
+      </c>
+      <c r="AY157">
+        <v>5</v>
+      </c>
+      <c r="AZ157">
+        <v>2.35</v>
+      </c>
+      <c r="BA157">
+        <v>1.66</v>
+      </c>
+      <c r="BB157">
+        <v>1.88</v>
+      </c>
+      <c r="BC157">
+        <v>2.39</v>
+      </c>
+      <c r="BD157">
+        <v>3.74</v>
+      </c>
+      <c r="BE157">
+        <v>5.6</v>
+      </c>
+      <c r="BF157">
+        <v>2</v>
+      </c>
+      <c r="BG157">
+        <v>3</v>
+      </c>
+      <c r="BH157">
+        <v>5</v>
+      </c>
+      <c r="BI157">
+        <v>3</v>
+      </c>
+      <c r="BJ157">
+        <v>7</v>
+      </c>
+      <c r="BK157">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -30628,13 +30628,13 @@
         <v>260</v>
       </c>
       <c r="Q155">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="S155">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="T155">
         <v>3.5</v>
@@ -30751,22 +30751,22 @@
         <v>4.4</v>
       </c>
       <c r="BF155">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BG155">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BH155">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BI155">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BJ155">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BK155">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:63">
@@ -30819,13 +30819,13 @@
         <v>132</v>
       </c>
       <c r="Q156">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S156">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="T156">
         <v>3.1</v>
@@ -30942,22 +30942,22 @@
         <v>4.1</v>
       </c>
       <c r="BF156">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BG156">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BH156">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BI156">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BJ156">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BK156">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:63">
@@ -31010,13 +31010,13 @@
         <v>95</v>
       </c>
       <c r="Q157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S157">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="T157">
         <v>2.63</v>
@@ -31133,22 +31133,22 @@
         <v>5.6</v>
       </c>
       <c r="BF157">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BH157">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BI157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BJ157">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BK157">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -30628,13 +30628,13 @@
         <v>260</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R155">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S155">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T155">
         <v>3.5</v>
@@ -30751,22 +30751,22 @@
         <v>4.4</v>
       </c>
       <c r="BF155">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG155">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH155">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI155">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ155">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK155">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:63">
@@ -30819,13 +30819,13 @@
         <v>132</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S156">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T156">
         <v>3.1</v>
@@ -30942,22 +30942,22 @@
         <v>4.1</v>
       </c>
       <c r="BF156">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH156">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI156">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ156">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK156">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:63">
@@ -31010,13 +31010,13 @@
         <v>95</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R157">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T157">
         <v>2.63</v>
@@ -31133,22 +31133,22 @@
         <v>5.6</v>
       </c>
       <c r="BF157">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH157">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ157">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK157">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,12 @@
     <t>['21']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['50', '60']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -797,6 +803,9 @@
   </si>
   <si>
     <t>['45', '89', '90+4']</t>
+  </si>
+  <si>
+    <t>['79', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1411,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1593,7 +1602,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1784,7 +1793,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1871,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT4">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2166,7 +2175,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2548,7 +2557,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2635,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT8">
         <v>1.08</v>
@@ -2739,7 +2748,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2930,7 +2939,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3020,7 +3029,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3312,7 +3321,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3503,7 +3512,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4076,7 +4085,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4267,7 +4276,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4548,7 +4557,7 @@
         <v>2.07</v>
       </c>
       <c r="AT18">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU18">
         <v>1.34</v>
@@ -4736,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT19">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU19">
         <v>2.72</v>
@@ -5222,7 +5231,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5604,7 +5613,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5691,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT24">
         <v>1.08</v>
@@ -5986,7 +5995,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6264,7 +6273,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT27">
         <v>1.14</v>
@@ -6559,7 +6568,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6750,7 +6759,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6941,7 +6950,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7028,7 +7037,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT31">
         <v>0.77</v>
@@ -7132,7 +7141,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7604,7 +7613,7 @@
         <v>2.14</v>
       </c>
       <c r="AT34">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU34">
         <v>1.91</v>
@@ -7705,7 +7714,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8087,7 +8096,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8177,7 +8186,7 @@
         <v>0.77</v>
       </c>
       <c r="AT37">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU37">
         <v>1.09</v>
@@ -8278,7 +8287,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8365,10 +8374,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT38">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU38">
         <v>1.57</v>
@@ -8469,7 +8478,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8851,7 +8860,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9233,7 +9242,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9323,7 +9332,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU43">
         <v>1.37</v>
@@ -9424,7 +9433,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9806,7 +9815,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9997,7 +10006,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10084,7 +10093,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT47">
         <v>0.62</v>
@@ -10379,7 +10388,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10657,7 +10666,7 @@
         <v>2.25</v>
       </c>
       <c r="AS50">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT50">
         <v>2</v>
@@ -10952,7 +10961,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11042,7 +11051,7 @@
         <v>1.62</v>
       </c>
       <c r="AT52">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -11143,7 +11152,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11334,7 +11343,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11716,7 +11725,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12098,7 +12107,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12188,7 +12197,7 @@
         <v>1.69</v>
       </c>
       <c r="AT58">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU58">
         <v>1.47</v>
@@ -12289,7 +12298,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12480,7 +12489,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12567,7 +12576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS60">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT60">
         <v>1.14</v>
@@ -12761,7 +12770,7 @@
         <v>2.42</v>
       </c>
       <c r="AT61">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU61">
         <v>1.43</v>
@@ -12862,7 +12871,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13053,7 +13062,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13244,7 +13253,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13331,7 +13340,7 @@
         <v>0.2</v>
       </c>
       <c r="AS64">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -14480,7 +14489,7 @@
         <v>1.77</v>
       </c>
       <c r="AT70">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU70">
         <v>1.64</v>
@@ -14772,7 +14781,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14859,7 +14868,7 @@
         <v>0.8</v>
       </c>
       <c r="AS72">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -14963,7 +14972,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15154,7 +15163,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15345,7 +15354,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15536,7 +15545,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15727,7 +15736,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16005,7 +16014,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16109,7 +16118,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16199,7 +16208,7 @@
         <v>1.15</v>
       </c>
       <c r="AT79">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU79">
         <v>1.46</v>
@@ -16300,7 +16309,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16387,10 +16396,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT80">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU80">
         <v>1.71</v>
@@ -16491,7 +16500,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16581,7 +16590,7 @@
         <v>1.77</v>
       </c>
       <c r="AT81">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU81">
         <v>1.7</v>
@@ -17064,7 +17073,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17151,7 +17160,7 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT84">
         <v>2</v>
@@ -17255,7 +17264,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17637,7 +17646,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18019,7 +18028,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18109,7 +18118,7 @@
         <v>1.15</v>
       </c>
       <c r="AT89">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18210,7 +18219,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18783,7 +18792,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18870,7 +18879,7 @@
         <v>0.33</v>
       </c>
       <c r="AS93">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT93">
         <v>0.62</v>
@@ -18974,7 +18983,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19165,7 +19174,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19356,7 +19365,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19738,7 +19747,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19929,7 +19938,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20019,7 +20028,7 @@
         <v>2.14</v>
       </c>
       <c r="AT99">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -20589,7 +20598,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT102">
         <v>1.15</v>
@@ -20693,7 +20702,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20884,7 +20893,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21075,7 +21084,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21165,7 +21174,7 @@
         <v>2.42</v>
       </c>
       <c r="AT105">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU105">
         <v>1.7</v>
@@ -21356,7 +21365,7 @@
         <v>1.69</v>
       </c>
       <c r="AT106">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21457,7 +21466,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21648,7 +21657,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21926,7 +21935,7 @@
         <v>1.25</v>
       </c>
       <c r="AS109">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT109">
         <v>1.38</v>
@@ -22030,7 +22039,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22117,7 +22126,7 @@
         <v>1.22</v>
       </c>
       <c r="AS110">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT110">
         <v>1.15</v>
@@ -22221,7 +22230,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22603,7 +22612,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22794,7 +22803,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22881,7 +22890,7 @@
         <v>1.22</v>
       </c>
       <c r="AS114">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT114">
         <v>1.33</v>
@@ -22985,7 +22994,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23266,7 +23275,7 @@
         <v>2.07</v>
       </c>
       <c r="AT116">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU116">
         <v>1.45</v>
@@ -23367,7 +23376,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23940,7 +23949,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24218,7 +24227,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT121">
         <v>0.77</v>
@@ -24322,7 +24331,7 @@
         <v>116</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24513,7 +24522,7 @@
         <v>157</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24603,7 +24612,7 @@
         <v>0.77</v>
       </c>
       <c r="AT123">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU123">
         <v>1.21</v>
@@ -24895,7 +24904,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25277,7 +25286,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25749,7 +25758,7 @@
         <v>1.31</v>
       </c>
       <c r="AT129">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU129">
         <v>1.68</v>
@@ -25850,7 +25859,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26041,7 +26050,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26128,7 +26137,7 @@
         <v>1.4</v>
       </c>
       <c r="AS131">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT131">
         <v>1.33</v>
@@ -26232,7 +26241,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26423,7 +26432,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26614,7 +26623,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26701,7 +26710,7 @@
         <v>2.45</v>
       </c>
       <c r="AS134">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT134">
         <v>2</v>
@@ -26996,7 +27005,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27378,7 +27387,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27468,7 +27477,7 @@
         <v>2.14</v>
       </c>
       <c r="AT138">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU138">
         <v>1.77</v>
@@ -27656,7 +27665,7 @@
         <v>1.27</v>
       </c>
       <c r="AS139">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT139">
         <v>1.08</v>
@@ -27760,7 +27769,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27850,7 +27859,7 @@
         <v>2.42</v>
       </c>
       <c r="AT140">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU140">
         <v>1.73</v>
@@ -28142,7 +28151,7 @@
         <v>79</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28232,7 +28241,7 @@
         <v>1.15</v>
       </c>
       <c r="AT142">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU142">
         <v>1.46</v>
@@ -28333,7 +28342,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28524,7 +28533,7 @@
         <v>79</v>
       </c>
       <c r="P144" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -29097,7 +29106,7 @@
         <v>175</v>
       </c>
       <c r="P147" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29288,7 +29297,7 @@
         <v>79</v>
       </c>
       <c r="P148" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29375,7 +29384,7 @@
         <v>0.45</v>
       </c>
       <c r="AS148">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AT148">
         <v>0.62</v>
@@ -29861,7 +29870,7 @@
         <v>177</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30625,7 +30634,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -30903,7 +30912,7 @@
         <v>1.23</v>
       </c>
       <c r="AS156">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT156">
         <v>1.14</v>
@@ -31097,7 +31106,7 @@
         <v>2.14</v>
       </c>
       <c r="AT157">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU157">
         <v>1.75</v>
@@ -31149,6 +31158,388 @@
       </c>
       <c r="BK157">
         <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5139646</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45156.3125</v>
+      </c>
+      <c r="F158">
+        <v>27</v>
+      </c>
+      <c r="G158" t="s">
+        <v>67</v>
+      </c>
+      <c r="H158" t="s">
+        <v>68</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>184</v>
+      </c>
+      <c r="P158" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q158">
+        <v>3</v>
+      </c>
+      <c r="R158">
+        <v>4</v>
+      </c>
+      <c r="S158">
+        <v>7</v>
+      </c>
+      <c r="T158">
+        <v>3.5</v>
+      </c>
+      <c r="U158">
+        <v>2.25</v>
+      </c>
+      <c r="V158">
+        <v>2.7</v>
+      </c>
+      <c r="W158">
+        <v>1.33</v>
+      </c>
+      <c r="X158">
+        <v>3</v>
+      </c>
+      <c r="Y158">
+        <v>2.5</v>
+      </c>
+      <c r="Z158">
+        <v>1.48</v>
+      </c>
+      <c r="AA158">
+        <v>5.5</v>
+      </c>
+      <c r="AB158">
+        <v>1.11</v>
+      </c>
+      <c r="AC158">
+        <v>3.05</v>
+      </c>
+      <c r="AD158">
+        <v>3.3</v>
+      </c>
+      <c r="AE158">
+        <v>2.16</v>
+      </c>
+      <c r="AF158">
+        <v>1.05</v>
+      </c>
+      <c r="AG158">
+        <v>9</v>
+      </c>
+      <c r="AH158">
+        <v>1.29</v>
+      </c>
+      <c r="AI158">
+        <v>3.4</v>
+      </c>
+      <c r="AJ158">
+        <v>1.92</v>
+      </c>
+      <c r="AK158">
+        <v>1.87</v>
+      </c>
+      <c r="AL158">
+        <v>1.67</v>
+      </c>
+      <c r="AM158">
+        <v>2.1</v>
+      </c>
+      <c r="AN158">
+        <v>1.65</v>
+      </c>
+      <c r="AO158">
+        <v>1.3</v>
+      </c>
+      <c r="AP158">
+        <v>1.38</v>
+      </c>
+      <c r="AQ158">
+        <v>0.46</v>
+      </c>
+      <c r="AR158">
+        <v>1.31</v>
+      </c>
+      <c r="AS158">
+        <v>0.64</v>
+      </c>
+      <c r="AT158">
+        <v>1.21</v>
+      </c>
+      <c r="AU158">
+        <v>1.33</v>
+      </c>
+      <c r="AV158">
+        <v>1.68</v>
+      </c>
+      <c r="AW158">
+        <v>3.01</v>
+      </c>
+      <c r="AX158">
+        <v>2.77</v>
+      </c>
+      <c r="AY158">
+        <v>8</v>
+      </c>
+      <c r="AZ158">
+        <v>1.64</v>
+      </c>
+      <c r="BA158">
+        <v>1.58</v>
+      </c>
+      <c r="BB158">
+        <v>2</v>
+      </c>
+      <c r="BC158">
+        <v>2.53</v>
+      </c>
+      <c r="BD158">
+        <v>2.98</v>
+      </c>
+      <c r="BE158">
+        <v>4.3</v>
+      </c>
+      <c r="BF158">
+        <v>7</v>
+      </c>
+      <c r="BG158">
+        <v>6</v>
+      </c>
+      <c r="BH158">
+        <v>2</v>
+      </c>
+      <c r="BI158">
+        <v>6</v>
+      </c>
+      <c r="BJ158">
+        <v>9</v>
+      </c>
+      <c r="BK158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5139647</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45156.3125</v>
+      </c>
+      <c r="F159">
+        <v>27</v>
+      </c>
+      <c r="G159" t="s">
+        <v>71</v>
+      </c>
+      <c r="H159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159" t="s">
+        <v>185</v>
+      </c>
+      <c r="P159" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q159">
+        <v>3</v>
+      </c>
+      <c r="R159">
+        <v>8</v>
+      </c>
+      <c r="S159">
+        <v>11</v>
+      </c>
+      <c r="T159">
+        <v>3.1</v>
+      </c>
+      <c r="U159">
+        <v>2</v>
+      </c>
+      <c r="V159">
+        <v>3.3</v>
+      </c>
+      <c r="W159">
+        <v>1.44</v>
+      </c>
+      <c r="X159">
+        <v>2.62</v>
+      </c>
+      <c r="Y159">
+        <v>3</v>
+      </c>
+      <c r="Z159">
+        <v>1.36</v>
+      </c>
+      <c r="AA159">
+        <v>7.5</v>
+      </c>
+      <c r="AB159">
+        <v>1.07</v>
+      </c>
+      <c r="AC159">
+        <v>2.38</v>
+      </c>
+      <c r="AD159">
+        <v>3</v>
+      </c>
+      <c r="AE159">
+        <v>3</v>
+      </c>
+      <c r="AF159">
+        <v>1.08</v>
+      </c>
+      <c r="AG159">
+        <v>7</v>
+      </c>
+      <c r="AH159">
+        <v>1.4</v>
+      </c>
+      <c r="AI159">
+        <v>2.75</v>
+      </c>
+      <c r="AJ159">
+        <v>2.27</v>
+      </c>
+      <c r="AK159">
+        <v>1.59</v>
+      </c>
+      <c r="AL159">
+        <v>1.91</v>
+      </c>
+      <c r="AM159">
+        <v>1.8</v>
+      </c>
+      <c r="AN159">
+        <v>1.4</v>
+      </c>
+      <c r="AO159">
+        <v>1.3</v>
+      </c>
+      <c r="AP159">
+        <v>1.53</v>
+      </c>
+      <c r="AQ159">
+        <v>1.38</v>
+      </c>
+      <c r="AR159">
+        <v>1.31</v>
+      </c>
+      <c r="AS159">
+        <v>1.36</v>
+      </c>
+      <c r="AT159">
+        <v>1.29</v>
+      </c>
+      <c r="AU159">
+        <v>1.58</v>
+      </c>
+      <c r="AV159">
+        <v>1.35</v>
+      </c>
+      <c r="AW159">
+        <v>2.93</v>
+      </c>
+      <c r="AX159">
+        <v>1.85</v>
+      </c>
+      <c r="AY159">
+        <v>7.5</v>
+      </c>
+      <c r="AZ159">
+        <v>2.29</v>
+      </c>
+      <c r="BA159">
+        <v>1.57</v>
+      </c>
+      <c r="BB159">
+        <v>1.97</v>
+      </c>
+      <c r="BC159">
+        <v>2.42</v>
+      </c>
+      <c r="BD159">
+        <v>3.42</v>
+      </c>
+      <c r="BE159">
+        <v>4.95</v>
+      </c>
+      <c r="BF159">
+        <v>4</v>
+      </c>
+      <c r="BG159">
+        <v>8</v>
+      </c>
+      <c r="BH159">
+        <v>3</v>
+      </c>
+      <c r="BI159">
+        <v>2</v>
+      </c>
+      <c r="BJ159">
+        <v>7</v>
+      </c>
+      <c r="BK159">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,12 @@
     <t>['50', '60']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['9', '42']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -806,6 +812,12 @@
   </si>
   <si>
     <t>['79', '90+3']</t>
+  </si>
+  <si>
+    <t>['49', '90+5']</t>
+  </si>
+  <si>
+    <t>['25', '82']</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1423,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1498,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1602,7 +1614,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1689,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT3">
         <v>1.38</v>
@@ -1793,7 +1805,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2074,7 +2086,7 @@
         <v>1.31</v>
       </c>
       <c r="AT5">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2175,7 +2187,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2265,7 +2277,7 @@
         <v>2.14</v>
       </c>
       <c r="AT6">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2557,7 +2569,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2748,7 +2760,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2939,7 +2951,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3321,7 +3333,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3408,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT12">
         <v>2</v>
@@ -3512,7 +3524,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4085,7 +4097,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4172,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT16">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU16">
         <v>1.2</v>
@@ -4276,7 +4288,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4363,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT17">
         <v>2</v>
@@ -5231,7 +5243,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5512,7 +5524,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU23">
         <v>1.42</v>
@@ -5613,7 +5625,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5891,10 +5903,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT25">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU25">
         <v>0.91</v>
@@ -5995,7 +6007,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6276,7 +6288,7 @@
         <v>1.36</v>
       </c>
       <c r="AT27">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU27">
         <v>2.23</v>
@@ -6467,7 +6479,7 @@
         <v>1.62</v>
       </c>
       <c r="AT28">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6568,7 +6580,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6759,7 +6771,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6950,7 +6962,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7141,7 +7153,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7228,7 +7240,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7419,10 +7431,10 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT33">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU33">
         <v>1.41</v>
@@ -7714,7 +7726,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8096,7 +8108,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8183,7 +8195,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT37">
         <v>1.21</v>
@@ -8287,7 +8299,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8478,7 +8490,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8759,7 +8771,7 @@
         <v>1.15</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU40">
         <v>1.41</v>
@@ -8860,7 +8872,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8947,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT41">
         <v>1.38</v>
@@ -9242,7 +9254,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9433,7 +9445,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9520,7 +9532,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT44">
         <v>1</v>
@@ -9815,7 +9827,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9902,7 +9914,7 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT46">
         <v>1.33</v>
@@ -10006,7 +10018,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10096,7 +10108,7 @@
         <v>1.36</v>
       </c>
       <c r="AT47">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU47">
         <v>1.86</v>
@@ -10388,7 +10400,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10478,7 +10490,7 @@
         <v>1.31</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU49">
         <v>1.84</v>
@@ -10961,7 +10973,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11152,7 +11164,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11239,7 +11251,7 @@
         <v>1.75</v>
       </c>
       <c r="AS53">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT53">
         <v>1.15</v>
@@ -11343,7 +11355,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11624,7 +11636,7 @@
         <v>1.15</v>
       </c>
       <c r="AT55">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU55">
         <v>1.55</v>
@@ -11725,7 +11737,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12107,7 +12119,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12298,7 +12310,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12489,7 +12501,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12579,7 +12591,7 @@
         <v>0.64</v>
       </c>
       <c r="AT60">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12767,7 +12779,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT61">
         <v>1.29</v>
@@ -12871,7 +12883,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13062,7 +13074,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13149,10 +13161,10 @@
         <v>0.75</v>
       </c>
       <c r="AS63">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU63">
         <v>1.63</v>
@@ -13253,7 +13265,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -14104,7 +14116,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT68">
         <v>0.77</v>
@@ -14486,7 +14498,7 @@
         <v>1.2</v>
       </c>
       <c r="AS70">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT70">
         <v>1.29</v>
@@ -14781,7 +14793,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14871,7 +14883,7 @@
         <v>0.64</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU72">
         <v>1.54</v>
@@ -14972,7 +14984,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15062,7 +15074,7 @@
         <v>1.69</v>
       </c>
       <c r="AT73">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU73">
         <v>1.42</v>
@@ -15163,7 +15175,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15354,7 +15366,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15444,7 +15456,7 @@
         <v>1.62</v>
       </c>
       <c r="AT75">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU75">
         <v>1.94</v>
@@ -15545,7 +15557,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15632,7 +15644,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15736,7 +15748,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15823,7 +15835,7 @@
         <v>1.67</v>
       </c>
       <c r="AS77">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT77">
         <v>1.15</v>
@@ -16017,7 +16029,7 @@
         <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU78">
         <v>1.73</v>
@@ -16118,7 +16130,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16309,7 +16321,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16500,7 +16512,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16587,7 +16599,7 @@
         <v>2.29</v>
       </c>
       <c r="AS81">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT81">
         <v>1.21</v>
@@ -16781,7 +16793,7 @@
         <v>1.69</v>
       </c>
       <c r="AT82">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -16969,7 +16981,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT83">
         <v>1.33</v>
@@ -17073,7 +17085,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17264,7 +17276,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17354,7 +17366,7 @@
         <v>2.07</v>
       </c>
       <c r="AT85">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17646,7 +17658,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17924,7 +17936,7 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT88">
         <v>0.77</v>
@@ -18028,7 +18040,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18219,7 +18231,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18306,7 +18318,7 @@
         <v>1.14</v>
       </c>
       <c r="AS90">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT90">
         <v>1.08</v>
@@ -18500,7 +18512,7 @@
         <v>2.14</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU91">
         <v>1.6</v>
@@ -18792,7 +18804,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18882,7 +18894,7 @@
         <v>0.64</v>
       </c>
       <c r="AT93">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU93">
         <v>1.38</v>
@@ -18983,7 +18995,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19174,7 +19186,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19365,7 +19377,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19747,7 +19759,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19938,7 +19950,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20410,7 +20422,7 @@
         <v>2.07</v>
       </c>
       <c r="AT101">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU101">
         <v>1.48</v>
@@ -20702,7 +20714,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20789,7 +20801,7 @@
         <v>1.13</v>
       </c>
       <c r="AS103">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT103">
         <v>1.08</v>
@@ -20893,7 +20905,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20983,7 +20995,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU104">
         <v>1.37</v>
@@ -21084,7 +21096,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21171,7 +21183,7 @@
         <v>1.89</v>
       </c>
       <c r="AS105">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT105">
         <v>1.21</v>
@@ -21466,7 +21478,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21553,10 +21565,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -21657,7 +21669,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21744,7 +21756,7 @@
         <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT108">
         <v>1.33</v>
@@ -22039,7 +22051,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22230,7 +22242,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22511,7 +22523,7 @@
         <v>1.62</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU112">
         <v>1.81</v>
@@ -22612,7 +22624,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22699,10 +22711,10 @@
         <v>1.33</v>
       </c>
       <c r="AS113">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT113">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU113">
         <v>1.7</v>
@@ -22803,7 +22815,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22994,7 +23006,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23376,7 +23388,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23654,7 +23666,7 @@
         <v>1.3</v>
       </c>
       <c r="AS118">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT118">
         <v>1.08</v>
@@ -23949,7 +23961,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24039,7 +24051,7 @@
         <v>2.14</v>
       </c>
       <c r="AT120">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU120">
         <v>1.72</v>
@@ -24331,7 +24343,7 @@
         <v>116</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24421,7 +24433,7 @@
         <v>1.31</v>
       </c>
       <c r="AT122">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU122">
         <v>1.71</v>
@@ -24522,7 +24534,7 @@
         <v>157</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24609,7 +24621,7 @@
         <v>1.22</v>
       </c>
       <c r="AS123">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT123">
         <v>1.29</v>
@@ -24904,7 +24916,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25286,7 +25298,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25859,7 +25871,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25946,7 +25958,7 @@
         <v>1.2</v>
       </c>
       <c r="AS130">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT130">
         <v>1.38</v>
@@ -26050,7 +26062,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26241,7 +26253,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26328,10 +26340,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS132">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT132">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU132">
         <v>1.69</v>
@@ -26432,7 +26444,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26522,7 +26534,7 @@
         <v>1.69</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU133">
         <v>1.64</v>
@@ -26623,7 +26635,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26901,7 +26913,7 @@
         <v>1.27</v>
       </c>
       <c r="AS135">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT135">
         <v>1.15</v>
@@ -27005,7 +27017,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27095,7 +27107,7 @@
         <v>1.62</v>
       </c>
       <c r="AT136">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU136">
         <v>1.73</v>
@@ -27286,7 +27298,7 @@
         <v>2.07</v>
       </c>
       <c r="AT137">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -27387,7 +27399,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27769,7 +27781,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27856,7 +27868,7 @@
         <v>1.42</v>
       </c>
       <c r="AS140">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT140">
         <v>1.21</v>
@@ -28050,7 +28062,7 @@
         <v>2.14</v>
       </c>
       <c r="AT141">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU141">
         <v>1.75</v>
@@ -28151,7 +28163,7 @@
         <v>79</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28342,7 +28354,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28429,7 +28441,7 @@
         <v>0.82</v>
       </c>
       <c r="AS143">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28533,7 +28545,7 @@
         <v>79</v>
       </c>
       <c r="P144" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -28620,7 +28632,7 @@
         <v>1.36</v>
       </c>
       <c r="AS144">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT144">
         <v>1.38</v>
@@ -28814,7 +28826,7 @@
         <v>1.69</v>
       </c>
       <c r="AT145">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU145">
         <v>1.64</v>
@@ -29106,7 +29118,7 @@
         <v>175</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29193,7 +29205,7 @@
         <v>1.36</v>
       </c>
       <c r="AS147">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT147">
         <v>1.33</v>
@@ -29297,7 +29309,7 @@
         <v>79</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29387,7 +29399,7 @@
         <v>0.64</v>
       </c>
       <c r="AT148">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU148">
         <v>1.34</v>
@@ -29870,7 +29882,7 @@
         <v>177</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30339,7 +30351,7 @@
         <v>2.15</v>
       </c>
       <c r="AS153">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT153">
         <v>2</v>
@@ -30533,7 +30545,7 @@
         <v>1.31</v>
       </c>
       <c r="AT154">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU154">
         <v>1.62</v>
@@ -30634,7 +30646,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -30915,7 +30927,7 @@
         <v>1.36</v>
       </c>
       <c r="AT156">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU156">
         <v>1.59</v>
@@ -31398,7 +31410,7 @@
         <v>185</v>
       </c>
       <c r="P159" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31539,6 +31551,579 @@
         <v>7</v>
       </c>
       <c r="BK159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5139648</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45157.29166666666</v>
+      </c>
+      <c r="F160">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s">
+        <v>65</v>
+      </c>
+      <c r="H160" t="s">
+        <v>74</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>186</v>
+      </c>
+      <c r="P160" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q160">
+        <v>6</v>
+      </c>
+      <c r="R160">
+        <v>6</v>
+      </c>
+      <c r="S160">
+        <v>12</v>
+      </c>
+      <c r="T160">
+        <v>2.89</v>
+      </c>
+      <c r="U160">
+        <v>2.26</v>
+      </c>
+      <c r="V160">
+        <v>3.98</v>
+      </c>
+      <c r="W160">
+        <v>1.41</v>
+      </c>
+      <c r="X160">
+        <v>3.05</v>
+      </c>
+      <c r="Y160">
+        <v>2.97</v>
+      </c>
+      <c r="Z160">
+        <v>1.43</v>
+      </c>
+      <c r="AA160">
+        <v>5.75</v>
+      </c>
+      <c r="AB160">
+        <v>1.1</v>
+      </c>
+      <c r="AC160">
+        <v>2.03</v>
+      </c>
+      <c r="AD160">
+        <v>3.48</v>
+      </c>
+      <c r="AE160">
+        <v>3.08</v>
+      </c>
+      <c r="AF160">
+        <v>1.05</v>
+      </c>
+      <c r="AG160">
+        <v>8</v>
+      </c>
+      <c r="AH160">
+        <v>1.29</v>
+      </c>
+      <c r="AI160">
+        <v>3.4</v>
+      </c>
+      <c r="AJ160">
+        <v>1.87</v>
+      </c>
+      <c r="AK160">
+        <v>1.93</v>
+      </c>
+      <c r="AL160">
+        <v>1.7</v>
+      </c>
+      <c r="AM160">
+        <v>2.05</v>
+      </c>
+      <c r="AN160">
+        <v>1.33</v>
+      </c>
+      <c r="AO160">
+        <v>1.3</v>
+      </c>
+      <c r="AP160">
+        <v>1.73</v>
+      </c>
+      <c r="AQ160">
+        <v>2.42</v>
+      </c>
+      <c r="AR160">
+        <v>1</v>
+      </c>
+      <c r="AS160">
+        <v>2.46</v>
+      </c>
+      <c r="AT160">
+        <v>0.92</v>
+      </c>
+      <c r="AU160">
+        <v>1.72</v>
+      </c>
+      <c r="AV160">
+        <v>1.62</v>
+      </c>
+      <c r="AW160">
+        <v>3.34</v>
+      </c>
+      <c r="AX160">
+        <v>1.55</v>
+      </c>
+      <c r="AY160">
+        <v>8</v>
+      </c>
+      <c r="AZ160">
+        <v>2.92</v>
+      </c>
+      <c r="BA160">
+        <v>1.44</v>
+      </c>
+      <c r="BB160">
+        <v>1.78</v>
+      </c>
+      <c r="BC160">
+        <v>2.21</v>
+      </c>
+      <c r="BD160">
+        <v>2.93</v>
+      </c>
+      <c r="BE160">
+        <v>4.2</v>
+      </c>
+      <c r="BF160">
+        <v>7</v>
+      </c>
+      <c r="BG160">
+        <v>5</v>
+      </c>
+      <c r="BH160">
+        <v>3</v>
+      </c>
+      <c r="BI160">
+        <v>6</v>
+      </c>
+      <c r="BJ160">
+        <v>10</v>
+      </c>
+      <c r="BK160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5139649</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45157.29166666666</v>
+      </c>
+      <c r="F161">
+        <v>27</v>
+      </c>
+      <c r="G161" t="s">
+        <v>75</v>
+      </c>
+      <c r="H161" t="s">
+        <v>72</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>183</v>
+      </c>
+      <c r="P161" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q161">
+        <v>4</v>
+      </c>
+      <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
+        <v>5</v>
+      </c>
+      <c r="T161">
+        <v>3.02</v>
+      </c>
+      <c r="U161">
+        <v>2.26</v>
+      </c>
+      <c r="V161">
+        <v>3.75</v>
+      </c>
+      <c r="W161">
+        <v>1.4</v>
+      </c>
+      <c r="X161">
+        <v>3.08</v>
+      </c>
+      <c r="Y161">
+        <v>2.94</v>
+      </c>
+      <c r="Z161">
+        <v>1.43</v>
+      </c>
+      <c r="AA161">
+        <v>6.65</v>
+      </c>
+      <c r="AB161">
+        <v>1.09</v>
+      </c>
+      <c r="AC161">
+        <v>2.18</v>
+      </c>
+      <c r="AD161">
+        <v>4.06</v>
+      </c>
+      <c r="AE161">
+        <v>2.47</v>
+      </c>
+      <c r="AF161">
+        <v>1.01</v>
+      </c>
+      <c r="AG161">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH161">
+        <v>1.25</v>
+      </c>
+      <c r="AI161">
+        <v>3.48</v>
+      </c>
+      <c r="AJ161">
+        <v>1.83</v>
+      </c>
+      <c r="AK161">
+        <v>1.97</v>
+      </c>
+      <c r="AL161">
+        <v>1.68</v>
+      </c>
+      <c r="AM161">
+        <v>2.11</v>
+      </c>
+      <c r="AN161">
+        <v>1.4</v>
+      </c>
+      <c r="AO161">
+        <v>1.3</v>
+      </c>
+      <c r="AP161">
+        <v>1.62</v>
+      </c>
+      <c r="AQ161">
+        <v>0.77</v>
+      </c>
+      <c r="AR161">
+        <v>0.62</v>
+      </c>
+      <c r="AS161">
+        <v>0.71</v>
+      </c>
+      <c r="AT161">
+        <v>0.79</v>
+      </c>
+      <c r="AU161">
+        <v>1.26</v>
+      </c>
+      <c r="AV161">
+        <v>1.45</v>
+      </c>
+      <c r="AW161">
+        <v>2.71</v>
+      </c>
+      <c r="AX161">
+        <v>1.55</v>
+      </c>
+      <c r="AY161">
+        <v>8</v>
+      </c>
+      <c r="AZ161">
+        <v>2.92</v>
+      </c>
+      <c r="BA161">
+        <v>1.43</v>
+      </c>
+      <c r="BB161">
+        <v>1.75</v>
+      </c>
+      <c r="BC161">
+        <v>2.17</v>
+      </c>
+      <c r="BD161">
+        <v>2.7</v>
+      </c>
+      <c r="BE161">
+        <v>4.05</v>
+      </c>
+      <c r="BF161">
+        <v>4</v>
+      </c>
+      <c r="BG161">
+        <v>5</v>
+      </c>
+      <c r="BH161">
+        <v>5</v>
+      </c>
+      <c r="BI161">
+        <v>2</v>
+      </c>
+      <c r="BJ161">
+        <v>9</v>
+      </c>
+      <c r="BK161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5139650</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45157.3125</v>
+      </c>
+      <c r="F162">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s">
+        <v>66</v>
+      </c>
+      <c r="H162" t="s">
+        <v>73</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>3</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162" t="s">
+        <v>187</v>
+      </c>
+      <c r="P162" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q162">
+        <v>2</v>
+      </c>
+      <c r="R162">
+        <v>9</v>
+      </c>
+      <c r="S162">
+        <v>11</v>
+      </c>
+      <c r="T162">
+        <v>2.75</v>
+      </c>
+      <c r="U162">
+        <v>2.14</v>
+      </c>
+      <c r="V162">
+        <v>4.8</v>
+      </c>
+      <c r="W162">
+        <v>1.49</v>
+      </c>
+      <c r="X162">
+        <v>2.71</v>
+      </c>
+      <c r="Y162">
+        <v>3.4</v>
+      </c>
+      <c r="Z162">
+        <v>1.34</v>
+      </c>
+      <c r="AA162">
+        <v>7.9</v>
+      </c>
+      <c r="AB162">
+        <v>1.06</v>
+      </c>
+      <c r="AC162">
+        <v>1.93</v>
+      </c>
+      <c r="AD162">
+        <v>3.3</v>
+      </c>
+      <c r="AE162">
+        <v>3.55</v>
+      </c>
+      <c r="AF162">
+        <v>1.05</v>
+      </c>
+      <c r="AG162">
+        <v>8</v>
+      </c>
+      <c r="AH162">
+        <v>1.36</v>
+      </c>
+      <c r="AI162">
+        <v>3</v>
+      </c>
+      <c r="AJ162">
+        <v>2.1</v>
+      </c>
+      <c r="AK162">
+        <v>1.67</v>
+      </c>
+      <c r="AL162">
+        <v>1.95</v>
+      </c>
+      <c r="AM162">
+        <v>1.78</v>
+      </c>
+      <c r="AN162">
+        <v>1.25</v>
+      </c>
+      <c r="AO162">
+        <v>1.26</v>
+      </c>
+      <c r="AP162">
+        <v>1.71</v>
+      </c>
+      <c r="AQ162">
+        <v>1.77</v>
+      </c>
+      <c r="AR162">
+        <v>1.14</v>
+      </c>
+      <c r="AS162">
+        <v>1.71</v>
+      </c>
+      <c r="AT162">
+        <v>1.13</v>
+      </c>
+      <c r="AU162">
+        <v>1.8</v>
+      </c>
+      <c r="AV162">
+        <v>1.19</v>
+      </c>
+      <c r="AW162">
+        <v>2.99</v>
+      </c>
+      <c r="AX162">
+        <v>1.51</v>
+      </c>
+      <c r="AY162">
+        <v>8.5</v>
+      </c>
+      <c r="AZ162">
+        <v>3.16</v>
+      </c>
+      <c r="BA162">
+        <v>1.34</v>
+      </c>
+      <c r="BB162">
+        <v>1.7</v>
+      </c>
+      <c r="BC162">
+        <v>2.11</v>
+      </c>
+      <c r="BD162">
+        <v>2.8</v>
+      </c>
+      <c r="BE162">
+        <v>3.9</v>
+      </c>
+      <c r="BF162">
+        <v>4</v>
+      </c>
+      <c r="BG162">
+        <v>5</v>
+      </c>
+      <c r="BH162">
+        <v>4</v>
+      </c>
+      <c r="BI162">
+        <v>5</v>
+      </c>
+      <c r="BJ162">
+        <v>8</v>
+      </c>
+      <c r="BK162">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,9 @@
     <t>['9', '42']</t>
   </si>
   <si>
+    <t>['42', '52', '77', '90+8']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -818,6 +821,9 @@
   </si>
   <si>
     <t>['25', '82']</t>
+  </si>
+  <si>
+    <t>['81', '84', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1429,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1614,7 +1620,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1805,7 +1811,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2187,7 +2193,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2274,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT6">
         <v>1.13</v>
@@ -2569,7 +2575,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2659,7 +2665,7 @@
         <v>1.36</v>
       </c>
       <c r="AT8">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2760,7 +2766,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2951,7 +2957,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3333,7 +3339,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3524,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4097,7 +4103,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4288,7 +4294,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4948,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT20">
         <v>0.77</v>
@@ -5243,7 +5249,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5625,7 +5631,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5715,7 +5721,7 @@
         <v>0.64</v>
       </c>
       <c r="AT24">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -6007,7 +6013,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6580,7 +6586,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6771,7 +6777,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6962,7 +6968,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7153,7 +7159,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7622,7 +7628,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT34">
         <v>1.29</v>
@@ -7726,7 +7732,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7816,7 +7822,7 @@
         <v>1.15</v>
       </c>
       <c r="AT35">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>0.82</v>
@@ -8108,7 +8114,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8299,7 +8305,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8490,7 +8496,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8577,7 +8583,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT39">
         <v>1.15</v>
@@ -8872,7 +8878,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9254,7 +9260,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9445,7 +9451,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9726,7 +9732,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>1.34</v>
@@ -9827,7 +9833,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10018,7 +10024,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10400,7 +10406,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10869,7 +10875,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -10973,7 +10979,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11164,7 +11170,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11355,7 +11361,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11445,7 +11451,7 @@
         <v>2.07</v>
       </c>
       <c r="AT54">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.31</v>
@@ -11737,7 +11743,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12119,7 +12125,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12310,7 +12316,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12397,7 +12403,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT59">
         <v>1.38</v>
@@ -12501,7 +12507,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12883,7 +12889,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13074,7 +13080,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13265,7 +13271,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13928,7 +13934,7 @@
         <v>1.62</v>
       </c>
       <c r="AT67">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -14793,7 +14799,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14984,7 +14990,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15175,7 +15181,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15262,10 +15268,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT74">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>1.51</v>
@@ -15366,7 +15372,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15557,7 +15563,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15748,7 +15754,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16130,7 +16136,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16321,7 +16327,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16512,7 +16518,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -17085,7 +17091,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17276,7 +17282,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17658,7 +17664,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18040,7 +18046,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18231,7 +18237,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18321,7 +18327,7 @@
         <v>2.46</v>
       </c>
       <c r="AT90">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18509,7 +18515,7 @@
         <v>1.14</v>
       </c>
       <c r="AS91">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT91">
         <v>0.92</v>
@@ -18804,7 +18810,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18995,7 +19001,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19186,7 +19192,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19377,7 +19383,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19759,7 +19765,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19950,7 +19956,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20037,7 +20043,7 @@
         <v>2.13</v>
       </c>
       <c r="AS99">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT99">
         <v>1.21</v>
@@ -20714,7 +20720,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20804,7 +20810,7 @@
         <v>0.71</v>
       </c>
       <c r="AT103">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU103">
         <v>1.15</v>
@@ -20905,7 +20911,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21096,7 +21102,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21478,7 +21484,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21669,7 +21675,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -22051,7 +22057,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22242,7 +22248,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22332,7 +22338,7 @@
         <v>1.31</v>
       </c>
       <c r="AT111">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.74</v>
@@ -22624,7 +22630,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22815,7 +22821,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23006,7 +23012,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23388,7 +23394,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23669,7 +23675,7 @@
         <v>1.71</v>
       </c>
       <c r="AT118">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.7</v>
@@ -23961,7 +23967,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24048,7 +24054,7 @@
         <v>0.63</v>
       </c>
       <c r="AS120">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT120">
         <v>0.79</v>
@@ -24343,7 +24349,7 @@
         <v>116</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24534,7 +24540,7 @@
         <v>157</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24812,7 +24818,7 @@
         <v>2.4</v>
       </c>
       <c r="AS124">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT124">
         <v>2</v>
@@ -24916,7 +24922,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25298,7 +25304,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25871,7 +25877,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26062,7 +26068,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26253,7 +26259,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26444,7 +26450,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26635,7 +26641,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -27017,7 +27023,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27399,7 +27405,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27486,7 +27492,7 @@
         <v>1.55</v>
       </c>
       <c r="AS138">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT138">
         <v>1.21</v>
@@ -27680,7 +27686,7 @@
         <v>1.36</v>
       </c>
       <c r="AT139">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>1.65</v>
@@ -27781,7 +27787,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28059,7 +28065,7 @@
         <v>1.09</v>
       </c>
       <c r="AS141">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT141">
         <v>0.92</v>
@@ -28163,7 +28169,7 @@
         <v>79</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28354,7 +28360,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28545,7 +28551,7 @@
         <v>79</v>
       </c>
       <c r="P144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -29017,7 +29023,7 @@
         <v>1.62</v>
       </c>
       <c r="AT146">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU146">
         <v>1.7</v>
@@ -29118,7 +29124,7 @@
         <v>175</v>
       </c>
       <c r="P147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29309,7 +29315,7 @@
         <v>79</v>
       </c>
       <c r="P148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29882,7 +29888,7 @@
         <v>177</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30646,7 +30652,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -31115,7 +31121,7 @@
         <v>1.33</v>
       </c>
       <c r="AS157">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT157">
         <v>1.29</v>
@@ -31410,7 +31416,7 @@
         <v>185</v>
       </c>
       <c r="P159" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31792,7 +31798,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -31983,7 +31989,7 @@
         <v>187</v>
       </c>
       <c r="P162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32125,6 +32131,197 @@
       </c>
       <c r="BK162">
         <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5139651</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45158.29166666666</v>
+      </c>
+      <c r="F163">
+        <v>27</v>
+      </c>
+      <c r="G163" t="s">
+        <v>69</v>
+      </c>
+      <c r="H163" t="s">
+        <v>70</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
+      <c r="M163">
+        <v>3</v>
+      </c>
+      <c r="N163">
+        <v>7</v>
+      </c>
+      <c r="O163" t="s">
+        <v>188</v>
+      </c>
+      <c r="P163" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q163">
+        <v>3</v>
+      </c>
+      <c r="R163">
+        <v>4</v>
+      </c>
+      <c r="S163">
+        <v>7</v>
+      </c>
+      <c r="T163">
+        <v>2.38</v>
+      </c>
+      <c r="U163">
+        <v>2.25</v>
+      </c>
+      <c r="V163">
+        <v>4.75</v>
+      </c>
+      <c r="W163">
+        <v>1.36</v>
+      </c>
+      <c r="X163">
+        <v>3</v>
+      </c>
+      <c r="Y163">
+        <v>2.63</v>
+      </c>
+      <c r="Z163">
+        <v>1.44</v>
+      </c>
+      <c r="AA163">
+        <v>7</v>
+      </c>
+      <c r="AB163">
+        <v>1.1</v>
+      </c>
+      <c r="AC163">
+        <v>1.72</v>
+      </c>
+      <c r="AD163">
+        <v>3.8</v>
+      </c>
+      <c r="AE163">
+        <v>4.2</v>
+      </c>
+      <c r="AF163">
+        <v>1.05</v>
+      </c>
+      <c r="AG163">
+        <v>9</v>
+      </c>
+      <c r="AH163">
+        <v>1.25</v>
+      </c>
+      <c r="AI163">
+        <v>3.75</v>
+      </c>
+      <c r="AJ163">
+        <v>1.78</v>
+      </c>
+      <c r="AK163">
+        <v>1.99</v>
+      </c>
+      <c r="AL163">
+        <v>1.73</v>
+      </c>
+      <c r="AM163">
+        <v>2</v>
+      </c>
+      <c r="AN163">
+        <v>1.17</v>
+      </c>
+      <c r="AO163">
+        <v>1.2</v>
+      </c>
+      <c r="AP163">
+        <v>2</v>
+      </c>
+      <c r="AQ163">
+        <v>2.14</v>
+      </c>
+      <c r="AR163">
+        <v>1.08</v>
+      </c>
+      <c r="AS163">
+        <v>2.2</v>
+      </c>
+      <c r="AT163">
+        <v>1</v>
+      </c>
+      <c r="AU163">
+        <v>1.68</v>
+      </c>
+      <c r="AV163">
+        <v>1.28</v>
+      </c>
+      <c r="AW163">
+        <v>2.96</v>
+      </c>
+      <c r="AX163">
+        <v>1.59</v>
+      </c>
+      <c r="AY163">
+        <v>8</v>
+      </c>
+      <c r="AZ163">
+        <v>2.9</v>
+      </c>
+      <c r="BA163">
+        <v>1.53</v>
+      </c>
+      <c r="BB163">
+        <v>1.8</v>
+      </c>
+      <c r="BC163">
+        <v>2.34</v>
+      </c>
+      <c r="BD163">
+        <v>3.34</v>
+      </c>
+      <c r="BE163">
+        <v>4.85</v>
+      </c>
+      <c r="BF163">
+        <v>6</v>
+      </c>
+      <c r="BG163">
+        <v>13</v>
+      </c>
+      <c r="BH163">
+        <v>9</v>
+      </c>
+      <c r="BI163">
+        <v>1</v>
+      </c>
+      <c r="BJ163">
+        <v>15</v>
+      </c>
+      <c r="BK163">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -825,6 +825,9 @@
   <si>
     <t>['81', '84', '90+6']</t>
   </si>
+  <si>
+    <t>['45+4', '90+7']</t>
+  </si>
 </sst>
 </file>
 
@@ -1185,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1710,7 +1713,7 @@
         <v>1.71</v>
       </c>
       <c r="AT3">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2853,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT9">
         <v>1.33</v>
@@ -3235,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3808,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -4572,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>1.29</v>
@@ -5148,7 +5151,7 @@
         <v>1.62</v>
       </c>
       <c r="AT21">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU21">
         <v>1.25</v>
@@ -6100,7 +6103,7 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>1.33</v>
@@ -7819,7 +7822,7 @@
         <v>2</v>
       </c>
       <c r="AS35">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT35">
         <v>1</v>
@@ -8010,10 +8013,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT36">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU36">
         <v>1.35</v>
@@ -8774,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT40">
         <v>0.92</v>
@@ -8968,7 +8971,7 @@
         <v>0.71</v>
       </c>
       <c r="AT41">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>1.19</v>
@@ -11448,7 +11451,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>1</v>
@@ -11639,7 +11642,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT55">
         <v>1.13</v>
@@ -11830,7 +11833,7 @@
         <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT56">
         <v>1.15</v>
@@ -12021,7 +12024,7 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>0.77</v>
@@ -12406,7 +12409,7 @@
         <v>2.2</v>
       </c>
       <c r="AT59">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU59">
         <v>1.64</v>
@@ -13740,7 +13743,7 @@
         <v>1.2</v>
       </c>
       <c r="AS66">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT66">
         <v>0.77</v>
@@ -14698,7 +14701,7 @@
         <v>1.31</v>
       </c>
       <c r="AT71">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU71">
         <v>1.79</v>
@@ -16223,7 +16226,7 @@
         <v>2.17</v>
       </c>
       <c r="AS79">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT79">
         <v>1.21</v>
@@ -17369,7 +17372,7 @@
         <v>0.4</v>
       </c>
       <c r="AS85">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>0.79</v>
@@ -17754,7 +17757,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU87">
         <v>1.37</v>
@@ -18133,7 +18136,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT89">
         <v>1.29</v>
@@ -18706,7 +18709,7 @@
         <v>2.57</v>
       </c>
       <c r="AS92">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT92">
         <v>2</v>
@@ -19473,7 +19476,7 @@
         <v>1.69</v>
       </c>
       <c r="AT96">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU96">
         <v>1.62</v>
@@ -19852,7 +19855,7 @@
         <v>2.25</v>
       </c>
       <c r="AS98">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT98">
         <v>2</v>
@@ -20425,7 +20428,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>1.13</v>
@@ -21956,7 +21959,7 @@
         <v>0.64</v>
       </c>
       <c r="AT109">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU109">
         <v>1.41</v>
@@ -23099,7 +23102,7 @@
         <v>0.78</v>
       </c>
       <c r="AS115">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT115">
         <v>0.77</v>
@@ -23290,7 +23293,7 @@
         <v>1.7</v>
       </c>
       <c r="AS116">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>1.21</v>
@@ -25009,10 +25012,10 @@
         <v>1.22</v>
       </c>
       <c r="AS125">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT125">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -25200,7 +25203,7 @@
         <v>1.4</v>
       </c>
       <c r="AS126">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>1.15</v>
@@ -25967,7 +25970,7 @@
         <v>2.46</v>
       </c>
       <c r="AT130">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU130">
         <v>1.73</v>
@@ -27301,7 +27304,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT137">
         <v>0.79</v>
@@ -28256,7 +28259,7 @@
         <v>1.18</v>
       </c>
       <c r="AS142">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT142">
         <v>1.29</v>
@@ -28641,7 +28644,7 @@
         <v>1.71</v>
       </c>
       <c r="AT144">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU144">
         <v>1.78</v>
@@ -29784,10 +29787,10 @@
         <v>1.5</v>
       </c>
       <c r="AS150">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT150">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU150">
         <v>1.48</v>
@@ -30166,7 +30169,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -32322,6 +32325,388 @@
       </c>
       <c r="BK163">
         <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5139652</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45163.29166666666</v>
+      </c>
+      <c r="F164">
+        <v>28</v>
+      </c>
+      <c r="G164" t="s">
+        <v>72</v>
+      </c>
+      <c r="H164" t="s">
+        <v>71</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>152</v>
+      </c>
+      <c r="P164" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q164">
+        <v>4</v>
+      </c>
+      <c r="R164">
+        <v>6</v>
+      </c>
+      <c r="S164">
+        <v>10</v>
+      </c>
+      <c r="T164">
+        <v>3.6</v>
+      </c>
+      <c r="U164">
+        <v>2.2</v>
+      </c>
+      <c r="V164">
+        <v>2.7</v>
+      </c>
+      <c r="W164">
+        <v>1.33</v>
+      </c>
+      <c r="X164">
+        <v>3</v>
+      </c>
+      <c r="Y164">
+        <v>2.5</v>
+      </c>
+      <c r="Z164">
+        <v>1.48</v>
+      </c>
+      <c r="AA164">
+        <v>5.5</v>
+      </c>
+      <c r="AB164">
+        <v>1.11</v>
+      </c>
+      <c r="AC164">
+        <v>3.1</v>
+      </c>
+      <c r="AD164">
+        <v>3.5</v>
+      </c>
+      <c r="AE164">
+        <v>2.15</v>
+      </c>
+      <c r="AF164">
+        <v>1.04</v>
+      </c>
+      <c r="AG164">
+        <v>10</v>
+      </c>
+      <c r="AH164">
+        <v>1.22</v>
+      </c>
+      <c r="AI164">
+        <v>3.8</v>
+      </c>
+      <c r="AJ164">
+        <v>1.77</v>
+      </c>
+      <c r="AK164">
+        <v>2.05</v>
+      </c>
+      <c r="AL164">
+        <v>1.6</v>
+      </c>
+      <c r="AM164">
+        <v>2.2</v>
+      </c>
+      <c r="AN164">
+        <v>1.7</v>
+      </c>
+      <c r="AO164">
+        <v>1.29</v>
+      </c>
+      <c r="AP164">
+        <v>1.36</v>
+      </c>
+      <c r="AQ164">
+        <v>1.15</v>
+      </c>
+      <c r="AR164">
+        <v>1.38</v>
+      </c>
+      <c r="AS164">
+        <v>1.07</v>
+      </c>
+      <c r="AT164">
+        <v>1.5</v>
+      </c>
+      <c r="AU164">
+        <v>1.48</v>
+      </c>
+      <c r="AV164">
+        <v>1.3</v>
+      </c>
+      <c r="AW164">
+        <v>2.78</v>
+      </c>
+      <c r="AX164">
+        <v>2.54</v>
+      </c>
+      <c r="AY164">
+        <v>8</v>
+      </c>
+      <c r="AZ164">
+        <v>1.69</v>
+      </c>
+      <c r="BA164">
+        <v>1.43</v>
+      </c>
+      <c r="BB164">
+        <v>1.73</v>
+      </c>
+      <c r="BC164">
+        <v>2.14</v>
+      </c>
+      <c r="BD164">
+        <v>2.7</v>
+      </c>
+      <c r="BE164">
+        <v>4.15</v>
+      </c>
+      <c r="BF164">
+        <v>5</v>
+      </c>
+      <c r="BG164">
+        <v>6</v>
+      </c>
+      <c r="BH164">
+        <v>10</v>
+      </c>
+      <c r="BI164">
+        <v>5</v>
+      </c>
+      <c r="BJ164">
+        <v>15</v>
+      </c>
+      <c r="BK164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5139653</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45163.3125</v>
+      </c>
+      <c r="F165">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s">
+        <v>74</v>
+      </c>
+      <c r="H165" t="s">
+        <v>70</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>125</v>
+      </c>
+      <c r="P165" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>5</v>
+      </c>
+      <c r="S165">
+        <v>5</v>
+      </c>
+      <c r="T165">
+        <v>2.2</v>
+      </c>
+      <c r="U165">
+        <v>2.3</v>
+      </c>
+      <c r="V165">
+        <v>4.33</v>
+      </c>
+      <c r="W165">
+        <v>1.36</v>
+      </c>
+      <c r="X165">
+        <v>3</v>
+      </c>
+      <c r="Y165">
+        <v>2.5</v>
+      </c>
+      <c r="Z165">
+        <v>1.48</v>
+      </c>
+      <c r="AA165">
+        <v>6</v>
+      </c>
+      <c r="AB165">
+        <v>1.11</v>
+      </c>
+      <c r="AC165">
+        <v>1.67</v>
+      </c>
+      <c r="AD165">
+        <v>3.8</v>
+      </c>
+      <c r="AE165">
+        <v>4.75</v>
+      </c>
+      <c r="AF165">
+        <v>1.05</v>
+      </c>
+      <c r="AG165">
+        <v>9</v>
+      </c>
+      <c r="AH165">
+        <v>1.22</v>
+      </c>
+      <c r="AI165">
+        <v>4</v>
+      </c>
+      <c r="AJ165">
+        <v>1.77</v>
+      </c>
+      <c r="AK165">
+        <v>2.05</v>
+      </c>
+      <c r="AL165">
+        <v>1.66</v>
+      </c>
+      <c r="AM165">
+        <v>2.15</v>
+      </c>
+      <c r="AN165">
+        <v>1.16</v>
+      </c>
+      <c r="AO165">
+        <v>1.2</v>
+      </c>
+      <c r="AP165">
+        <v>1.95</v>
+      </c>
+      <c r="AQ165">
+        <v>2.07</v>
+      </c>
+      <c r="AR165">
+        <v>1</v>
+      </c>
+      <c r="AS165">
+        <v>2</v>
+      </c>
+      <c r="AT165">
+        <v>1</v>
+      </c>
+      <c r="AU165">
+        <v>1.45</v>
+      </c>
+      <c r="AV165">
+        <v>1.35</v>
+      </c>
+      <c r="AW165">
+        <v>2.8</v>
+      </c>
+      <c r="AX165">
+        <v>1.59</v>
+      </c>
+      <c r="AY165">
+        <v>8</v>
+      </c>
+      <c r="AZ165">
+        <v>2.9</v>
+      </c>
+      <c r="BA165">
+        <v>1.38</v>
+      </c>
+      <c r="BB165">
+        <v>1.7</v>
+      </c>
+      <c r="BC165">
+        <v>2.16</v>
+      </c>
+      <c r="BD165">
+        <v>2.88</v>
+      </c>
+      <c r="BE165">
+        <v>4.05</v>
+      </c>
+      <c r="BF165">
+        <v>4</v>
+      </c>
+      <c r="BG165">
+        <v>4</v>
+      </c>
+      <c r="BH165">
+        <v>8</v>
+      </c>
+      <c r="BI165">
+        <v>1</v>
+      </c>
+      <c r="BJ165">
+        <v>12</v>
+      </c>
+      <c r="BK165">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,15 @@
     <t>['42', '52', '77', '90+8']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['10', '90+7']</t>
+  </si>
+  <si>
+    <t>['19', '38', '47', '52']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -827,6 +836,9 @@
   </si>
   <si>
     <t>['45+4', '90+7']</t>
+  </si>
+  <si>
+    <t>['65', '69']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK165"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1444,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1623,7 +1635,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1710,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT3">
         <v>1.5</v>
@@ -1814,7 +1826,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2196,7 +2208,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2578,7 +2590,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2769,7 +2781,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2859,7 +2871,7 @@
         <v>1.07</v>
       </c>
       <c r="AT9">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2960,7 +2972,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3047,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT10">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3241,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3342,7 +3354,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3429,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3533,7 +3545,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3620,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT13">
         <v>1.15</v>
@@ -3814,7 +3826,7 @@
         <v>1.07</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU14">
         <v>0.3</v>
@@ -4005,7 +4017,7 @@
         <v>1.69</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU15">
         <v>1.61</v>
@@ -4106,7 +4118,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4193,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT16">
         <v>1.13</v>
@@ -4297,7 +4309,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4384,10 +4396,10 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT17">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU17">
         <v>1.95</v>
@@ -4769,7 +4781,7 @@
         <v>1.36</v>
       </c>
       <c r="AT19">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU19">
         <v>2.72</v>
@@ -5148,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT21">
         <v>1.5</v>
@@ -5252,7 +5264,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5530,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT23">
         <v>0.92</v>
@@ -5634,7 +5646,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6016,7 +6028,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6106,7 +6118,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU26">
         <v>1.47</v>
@@ -6485,7 +6497,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT28">
         <v>0.79</v>
@@ -6589,7 +6601,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6780,7 +6792,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6870,7 +6882,7 @@
         <v>1.31</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU30">
         <v>1.82</v>
@@ -6971,7 +6983,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7162,7 +7174,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7252,7 +7264,7 @@
         <v>2.46</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7440,7 +7452,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT33">
         <v>1.13</v>
@@ -7735,7 +7747,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8117,7 +8129,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8204,10 +8216,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT37">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU37">
         <v>1.09</v>
@@ -8308,7 +8320,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8398,7 +8410,7 @@
         <v>0.64</v>
       </c>
       <c r="AT38">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU38">
         <v>1.57</v>
@@ -8499,7 +8511,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8881,7 +8893,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8968,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT41">
         <v>1.5</v>
@@ -9162,7 +9174,7 @@
         <v>1.69</v>
       </c>
       <c r="AT42">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9263,7 +9275,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9350,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT43">
         <v>1.29</v>
@@ -9454,7 +9466,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9541,10 +9553,10 @@
         <v>0.33</v>
       </c>
       <c r="AS44">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU44">
         <v>1.59</v>
@@ -9732,7 +9744,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -9836,7 +9848,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9926,7 +9938,7 @@
         <v>2.46</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -10027,7 +10039,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10305,7 +10317,7 @@
         <v>0.67</v>
       </c>
       <c r="AS48">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT48">
         <v>0.77</v>
@@ -10409,7 +10421,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10690,7 +10702,7 @@
         <v>1.36</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU50">
         <v>1.83</v>
@@ -10881,7 +10893,7 @@
         <v>2.2</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU51">
         <v>1.7</v>
@@ -10982,7 +10994,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11069,10 +11081,10 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT52">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU52">
         <v>1.88</v>
@@ -11173,7 +11185,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11260,7 +11272,7 @@
         <v>1.75</v>
       </c>
       <c r="AS53">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT53">
         <v>1.15</v>
@@ -11364,7 +11376,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11746,7 +11758,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12128,7 +12140,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12218,7 +12230,7 @@
         <v>1.69</v>
       </c>
       <c r="AT58">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU58">
         <v>1.47</v>
@@ -12319,7 +12331,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12510,7 +12522,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12892,7 +12904,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12979,10 +12991,10 @@
         <v>2.4</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT62">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU62">
         <v>1.42</v>
@@ -13083,7 +13095,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13170,7 +13182,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
         <v>0.92</v>
@@ -13274,7 +13286,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13364,7 +13376,7 @@
         <v>1.36</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU64">
         <v>1.66</v>
@@ -13555,7 +13567,7 @@
         <v>1.31</v>
       </c>
       <c r="AT65">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU65">
         <v>1.82</v>
@@ -13934,7 +13946,7 @@
         <v>1.4</v>
       </c>
       <c r="AS67">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -14316,10 +14328,10 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT69">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU69">
         <v>1.42</v>
@@ -14507,7 +14519,7 @@
         <v>1.2</v>
       </c>
       <c r="AS70">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT70">
         <v>1.29</v>
@@ -14802,7 +14814,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14993,7 +15005,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15184,7 +15196,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15375,7 +15387,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15462,7 +15474,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT75">
         <v>1.13</v>
@@ -15566,7 +15578,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15653,10 +15665,10 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU76">
         <v>1.17</v>
@@ -15757,7 +15769,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16139,7 +16151,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16229,7 +16241,7 @@
         <v>1.07</v>
       </c>
       <c r="AT79">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU79">
         <v>1.46</v>
@@ -16330,7 +16342,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16521,7 +16533,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16608,10 +16620,10 @@
         <v>2.29</v>
       </c>
       <c r="AS81">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU81">
         <v>1.7</v>
@@ -16990,10 +17002,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT83">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU83">
         <v>1.22</v>
@@ -17094,7 +17106,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17184,7 +17196,7 @@
         <v>0.64</v>
       </c>
       <c r="AT84">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU84">
         <v>1.45</v>
@@ -17285,7 +17297,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17566,7 +17578,7 @@
         <v>1.31</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU86">
         <v>1.86</v>
@@ -17667,7 +17679,7 @@
         <v>136</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17754,7 +17766,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT87">
         <v>1.5</v>
@@ -17945,7 +17957,7 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT88">
         <v>0.77</v>
@@ -18049,7 +18061,7 @@
         <v>79</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -18240,7 +18252,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18712,7 +18724,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18813,7 +18825,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19004,7 +19016,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19195,7 +19207,7 @@
         <v>143</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19282,10 +19294,10 @@
         <v>1.43</v>
       </c>
       <c r="AS95">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT95">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU95">
         <v>1.9</v>
@@ -19386,7 +19398,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19664,7 +19676,7 @@
         <v>1.43</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT97">
         <v>1.15</v>
@@ -19768,7 +19780,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19858,7 +19870,7 @@
         <v>1.07</v>
       </c>
       <c r="AT98">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU98">
         <v>1.43</v>
@@ -19959,7 +19971,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20049,7 +20061,7 @@
         <v>2.2</v>
       </c>
       <c r="AT99">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -20237,10 +20249,10 @@
         <v>0.88</v>
       </c>
       <c r="AS100">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU100">
         <v>1.86</v>
@@ -20723,7 +20735,7 @@
         <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -20810,7 +20822,7 @@
         <v>1.13</v>
       </c>
       <c r="AS103">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -20914,7 +20926,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21001,7 +21013,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT104">
         <v>0.79</v>
@@ -21105,7 +21117,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21195,7 +21207,7 @@
         <v>2.46</v>
       </c>
       <c r="AT105">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU105">
         <v>1.7</v>
@@ -21487,7 +21499,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21574,7 +21586,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT107">
         <v>0.92</v>
@@ -21678,7 +21690,7 @@
         <v>125</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21765,10 +21777,10 @@
         <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT108">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU108">
         <v>1.76</v>
@@ -22060,7 +22072,7 @@
         <v>79</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22251,7 +22263,7 @@
         <v>153</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22529,7 +22541,7 @@
         <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT112">
         <v>0.92</v>
@@ -22633,7 +22645,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22824,7 +22836,7 @@
         <v>79</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22914,7 +22926,7 @@
         <v>1.36</v>
       </c>
       <c r="AT114">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU114">
         <v>1.67</v>
@@ -23015,7 +23027,7 @@
         <v>139</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23296,7 +23308,7 @@
         <v>2</v>
       </c>
       <c r="AT116">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU116">
         <v>1.45</v>
@@ -23397,7 +23409,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23484,10 +23496,10 @@
         <v>0.78</v>
       </c>
       <c r="AS117">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU117">
         <v>1.4</v>
@@ -23675,7 +23687,7 @@
         <v>1.3</v>
       </c>
       <c r="AS118">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -23866,10 +23878,10 @@
         <v>2.33</v>
       </c>
       <c r="AS119">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT119">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU119">
         <v>1.79</v>
@@ -23970,7 +23982,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24352,7 +24364,7 @@
         <v>116</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24543,7 +24555,7 @@
         <v>157</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24630,7 +24642,7 @@
         <v>1.22</v>
       </c>
       <c r="AS123">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT123">
         <v>1.29</v>
@@ -24824,7 +24836,7 @@
         <v>2.2</v>
       </c>
       <c r="AT124">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU124">
         <v>1.78</v>
@@ -24925,7 +24937,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25307,7 +25319,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25397,7 +25409,7 @@
         <v>1.69</v>
       </c>
       <c r="AT127">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU127">
         <v>1.62</v>
@@ -25585,7 +25597,7 @@
         <v>0.73</v>
       </c>
       <c r="AS128">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT128">
         <v>0.77</v>
@@ -25880,7 +25892,7 @@
         <v>161</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26071,7 +26083,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26161,7 +26173,7 @@
         <v>0.64</v>
       </c>
       <c r="AT131">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU131">
         <v>1.33</v>
@@ -26262,7 +26274,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26349,7 +26361,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS132">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT132">
         <v>0.79</v>
@@ -26453,7 +26465,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26644,7 +26656,7 @@
         <v>165</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26734,7 +26746,7 @@
         <v>0.64</v>
       </c>
       <c r="AT134">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -26922,7 +26934,7 @@
         <v>1.27</v>
       </c>
       <c r="AS135">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT135">
         <v>1.15</v>
@@ -27026,7 +27038,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -27113,7 +27125,7 @@
         <v>1.36</v>
       </c>
       <c r="AS136">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT136">
         <v>1.13</v>
@@ -27408,7 +27420,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27498,7 +27510,7 @@
         <v>2.2</v>
       </c>
       <c r="AT138">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU138">
         <v>1.77</v>
@@ -27790,7 +27802,7 @@
         <v>171</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27880,7 +27892,7 @@
         <v>2.46</v>
       </c>
       <c r="AT140">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU140">
         <v>1.73</v>
@@ -28172,7 +28184,7 @@
         <v>79</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>5</v>
@@ -28363,7 +28375,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28450,10 +28462,10 @@
         <v>0.82</v>
       </c>
       <c r="AS143">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU143">
         <v>1.2</v>
@@ -28554,7 +28566,7 @@
         <v>79</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -28641,7 +28653,7 @@
         <v>1.36</v>
       </c>
       <c r="AS144">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT144">
         <v>1.5</v>
@@ -29023,7 +29035,7 @@
         <v>1.17</v>
       </c>
       <c r="AS146">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT146">
         <v>1</v>
@@ -29127,7 +29139,7 @@
         <v>175</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29214,10 +29226,10 @@
         <v>1.36</v>
       </c>
       <c r="AS147">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT147">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU147">
         <v>1.79</v>
@@ -29318,7 +29330,7 @@
         <v>79</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29596,10 +29608,10 @@
         <v>2.25</v>
       </c>
       <c r="AS149">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT149">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU149">
         <v>1.44</v>
@@ -29891,7 +29903,7 @@
         <v>177</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30172,7 +30184,7 @@
         <v>2</v>
       </c>
       <c r="AT152">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU152">
         <v>1.46</v>
@@ -30360,10 +30372,10 @@
         <v>2.15</v>
       </c>
       <c r="AS153">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT153">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AU153">
         <v>1.22</v>
@@ -30655,7 +30667,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -31318,7 +31330,7 @@
         <v>0.64</v>
       </c>
       <c r="AT158">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU158">
         <v>1.33</v>
@@ -31419,7 +31431,7 @@
         <v>185</v>
       </c>
       <c r="P159" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31801,7 +31813,7 @@
         <v>183</v>
       </c>
       <c r="P161" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q161">
         <v>4</v>
@@ -31888,7 +31900,7 @@
         <v>0.62</v>
       </c>
       <c r="AS161">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT161">
         <v>0.79</v>
@@ -31992,7 +32004,7 @@
         <v>187</v>
       </c>
       <c r="P162" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32079,7 +32091,7 @@
         <v>1.14</v>
       </c>
       <c r="AS162">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT162">
         <v>1.13</v>
@@ -32183,7 +32195,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32374,7 +32386,7 @@
         <v>152</v>
       </c>
       <c r="P164" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q164">
         <v>4</v>
@@ -32565,7 +32577,7 @@
         <v>125</v>
       </c>
       <c r="P165" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q165">
         <v>0</v>
@@ -32707,6 +32719,770 @@
       </c>
       <c r="BK165">
         <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5139654</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45164.29166666666</v>
+      </c>
+      <c r="F166">
+        <v>28</v>
+      </c>
+      <c r="G166" t="s">
+        <v>73</v>
+      </c>
+      <c r="H166" t="s">
+        <v>68</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>162</v>
+      </c>
+      <c r="P166" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q166">
+        <v>6</v>
+      </c>
+      <c r="R166">
+        <v>10</v>
+      </c>
+      <c r="S166">
+        <v>16</v>
+      </c>
+      <c r="T166">
+        <v>2.92</v>
+      </c>
+      <c r="U166">
+        <v>1.93</v>
+      </c>
+      <c r="V166">
+        <v>3.5</v>
+      </c>
+      <c r="W166">
+        <v>1.4</v>
+      </c>
+      <c r="X166">
+        <v>2.75</v>
+      </c>
+      <c r="Y166">
+        <v>2.75</v>
+      </c>
+      <c r="Z166">
+        <v>1.4</v>
+      </c>
+      <c r="AA166">
+        <v>8</v>
+      </c>
+      <c r="AB166">
+        <v>1.08</v>
+      </c>
+      <c r="AC166">
+        <v>2.43</v>
+      </c>
+      <c r="AD166">
+        <v>3.15</v>
+      </c>
+      <c r="AE166">
+        <v>2.7</v>
+      </c>
+      <c r="AF166">
+        <v>1.05</v>
+      </c>
+      <c r="AG166">
+        <v>7.8</v>
+      </c>
+      <c r="AH166">
+        <v>1.25</v>
+      </c>
+      <c r="AI166">
+        <v>3.5</v>
+      </c>
+      <c r="AJ166">
+        <v>2.05</v>
+      </c>
+      <c r="AK166">
+        <v>1.83</v>
+      </c>
+      <c r="AL166">
+        <v>1.72</v>
+      </c>
+      <c r="AM166">
+        <v>2</v>
+      </c>
+      <c r="AN166">
+        <v>1.37</v>
+      </c>
+      <c r="AO166">
+        <v>1.3</v>
+      </c>
+      <c r="AP166">
+        <v>1.52</v>
+      </c>
+      <c r="AQ166">
+        <v>1.5</v>
+      </c>
+      <c r="AR166">
+        <v>1.21</v>
+      </c>
+      <c r="AS166">
+        <v>1.62</v>
+      </c>
+      <c r="AT166">
+        <v>1.13</v>
+      </c>
+      <c r="AU166">
+        <v>1.39</v>
+      </c>
+      <c r="AV166">
+        <v>1.67</v>
+      </c>
+      <c r="AW166">
+        <v>3.06</v>
+      </c>
+      <c r="AX166">
+        <v>2.33</v>
+      </c>
+      <c r="AY166">
+        <v>7.5</v>
+      </c>
+      <c r="AZ166">
+        <v>1.85</v>
+      </c>
+      <c r="BA166">
+        <v>1.48</v>
+      </c>
+      <c r="BB166">
+        <v>1.8</v>
+      </c>
+      <c r="BC166">
+        <v>2.25</v>
+      </c>
+      <c r="BD166">
+        <v>3.18</v>
+      </c>
+      <c r="BE166">
+        <v>4.55</v>
+      </c>
+      <c r="BF166">
+        <v>9</v>
+      </c>
+      <c r="BG166">
+        <v>6</v>
+      </c>
+      <c r="BH166">
+        <v>6</v>
+      </c>
+      <c r="BI166">
+        <v>5</v>
+      </c>
+      <c r="BJ166">
+        <v>15</v>
+      </c>
+      <c r="BK166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5139655</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45164.3125</v>
+      </c>
+      <c r="F167">
+        <v>28</v>
+      </c>
+      <c r="G167" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" t="s">
+        <v>69</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>189</v>
+      </c>
+      <c r="P167" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q167">
+        <v>3</v>
+      </c>
+      <c r="R167">
+        <v>6</v>
+      </c>
+      <c r="S167">
+        <v>9</v>
+      </c>
+      <c r="T167">
+        <v>4.3</v>
+      </c>
+      <c r="U167">
+        <v>2.05</v>
+      </c>
+      <c r="V167">
+        <v>2.5</v>
+      </c>
+      <c r="W167">
+        <v>1.42</v>
+      </c>
+      <c r="X167">
+        <v>2.65</v>
+      </c>
+      <c r="Y167">
+        <v>2.9</v>
+      </c>
+      <c r="Z167">
+        <v>1.35</v>
+      </c>
+      <c r="AA167">
+        <v>7</v>
+      </c>
+      <c r="AB167">
+        <v>1.06</v>
+      </c>
+      <c r="AC167">
+        <v>3.6</v>
+      </c>
+      <c r="AD167">
+        <v>3.4</v>
+      </c>
+      <c r="AE167">
+        <v>1.89</v>
+      </c>
+      <c r="AF167">
+        <v>1.03</v>
+      </c>
+      <c r="AG167">
+        <v>8.5</v>
+      </c>
+      <c r="AH167">
+        <v>1.27</v>
+      </c>
+      <c r="AI167">
+        <v>3.4</v>
+      </c>
+      <c r="AJ167">
+        <v>2.08</v>
+      </c>
+      <c r="AK167">
+        <v>1.8</v>
+      </c>
+      <c r="AL167">
+        <v>1.85</v>
+      </c>
+      <c r="AM167">
+        <v>1.88</v>
+      </c>
+      <c r="AN167">
+        <v>1.83</v>
+      </c>
+      <c r="AO167">
+        <v>1.32</v>
+      </c>
+      <c r="AP167">
+        <v>1.16</v>
+      </c>
+      <c r="AQ167">
+        <v>0.71</v>
+      </c>
+      <c r="AR167">
+        <v>1.33</v>
+      </c>
+      <c r="AS167">
+        <v>0.73</v>
+      </c>
+      <c r="AT167">
+        <v>1.31</v>
+      </c>
+      <c r="AU167">
+        <v>1.26</v>
+      </c>
+      <c r="AV167">
+        <v>1.3</v>
+      </c>
+      <c r="AW167">
+        <v>2.56</v>
+      </c>
+      <c r="AX167">
+        <v>2.33</v>
+      </c>
+      <c r="AY167">
+        <v>7.5</v>
+      </c>
+      <c r="AZ167">
+        <v>1.85</v>
+      </c>
+      <c r="BA167">
+        <v>1.53</v>
+      </c>
+      <c r="BB167">
+        <v>1.83</v>
+      </c>
+      <c r="BC167">
+        <v>2.4</v>
+      </c>
+      <c r="BD167">
+        <v>3.34</v>
+      </c>
+      <c r="BE167">
+        <v>4.9</v>
+      </c>
+      <c r="BF167">
+        <v>2</v>
+      </c>
+      <c r="BG167">
+        <v>3</v>
+      </c>
+      <c r="BH167">
+        <v>3</v>
+      </c>
+      <c r="BI167">
+        <v>4</v>
+      </c>
+      <c r="BJ167">
+        <v>5</v>
+      </c>
+      <c r="BK167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5139656</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45165.29166666666</v>
+      </c>
+      <c r="F168">
+        <v>28</v>
+      </c>
+      <c r="G168" t="s">
+        <v>66</v>
+      </c>
+      <c r="H168" t="s">
+        <v>65</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168" t="s">
+        <v>190</v>
+      </c>
+      <c r="P168" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>5</v>
+      </c>
+      <c r="S168">
+        <v>7</v>
+      </c>
+      <c r="T168">
+        <v>3.4</v>
+      </c>
+      <c r="U168">
+        <v>2.2</v>
+      </c>
+      <c r="V168">
+        <v>3.1</v>
+      </c>
+      <c r="W168">
+        <v>1.36</v>
+      </c>
+      <c r="X168">
+        <v>3</v>
+      </c>
+      <c r="Y168">
+        <v>2.75</v>
+      </c>
+      <c r="Z168">
+        <v>1.4</v>
+      </c>
+      <c r="AA168">
+        <v>7</v>
+      </c>
+      <c r="AB168">
+        <v>1.1</v>
+      </c>
+      <c r="AC168">
+        <v>2.4</v>
+      </c>
+      <c r="AD168">
+        <v>3.3</v>
+      </c>
+      <c r="AE168">
+        <v>2.8</v>
+      </c>
+      <c r="AF168">
+        <v>1.05</v>
+      </c>
+      <c r="AG168">
+        <v>9</v>
+      </c>
+      <c r="AH168">
+        <v>1.29</v>
+      </c>
+      <c r="AI168">
+        <v>3.5</v>
+      </c>
+      <c r="AJ168">
+        <v>1.81</v>
+      </c>
+      <c r="AK168">
+        <v>1.99</v>
+      </c>
+      <c r="AL168">
+        <v>1.67</v>
+      </c>
+      <c r="AM168">
+        <v>2.1</v>
+      </c>
+      <c r="AN168">
+        <v>1.52</v>
+      </c>
+      <c r="AO168">
+        <v>1.32</v>
+      </c>
+      <c r="AP168">
+        <v>1.33</v>
+      </c>
+      <c r="AQ168">
+        <v>1.71</v>
+      </c>
+      <c r="AR168">
+        <v>2</v>
+      </c>
+      <c r="AS168">
+        <v>1.67</v>
+      </c>
+      <c r="AT168">
+        <v>1.93</v>
+      </c>
+      <c r="AU168">
+        <v>1.75</v>
+      </c>
+      <c r="AV168">
+        <v>1.65</v>
+      </c>
+      <c r="AW168">
+        <v>3.4</v>
+      </c>
+      <c r="AX168">
+        <v>1.91</v>
+      </c>
+      <c r="AY168">
+        <v>7</v>
+      </c>
+      <c r="AZ168">
+        <v>2.3</v>
+      </c>
+      <c r="BA168">
+        <v>1.33</v>
+      </c>
+      <c r="BB168">
+        <v>1.65</v>
+      </c>
+      <c r="BC168">
+        <v>2.05</v>
+      </c>
+      <c r="BD168">
+        <v>2.63</v>
+      </c>
+      <c r="BE168">
+        <v>3.84</v>
+      </c>
+      <c r="BF168">
+        <v>9</v>
+      </c>
+      <c r="BG168">
+        <v>11</v>
+      </c>
+      <c r="BH168">
+        <v>9</v>
+      </c>
+      <c r="BI168">
+        <v>3</v>
+      </c>
+      <c r="BJ168">
+        <v>18</v>
+      </c>
+      <c r="BK168">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5139657</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45165.3125</v>
+      </c>
+      <c r="F169">
+        <v>28</v>
+      </c>
+      <c r="G169" t="s">
+        <v>76</v>
+      </c>
+      <c r="H169" t="s">
+        <v>67</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>191</v>
+      </c>
+      <c r="P169" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q169">
+        <v>2</v>
+      </c>
+      <c r="R169">
+        <v>6</v>
+      </c>
+      <c r="S169">
+        <v>8</v>
+      </c>
+      <c r="T169">
+        <v>2.6</v>
+      </c>
+      <c r="U169">
+        <v>2.1</v>
+      </c>
+      <c r="V169">
+        <v>4.75</v>
+      </c>
+      <c r="W169">
+        <v>1.44</v>
+      </c>
+      <c r="X169">
+        <v>2.63</v>
+      </c>
+      <c r="Y169">
+        <v>3.25</v>
+      </c>
+      <c r="Z169">
+        <v>1.33</v>
+      </c>
+      <c r="AA169">
+        <v>10</v>
+      </c>
+      <c r="AB169">
+        <v>1.06</v>
+      </c>
+      <c r="AC169">
+        <v>1.95</v>
+      </c>
+      <c r="AD169">
+        <v>3.25</v>
+      </c>
+      <c r="AE169">
+        <v>3.9</v>
+      </c>
+      <c r="AF169">
+        <v>1.04</v>
+      </c>
+      <c r="AG169">
+        <v>7.7</v>
+      </c>
+      <c r="AH169">
+        <v>1.36</v>
+      </c>
+      <c r="AI169">
+        <v>2.83</v>
+      </c>
+      <c r="AJ169">
+        <v>2.38</v>
+      </c>
+      <c r="AK169">
+        <v>1.57</v>
+      </c>
+      <c r="AL169">
+        <v>1.91</v>
+      </c>
+      <c r="AM169">
+        <v>1.8</v>
+      </c>
+      <c r="AN169">
+        <v>1.23</v>
+      </c>
+      <c r="AO169">
+        <v>1.31</v>
+      </c>
+      <c r="AP169">
+        <v>1.88</v>
+      </c>
+      <c r="AQ169">
+        <v>1.62</v>
+      </c>
+      <c r="AR169">
+        <v>1</v>
+      </c>
+      <c r="AS169">
+        <v>1.71</v>
+      </c>
+      <c r="AT169">
+        <v>0.93</v>
+      </c>
+      <c r="AU169">
+        <v>1.71</v>
+      </c>
+      <c r="AV169">
+        <v>1.29</v>
+      </c>
+      <c r="AW169">
+        <v>3</v>
+      </c>
+      <c r="AX169">
+        <v>1.5</v>
+      </c>
+      <c r="AY169">
+        <v>7.5</v>
+      </c>
+      <c r="AZ169">
+        <v>3.3</v>
+      </c>
+      <c r="BA169">
+        <v>1.57</v>
+      </c>
+      <c r="BB169">
+        <v>1.9</v>
+      </c>
+      <c r="BC169">
+        <v>2.4</v>
+      </c>
+      <c r="BD169">
+        <v>3.56</v>
+      </c>
+      <c r="BE169">
+        <v>5.2</v>
+      </c>
+      <c r="BF169">
+        <v>11</v>
+      </c>
+      <c r="BG169">
+        <v>3</v>
+      </c>
+      <c r="BH169">
+        <v>3</v>
+      </c>
+      <c r="BI169">
+        <v>4</v>
+      </c>
+      <c r="BJ169">
+        <v>14</v>
+      </c>
+      <c r="BK169">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['19', '38', '47', '52']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -724,9 +727,6 @@
     <t>['6', '41', '86']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['31', '90+2']</t>
   </si>
   <si>
@@ -839,6 +839,15 @@
   </si>
   <si>
     <t>['65', '69']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['64', '87']</t>
+  </si>
+  <si>
+    <t>['18', '55']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1453,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1531,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT2">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1635,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1826,7 +1835,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1913,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT4">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2104,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT5">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2208,7 +2217,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2486,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT7">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2590,7 +2599,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2677,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2781,7 +2790,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2871,7 +2880,7 @@
         <v>1.07</v>
       </c>
       <c r="AT9">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2972,7 +2981,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3059,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT10">
         <v>1.13</v>
@@ -3354,7 +3363,7 @@
         <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3545,7 +3554,7 @@
         <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3635,7 +3644,7 @@
         <v>1.71</v>
       </c>
       <c r="AT13">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4014,10 +4023,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT15">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU15">
         <v>1.61</v>
@@ -4118,7 +4127,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4309,7 +4318,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4590,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="AT18">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU18">
         <v>1.34</v>
@@ -4778,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT19">
         <v>1.13</v>
@@ -4972,7 +4981,7 @@
         <v>2.2</v>
       </c>
       <c r="AT20">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU20">
         <v>1.91</v>
@@ -5264,7 +5273,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5351,10 +5360,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT22">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU22">
         <v>2.03</v>
@@ -5542,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT23">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU23">
         <v>1.42</v>
@@ -5646,7 +5655,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5733,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5924,10 +5933,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT25">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU25">
         <v>0.91</v>
@@ -6028,7 +6037,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6118,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU26">
         <v>1.47</v>
@@ -6306,7 +6315,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT27">
         <v>1.13</v>
@@ -6500,7 +6509,7 @@
         <v>1.71</v>
       </c>
       <c r="AT28">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU28">
         <v>1.82</v>
@@ -6601,7 +6610,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6688,10 +6697,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT29">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6792,7 +6801,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6879,7 +6888,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT30">
         <v>1.93</v>
@@ -6983,7 +6992,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7070,10 +7079,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT31">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7174,7 +7183,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7261,7 +7270,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT32">
         <v>0.93</v>
@@ -7646,7 +7655,7 @@
         <v>2.2</v>
       </c>
       <c r="AT34">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU34">
         <v>1.91</v>
@@ -7747,7 +7756,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8129,7 +8138,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8320,7 +8329,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8407,7 +8416,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT38">
         <v>1.13</v>
@@ -8511,7 +8520,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8601,7 +8610,7 @@
         <v>2.2</v>
       </c>
       <c r="AT39">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU39">
         <v>1.76</v>
@@ -8792,7 +8801,7 @@
         <v>1.07</v>
       </c>
       <c r="AT40">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU40">
         <v>1.41</v>
@@ -8893,7 +8902,7 @@
         <v>79</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9171,7 +9180,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT42">
         <v>1.93</v>
@@ -9275,7 +9284,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9362,10 +9371,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT43">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU43">
         <v>1.37</v>
@@ -9466,7 +9475,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9744,7 +9753,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -9848,7 +9857,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9935,10 +9944,10 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT46">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU46">
         <v>1.37</v>
@@ -10039,7 +10048,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10126,10 +10135,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT47">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU47">
         <v>1.86</v>
@@ -10320,7 +10329,7 @@
         <v>1.71</v>
       </c>
       <c r="AT48">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU48">
         <v>1.9</v>
@@ -10421,7 +10430,7 @@
         <v>79</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10508,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT49">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU49">
         <v>1.84</v>
@@ -10699,7 +10708,7 @@
         <v>2.25</v>
       </c>
       <c r="AS50">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT50">
         <v>1.93</v>
@@ -10994,7 +11003,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11185,7 +11194,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11275,7 +11284,7 @@
         <v>0.73</v>
       </c>
       <c r="AT53">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU53">
         <v>1.13</v>
@@ -11376,7 +11385,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11758,7 +11767,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11848,7 +11857,7 @@
         <v>1.07</v>
       </c>
       <c r="AT56">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU56">
         <v>1.5</v>
@@ -12039,7 +12048,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU57">
         <v>1.37</v>
@@ -12140,7 +12149,7 @@
         <v>79</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12227,7 +12236,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT58">
         <v>1.13</v>
@@ -12331,7 +12340,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12522,7 +12531,7 @@
         <v>79</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12609,7 +12618,7 @@
         <v>0.6</v>
       </c>
       <c r="AS60">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT60">
         <v>1.13</v>
@@ -12800,10 +12809,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT61">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU61">
         <v>1.43</v>
@@ -12904,7 +12913,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12991,7 +13000,7 @@
         <v>2.4</v>
       </c>
       <c r="AS62">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT62">
         <v>1.93</v>
@@ -13095,7 +13104,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13185,7 +13194,7 @@
         <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU63">
         <v>1.63</v>
@@ -13286,7 +13295,7 @@
         <v>79</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>14</v>
@@ -13373,7 +13382,7 @@
         <v>0.2</v>
       </c>
       <c r="AS64">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT64">
         <v>0.93</v>
@@ -13564,10 +13573,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT65">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU65">
         <v>1.82</v>
@@ -13758,7 +13767,7 @@
         <v>1.07</v>
       </c>
       <c r="AT66">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -14137,10 +14146,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT68">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU68">
         <v>1.49</v>
@@ -14328,10 +14337,10 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT69">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU69">
         <v>1.42</v>
@@ -14522,7 +14531,7 @@
         <v>1.67</v>
       </c>
       <c r="AT70">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU70">
         <v>1.64</v>
@@ -14710,7 +14719,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT71">
         <v>1.5</v>
@@ -14814,7 +14823,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14901,10 +14910,10 @@
         <v>0.8</v>
       </c>
       <c r="AS72">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT72">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU72">
         <v>1.54</v>
@@ -15005,7 +15014,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15092,10 +15101,10 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT73">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU73">
         <v>1.42</v>
@@ -15196,7 +15205,7 @@
         <v>129</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15387,7 +15396,7 @@
         <v>79</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15578,7 +15587,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15769,7 +15778,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15856,10 +15865,10 @@
         <v>1.67</v>
       </c>
       <c r="AS77">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT77">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU77">
         <v>1.49</v>
@@ -16047,10 +16056,10 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU78">
         <v>1.73</v>
@@ -16151,7 +16160,7 @@
         <v>79</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16342,7 +16351,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>12</v>
@@ -16429,10 +16438,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT80">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU80">
         <v>1.71</v>
@@ -16533,7 +16542,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16811,7 +16820,7 @@
         <v>1.29</v>
       </c>
       <c r="AS82">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT82">
         <v>1.13</v>
@@ -17005,7 +17014,7 @@
         <v>0.73</v>
       </c>
       <c r="AT83">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU83">
         <v>1.22</v>
@@ -17106,7 +17115,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -17193,7 +17202,7 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT84">
         <v>1.93</v>
@@ -17297,7 +17306,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17387,7 +17396,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17575,7 +17584,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT86">
         <v>0.93</v>
@@ -17766,7 +17775,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT87">
         <v>1.5</v>
@@ -17960,7 +17969,7 @@
         <v>1.67</v>
       </c>
       <c r="AT88">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU88">
         <v>1.74</v>
@@ -18151,7 +18160,7 @@
         <v>1.07</v>
       </c>
       <c r="AT89">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18339,7 +18348,7 @@
         <v>1.14</v>
       </c>
       <c r="AS90">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18533,7 +18542,7 @@
         <v>2.2</v>
       </c>
       <c r="AT91">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU91">
         <v>1.6</v>
@@ -18912,10 +18921,10 @@
         <v>0.33</v>
       </c>
       <c r="AS93">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT93">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU93">
         <v>1.38</v>
@@ -19103,10 +19112,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT94">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU94">
         <v>1.78</v>
@@ -19297,7 +19306,7 @@
         <v>1.71</v>
       </c>
       <c r="AT95">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU95">
         <v>1.9</v>
@@ -19485,7 +19494,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT96">
         <v>1.5</v>
@@ -19676,10 +19685,10 @@
         <v>1.43</v>
       </c>
       <c r="AS97">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT97">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU97">
         <v>1.44</v>
@@ -20631,10 +20640,10 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT102">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU102">
         <v>1.74</v>
@@ -20926,7 +20935,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21013,10 +21022,10 @@
         <v>0.71</v>
       </c>
       <c r="AS104">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT104">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU104">
         <v>1.37</v>
@@ -21117,7 +21126,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21204,7 +21213,7 @@
         <v>1.89</v>
       </c>
       <c r="AS105">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT105">
         <v>1.13</v>
@@ -21395,10 +21404,10 @@
         <v>1.25</v>
       </c>
       <c r="AS106">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT106">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21589,7 +21598,7 @@
         <v>0.73</v>
       </c>
       <c r="AT107">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -21780,7 +21789,7 @@
         <v>1.67</v>
       </c>
       <c r="AT108">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU108">
         <v>1.76</v>
@@ -21968,7 +21977,7 @@
         <v>1.25</v>
       </c>
       <c r="AS109">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT109">
         <v>1.5</v>
@@ -22159,10 +22168,10 @@
         <v>1.22</v>
       </c>
       <c r="AS110">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT110">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU110">
         <v>1.33</v>
@@ -22350,7 +22359,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22544,7 +22553,7 @@
         <v>1.71</v>
       </c>
       <c r="AT112">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU112">
         <v>1.81</v>
@@ -22645,7 +22654,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22732,7 +22741,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT113">
         <v>1.13</v>
@@ -22923,10 +22932,10 @@
         <v>1.22</v>
       </c>
       <c r="AS114">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT114">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU114">
         <v>1.67</v>
@@ -23117,7 +23126,7 @@
         <v>1.07</v>
       </c>
       <c r="AT115">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU115">
         <v>1.41</v>
@@ -23409,7 +23418,7 @@
         <v>91</v>
       </c>
       <c r="P117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23496,7 +23505,7 @@
         <v>0.78</v>
       </c>
       <c r="AS117">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT117">
         <v>0.93</v>
@@ -23982,7 +23991,7 @@
         <v>156</v>
       </c>
       <c r="P120" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24072,7 +24081,7 @@
         <v>2.2</v>
       </c>
       <c r="AT120">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU120">
         <v>1.72</v>
@@ -24260,10 +24269,10 @@
         <v>0.8</v>
       </c>
       <c r="AS121">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT121">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU121">
         <v>1.68</v>
@@ -24451,7 +24460,7 @@
         <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT122">
         <v>1.13</v>
@@ -24645,7 +24654,7 @@
         <v>0.73</v>
       </c>
       <c r="AT123">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU123">
         <v>1.21</v>
@@ -25218,7 +25227,7 @@
         <v>2</v>
       </c>
       <c r="AT126">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU126">
         <v>1.47</v>
@@ -25406,7 +25415,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT127">
         <v>0.93</v>
@@ -25597,10 +25606,10 @@
         <v>0.73</v>
       </c>
       <c r="AS128">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT128">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU128">
         <v>1.42</v>
@@ -25788,10 +25797,10 @@
         <v>1.2</v>
       </c>
       <c r="AS129">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT129">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU129">
         <v>1.68</v>
@@ -25979,7 +25988,7 @@
         <v>1.2</v>
       </c>
       <c r="AS130">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT130">
         <v>1.5</v>
@@ -26083,7 +26092,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26170,10 +26179,10 @@
         <v>1.4</v>
       </c>
       <c r="AS131">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT131">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU131">
         <v>1.33</v>
@@ -26364,7 +26373,7 @@
         <v>1.67</v>
       </c>
       <c r="AT132">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU132">
         <v>1.69</v>
@@ -26552,10 +26561,10 @@
         <v>1.1</v>
       </c>
       <c r="AS133">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT133">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU133">
         <v>1.64</v>
@@ -26743,7 +26752,7 @@
         <v>2.45</v>
       </c>
       <c r="AS134">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT134">
         <v>1.93</v>
@@ -26937,7 +26946,7 @@
         <v>0.73</v>
       </c>
       <c r="AT135">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU135">
         <v>1.2</v>
@@ -27319,7 +27328,7 @@
         <v>2</v>
       </c>
       <c r="AT137">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -27698,7 +27707,7 @@
         <v>1.27</v>
       </c>
       <c r="AS139">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -27889,7 +27898,7 @@
         <v>1.42</v>
       </c>
       <c r="AS140">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT140">
         <v>1.13</v>
@@ -28083,7 +28092,7 @@
         <v>2.2</v>
       </c>
       <c r="AT141">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU141">
         <v>1.75</v>
@@ -28274,7 +28283,7 @@
         <v>1.07</v>
       </c>
       <c r="AT142">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU142">
         <v>1.46</v>
@@ -28844,7 +28853,7 @@
         <v>1.33</v>
       </c>
       <c r="AS145">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT145">
         <v>1.13</v>
@@ -29229,7 +29238,7 @@
         <v>1.67</v>
       </c>
       <c r="AT147">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU147">
         <v>1.79</v>
@@ -29417,10 +29426,10 @@
         <v>0.45</v>
       </c>
       <c r="AS148">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT148">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU148">
         <v>1.34</v>
@@ -29608,7 +29617,7 @@
         <v>2.25</v>
       </c>
       <c r="AS149">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT149">
         <v>1.93</v>
@@ -29990,10 +29999,10 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT151">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU151">
         <v>1.62</v>
@@ -30563,10 +30572,10 @@
         <v>0.67</v>
       </c>
       <c r="AS154">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT154">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU154">
         <v>1.62</v>
@@ -30754,10 +30763,10 @@
         <v>1.25</v>
       </c>
       <c r="AS155">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT155">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU155">
         <v>1.61</v>
@@ -30945,7 +30954,7 @@
         <v>1.23</v>
       </c>
       <c r="AS156">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT156">
         <v>1.13</v>
@@ -31139,7 +31148,7 @@
         <v>2.2</v>
       </c>
       <c r="AT157">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU157">
         <v>1.75</v>
@@ -31327,7 +31336,7 @@
         <v>1.31</v>
       </c>
       <c r="AS158">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AT158">
         <v>1.13</v>
@@ -31518,10 +31527,10 @@
         <v>1.31</v>
       </c>
       <c r="AS159">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT159">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU159">
         <v>1.58</v>
@@ -31709,10 +31718,10 @@
         <v>1</v>
       </c>
       <c r="AS160">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AT160">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU160">
         <v>1.72</v>
@@ -31903,7 +31912,7 @@
         <v>0.73</v>
       </c>
       <c r="AT161">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU161">
         <v>1.26</v>
@@ -32577,7 +32586,7 @@
         <v>125</v>
       </c>
       <c r="P165" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q165">
         <v>0</v>
@@ -32855,7 +32864,7 @@
         <v>1.21</v>
       </c>
       <c r="AS166">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT166">
         <v>1.13</v>
@@ -33049,7 +33058,7 @@
         <v>0.73</v>
       </c>
       <c r="AT167">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU167">
         <v>1.26</v>
@@ -33483,6 +33492,1152 @@
       </c>
       <c r="BK169">
         <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5139658</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45170.29166666666</v>
+      </c>
+      <c r="F170">
+        <v>29</v>
+      </c>
+      <c r="G170" t="s">
+        <v>70</v>
+      </c>
+      <c r="H170" t="s">
+        <v>72</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>79</v>
+      </c>
+      <c r="P170" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q170">
+        <v>6</v>
+      </c>
+      <c r="R170">
+        <v>4</v>
+      </c>
+      <c r="S170">
+        <v>10</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
+        <v>2.2</v>
+      </c>
+      <c r="V170">
+        <v>3.8</v>
+      </c>
+      <c r="W170">
+        <v>1.35</v>
+      </c>
+      <c r="X170">
+        <v>2.95</v>
+      </c>
+      <c r="Y170">
+        <v>2.5</v>
+      </c>
+      <c r="Z170">
+        <v>1.47</v>
+      </c>
+      <c r="AA170">
+        <v>5.8</v>
+      </c>
+      <c r="AB170">
+        <v>1.1</v>
+      </c>
+      <c r="AC170">
+        <v>2.01</v>
+      </c>
+      <c r="AD170">
+        <v>3.55</v>
+      </c>
+      <c r="AE170">
+        <v>3.05</v>
+      </c>
+      <c r="AF170">
+        <v>1.04</v>
+      </c>
+      <c r="AG170">
+        <v>8.5</v>
+      </c>
+      <c r="AH170">
+        <v>1.17</v>
+      </c>
+      <c r="AI170">
+        <v>4.3</v>
+      </c>
+      <c r="AJ170">
+        <v>1.57</v>
+      </c>
+      <c r="AK170">
+        <v>2.38</v>
+      </c>
+      <c r="AL170">
+        <v>1.55</v>
+      </c>
+      <c r="AM170">
+        <v>2.25</v>
+      </c>
+      <c r="AN170">
+        <v>1.22</v>
+      </c>
+      <c r="AO170">
+        <v>1.27</v>
+      </c>
+      <c r="AP170">
+        <v>1.8</v>
+      </c>
+      <c r="AQ170">
+        <v>1.69</v>
+      </c>
+      <c r="AR170">
+        <v>0.79</v>
+      </c>
+      <c r="AS170">
+        <v>1.57</v>
+      </c>
+      <c r="AT170">
+        <v>0.93</v>
+      </c>
+      <c r="AU170">
+        <v>1.61</v>
+      </c>
+      <c r="AV170">
+        <v>1.43</v>
+      </c>
+      <c r="AW170">
+        <v>3.04</v>
+      </c>
+      <c r="AX170">
+        <v>1.6</v>
+      </c>
+      <c r="AY170">
+        <v>7</v>
+      </c>
+      <c r="AZ170">
+        <v>3</v>
+      </c>
+      <c r="BA170">
+        <v>1.39</v>
+      </c>
+      <c r="BB170">
+        <v>1.72</v>
+      </c>
+      <c r="BC170">
+        <v>2.17</v>
+      </c>
+      <c r="BD170">
+        <v>2.93</v>
+      </c>
+      <c r="BE170">
+        <v>4.15</v>
+      </c>
+      <c r="BF170">
+        <v>3</v>
+      </c>
+      <c r="BG170">
+        <v>5</v>
+      </c>
+      <c r="BH170">
+        <v>7</v>
+      </c>
+      <c r="BI170">
+        <v>5</v>
+      </c>
+      <c r="BJ170">
+        <v>10</v>
+      </c>
+      <c r="BK170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5139659</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45170.3125</v>
+      </c>
+      <c r="F171">
+        <v>29</v>
+      </c>
+      <c r="G171" t="s">
+        <v>73</v>
+      </c>
+      <c r="H171" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>192</v>
+      </c>
+      <c r="P171" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q171">
+        <v>4</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>6</v>
+      </c>
+      <c r="T171">
+        <v>2.77</v>
+      </c>
+      <c r="U171">
+        <v>2.17</v>
+      </c>
+      <c r="V171">
+        <v>4.6</v>
+      </c>
+      <c r="W171">
+        <v>1.47</v>
+      </c>
+      <c r="X171">
+        <v>2.78</v>
+      </c>
+      <c r="Y171">
+        <v>3.35</v>
+      </c>
+      <c r="Z171">
+        <v>1.35</v>
+      </c>
+      <c r="AA171">
+        <v>8.1</v>
+      </c>
+      <c r="AB171">
+        <v>1.06</v>
+      </c>
+      <c r="AC171">
+        <v>2.02</v>
+      </c>
+      <c r="AD171">
+        <v>3.25</v>
+      </c>
+      <c r="AE171">
+        <v>3.3</v>
+      </c>
+      <c r="AF171">
+        <v>1.03</v>
+      </c>
+      <c r="AG171">
+        <v>8</v>
+      </c>
+      <c r="AH171">
+        <v>1.39</v>
+      </c>
+      <c r="AI171">
+        <v>3.1</v>
+      </c>
+      <c r="AJ171">
+        <v>2.3</v>
+      </c>
+      <c r="AK171">
+        <v>1.62</v>
+      </c>
+      <c r="AL171">
+        <v>1.91</v>
+      </c>
+      <c r="AM171">
+        <v>1.83</v>
+      </c>
+      <c r="AN171">
+        <v>1.26</v>
+      </c>
+      <c r="AO171">
+        <v>1.31</v>
+      </c>
+      <c r="AP171">
+        <v>1.82</v>
+      </c>
+      <c r="AQ171">
+        <v>1.62</v>
+      </c>
+      <c r="AR171">
+        <v>0.77</v>
+      </c>
+      <c r="AS171">
+        <v>1.71</v>
+      </c>
+      <c r="AT171">
+        <v>0.71</v>
+      </c>
+      <c r="AU171">
+        <v>1.44</v>
+      </c>
+      <c r="AV171">
+        <v>1.17</v>
+      </c>
+      <c r="AW171">
+        <v>2.61</v>
+      </c>
+      <c r="AX171">
+        <v>1.7</v>
+      </c>
+      <c r="AY171">
+        <v>7</v>
+      </c>
+      <c r="AZ171">
+        <v>2.7</v>
+      </c>
+      <c r="BA171">
+        <v>1.42</v>
+      </c>
+      <c r="BB171">
+        <v>1.88</v>
+      </c>
+      <c r="BC171">
+        <v>2.27</v>
+      </c>
+      <c r="BD171">
+        <v>3.04</v>
+      </c>
+      <c r="BE171">
+        <v>4.4</v>
+      </c>
+      <c r="BF171">
+        <v>6</v>
+      </c>
+      <c r="BG171">
+        <v>2</v>
+      </c>
+      <c r="BH171">
+        <v>4</v>
+      </c>
+      <c r="BI171">
+        <v>1</v>
+      </c>
+      <c r="BJ171">
+        <v>10</v>
+      </c>
+      <c r="BK171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5139660</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45171.1875</v>
+      </c>
+      <c r="F172">
+        <v>29</v>
+      </c>
+      <c r="G172" t="s">
+        <v>67</v>
+      </c>
+      <c r="H172" t="s">
+        <v>66</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>79</v>
+      </c>
+      <c r="P172" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q172">
+        <v>9</v>
+      </c>
+      <c r="R172">
+        <v>7</v>
+      </c>
+      <c r="S172">
+        <v>16</v>
+      </c>
+      <c r="T172">
+        <v>4</v>
+      </c>
+      <c r="U172">
+        <v>2.15</v>
+      </c>
+      <c r="V172">
+        <v>2.6</v>
+      </c>
+      <c r="W172">
+        <v>1.38</v>
+      </c>
+      <c r="X172">
+        <v>2.8</v>
+      </c>
+      <c r="Y172">
+        <v>2.8</v>
+      </c>
+      <c r="Z172">
+        <v>1.38</v>
+      </c>
+      <c r="AA172">
+        <v>6</v>
+      </c>
+      <c r="AB172">
+        <v>1.09</v>
+      </c>
+      <c r="AC172">
+        <v>4.43</v>
+      </c>
+      <c r="AD172">
+        <v>3.46</v>
+      </c>
+      <c r="AE172">
+        <v>1.68</v>
+      </c>
+      <c r="AF172">
+        <v>1.04</v>
+      </c>
+      <c r="AG172">
+        <v>8.5</v>
+      </c>
+      <c r="AH172">
+        <v>1.3</v>
+      </c>
+      <c r="AI172">
+        <v>3.2</v>
+      </c>
+      <c r="AJ172">
+        <v>2.01</v>
+      </c>
+      <c r="AK172">
+        <v>1.83</v>
+      </c>
+      <c r="AL172">
+        <v>1.75</v>
+      </c>
+      <c r="AM172">
+        <v>1.95</v>
+      </c>
+      <c r="AN172">
+        <v>1.8</v>
+      </c>
+      <c r="AO172">
+        <v>1.3</v>
+      </c>
+      <c r="AP172">
+        <v>1.28</v>
+      </c>
+      <c r="AQ172">
+        <v>0.64</v>
+      </c>
+      <c r="AR172">
+        <v>1.15</v>
+      </c>
+      <c r="AS172">
+        <v>0.6</v>
+      </c>
+      <c r="AT172">
+        <v>1.29</v>
+      </c>
+      <c r="AU172">
+        <v>1.33</v>
+      </c>
+      <c r="AV172">
+        <v>1.4</v>
+      </c>
+      <c r="AW172">
+        <v>2.73</v>
+      </c>
+      <c r="AX172">
+        <v>2.65</v>
+      </c>
+      <c r="AY172">
+        <v>8</v>
+      </c>
+      <c r="AZ172">
+        <v>1.69</v>
+      </c>
+      <c r="BA172">
+        <v>1.44</v>
+      </c>
+      <c r="BB172">
+        <v>1.75</v>
+      </c>
+      <c r="BC172">
+        <v>2.25</v>
+      </c>
+      <c r="BD172">
+        <v>3.05</v>
+      </c>
+      <c r="BE172">
+        <v>4.6</v>
+      </c>
+      <c r="BF172">
+        <v>8</v>
+      </c>
+      <c r="BG172">
+        <v>5</v>
+      </c>
+      <c r="BH172">
+        <v>9</v>
+      </c>
+      <c r="BI172">
+        <v>10</v>
+      </c>
+      <c r="BJ172">
+        <v>17</v>
+      </c>
+      <c r="BK172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>5139661</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45171.29166666666</v>
+      </c>
+      <c r="F173">
+        <v>29</v>
+      </c>
+      <c r="G173" t="s">
+        <v>71</v>
+      </c>
+      <c r="H173" t="s">
+        <v>69</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>79</v>
+      </c>
+      <c r="P173" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q173">
+        <v>8</v>
+      </c>
+      <c r="R173">
+        <v>9</v>
+      </c>
+      <c r="S173">
+        <v>17</v>
+      </c>
+      <c r="T173">
+        <v>3.6</v>
+      </c>
+      <c r="U173">
+        <v>2.15</v>
+      </c>
+      <c r="V173">
+        <v>2.8</v>
+      </c>
+      <c r="W173">
+        <v>1.36</v>
+      </c>
+      <c r="X173">
+        <v>2.88</v>
+      </c>
+      <c r="Y173">
+        <v>2.63</v>
+      </c>
+      <c r="Z173">
+        <v>1.43</v>
+      </c>
+      <c r="AA173">
+        <v>6</v>
+      </c>
+      <c r="AB173">
+        <v>1.09</v>
+      </c>
+      <c r="AC173">
+        <v>2.8</v>
+      </c>
+      <c r="AD173">
+        <v>3.1</v>
+      </c>
+      <c r="AE173">
+        <v>2.38</v>
+      </c>
+      <c r="AF173">
+        <v>1.04</v>
+      </c>
+      <c r="AG173">
+        <v>8.5</v>
+      </c>
+      <c r="AH173">
+        <v>1.3</v>
+      </c>
+      <c r="AI173">
+        <v>3.2</v>
+      </c>
+      <c r="AJ173">
+        <v>2.15</v>
+      </c>
+      <c r="AK173">
+        <v>1.7</v>
+      </c>
+      <c r="AL173">
+        <v>1.76</v>
+      </c>
+      <c r="AM173">
+        <v>2.01</v>
+      </c>
+      <c r="AN173">
+        <v>1.62</v>
+      </c>
+      <c r="AO173">
+        <v>1.33</v>
+      </c>
+      <c r="AP173">
+        <v>1.38</v>
+      </c>
+      <c r="AQ173">
+        <v>1.36</v>
+      </c>
+      <c r="AR173">
+        <v>1.31</v>
+      </c>
+      <c r="AS173">
+        <v>1.27</v>
+      </c>
+      <c r="AT173">
+        <v>1.43</v>
+      </c>
+      <c r="AU173">
+        <v>1.53</v>
+      </c>
+      <c r="AV173">
+        <v>1.3</v>
+      </c>
+      <c r="AW173">
+        <v>2.83</v>
+      </c>
+      <c r="AX173">
+        <v>2.2</v>
+      </c>
+      <c r="AY173">
+        <v>7.5</v>
+      </c>
+      <c r="AZ173">
+        <v>1.91</v>
+      </c>
+      <c r="BA173">
+        <v>1.5</v>
+      </c>
+      <c r="BB173">
+        <v>1.87</v>
+      </c>
+      <c r="BC173">
+        <v>2.31</v>
+      </c>
+      <c r="BD173">
+        <v>2.98</v>
+      </c>
+      <c r="BE173">
+        <v>4.25</v>
+      </c>
+      <c r="BF173">
+        <v>3</v>
+      </c>
+      <c r="BG173">
+        <v>7</v>
+      </c>
+      <c r="BH173">
+        <v>6</v>
+      </c>
+      <c r="BI173">
+        <v>1</v>
+      </c>
+      <c r="BJ173">
+        <v>9</v>
+      </c>
+      <c r="BK173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>5139662</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45172.1875</v>
+      </c>
+      <c r="F174">
+        <v>29</v>
+      </c>
+      <c r="G174" t="s">
+        <v>65</v>
+      </c>
+      <c r="H174" t="s">
+        <v>76</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>79</v>
+      </c>
+      <c r="P174" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q174">
+        <v>10</v>
+      </c>
+      <c r="R174">
+        <v>4</v>
+      </c>
+      <c r="S174">
+        <v>14</v>
+      </c>
+      <c r="T174">
+        <v>2.4</v>
+      </c>
+      <c r="U174">
+        <v>2.2</v>
+      </c>
+      <c r="V174">
+        <v>4.5</v>
+      </c>
+      <c r="W174">
+        <v>1.36</v>
+      </c>
+      <c r="X174">
+        <v>3</v>
+      </c>
+      <c r="Y174">
+        <v>2.75</v>
+      </c>
+      <c r="Z174">
+        <v>1.4</v>
+      </c>
+      <c r="AA174">
+        <v>7</v>
+      </c>
+      <c r="AB174">
+        <v>1.1</v>
+      </c>
+      <c r="AC174">
+        <v>1.81</v>
+      </c>
+      <c r="AD174">
+        <v>3.75</v>
+      </c>
+      <c r="AE174">
+        <v>4.27</v>
+      </c>
+      <c r="AF174">
+        <v>1.05</v>
+      </c>
+      <c r="AG174">
+        <v>7.8</v>
+      </c>
+      <c r="AH174">
+        <v>1.25</v>
+      </c>
+      <c r="AI174">
+        <v>3.5</v>
+      </c>
+      <c r="AJ174">
+        <v>1.95</v>
+      </c>
+      <c r="AK174">
+        <v>1.93</v>
+      </c>
+      <c r="AL174">
+        <v>1.8</v>
+      </c>
+      <c r="AM174">
+        <v>1.91</v>
+      </c>
+      <c r="AN174">
+        <v>1.21</v>
+      </c>
+      <c r="AO174">
+        <v>1.25</v>
+      </c>
+      <c r="AP174">
+        <v>1.82</v>
+      </c>
+      <c r="AQ174">
+        <v>2.46</v>
+      </c>
+      <c r="AR174">
+        <v>1.29</v>
+      </c>
+      <c r="AS174">
+        <v>2.29</v>
+      </c>
+      <c r="AT174">
+        <v>1.4</v>
+      </c>
+      <c r="AU174">
+        <v>1.71</v>
+      </c>
+      <c r="AV174">
+        <v>1.38</v>
+      </c>
+      <c r="AW174">
+        <v>3.09</v>
+      </c>
+      <c r="AX174">
+        <v>1.59</v>
+      </c>
+      <c r="AY174">
+        <v>7.5</v>
+      </c>
+      <c r="AZ174">
+        <v>2.91</v>
+      </c>
+      <c r="BA174">
+        <v>1.56</v>
+      </c>
+      <c r="BB174">
+        <v>1.93</v>
+      </c>
+      <c r="BC174">
+        <v>2.42</v>
+      </c>
+      <c r="BD174">
+        <v>3.48</v>
+      </c>
+      <c r="BE174">
+        <v>5.05</v>
+      </c>
+      <c r="BF174">
+        <v>5</v>
+      </c>
+      <c r="BG174">
+        <v>3</v>
+      </c>
+      <c r="BH174">
+        <v>8</v>
+      </c>
+      <c r="BI174">
+        <v>2</v>
+      </c>
+      <c r="BJ174">
+        <v>13</v>
+      </c>
+      <c r="BK174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5139663</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45172.29166666666</v>
+      </c>
+      <c r="F175">
+        <v>29</v>
+      </c>
+      <c r="G175" t="s">
+        <v>68</v>
+      </c>
+      <c r="H175" t="s">
+        <v>74</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>79</v>
+      </c>
+      <c r="P175" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q175">
+        <v>2</v>
+      </c>
+      <c r="R175">
+        <v>6</v>
+      </c>
+      <c r="S175">
+        <v>8</v>
+      </c>
+      <c r="T175">
+        <v>3.5</v>
+      </c>
+      <c r="U175">
+        <v>2.2</v>
+      </c>
+      <c r="V175">
+        <v>3</v>
+      </c>
+      <c r="W175">
+        <v>1.36</v>
+      </c>
+      <c r="X175">
+        <v>3</v>
+      </c>
+      <c r="Y175">
+        <v>2.75</v>
+      </c>
+      <c r="Z175">
+        <v>1.4</v>
+      </c>
+      <c r="AA175">
+        <v>7</v>
+      </c>
+      <c r="AB175">
+        <v>1.1</v>
+      </c>
+      <c r="AC175">
+        <v>2.95</v>
+      </c>
+      <c r="AD175">
+        <v>3.36</v>
+      </c>
+      <c r="AE175">
+        <v>2.4</v>
+      </c>
+      <c r="AF175">
+        <v>1.05</v>
+      </c>
+      <c r="AG175">
+        <v>8</v>
+      </c>
+      <c r="AH175">
+        <v>1.22</v>
+      </c>
+      <c r="AI175">
+        <v>3.7</v>
+      </c>
+      <c r="AJ175">
+        <v>1.95</v>
+      </c>
+      <c r="AK175">
+        <v>1.93</v>
+      </c>
+      <c r="AL175">
+        <v>1.67</v>
+      </c>
+      <c r="AM175">
+        <v>2.1</v>
+      </c>
+      <c r="AN175">
+        <v>1.55</v>
+      </c>
+      <c r="AO175">
+        <v>1.33</v>
+      </c>
+      <c r="AP175">
+        <v>1.3</v>
+      </c>
+      <c r="AQ175">
+        <v>1.31</v>
+      </c>
+      <c r="AR175">
+        <v>0.92</v>
+      </c>
+      <c r="AS175">
+        <v>1.29</v>
+      </c>
+      <c r="AT175">
+        <v>0.93</v>
+      </c>
+      <c r="AU175">
+        <v>1.65</v>
+      </c>
+      <c r="AV175">
+        <v>1.63</v>
+      </c>
+      <c r="AW175">
+        <v>3.28</v>
+      </c>
+      <c r="AX175">
+        <v>1.75</v>
+      </c>
+      <c r="AY175">
+        <v>7.5</v>
+      </c>
+      <c r="AZ175">
+        <v>2.53</v>
+      </c>
+      <c r="BA175">
+        <v>1.43</v>
+      </c>
+      <c r="BB175">
+        <v>1.76</v>
+      </c>
+      <c r="BC175">
+        <v>2.18</v>
+      </c>
+      <c r="BD175">
+        <v>2.7</v>
+      </c>
+      <c r="BE175">
+        <v>4.25</v>
+      </c>
+      <c r="BF175">
+        <v>4</v>
+      </c>
+      <c r="BG175">
+        <v>4</v>
+      </c>
+      <c r="BH175">
+        <v>4</v>
+      </c>
+      <c r="BI175">
+        <v>8</v>
+      </c>
+      <c r="BJ175">
+        <v>8</v>
+      </c>
+      <c r="BK175">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -34625,7 +34625,7 @@
         <v>4</v>
       </c>
       <c r="BG175">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH175">
         <v>4</v>
@@ -34637,7 +34637,7 @@
         <v>8</v>
       </c>
       <c r="BK175">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT3" t="n">
         <v>1.5</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.73</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>1.2</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT17" t="n">
         <v>1.93</v>
@@ -4151,7 +4151,7 @@
         <v>1.88</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>1.34</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1.38</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU27" t="n">
         <v>2.23</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT31" t="n">
         <v>0.87</v>
@@ -7193,10 +7193,10 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>1.41</v>
@@ -7399,7 +7399,7 @@
         <v>2.25</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.91</v>
@@ -8208,7 +8208,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT38" t="n">
         <v>1.06</v>
@@ -9226,7 +9226,7 @@
         <v>1.71</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.37</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT44" t="n">
         <v>0.93</v>
@@ -11662,7 +11662,7 @@
         <v>1.07</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU55" t="n">
         <v>1.55</v>
@@ -12674,10 +12674,10 @@
         <v>0.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -12880,7 +12880,7 @@
         <v>2.2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.43</v>
@@ -13283,7 +13283,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT63" t="n">
         <v>0.93</v>
@@ -14704,10 +14704,10 @@
         <v>1.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.64</v>
@@ -15110,7 +15110,7 @@
         <v>0.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT72" t="n">
         <v>0.93</v>
@@ -15722,7 +15722,7 @@
         <v>1.71</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU75" t="n">
         <v>1.94</v>
@@ -16737,7 +16737,7 @@
         <v>1.38</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.71</v>
@@ -16937,7 +16937,7 @@
         <v>2.29</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT81" t="n">
         <v>1.06</v>
@@ -17143,7 +17143,7 @@
         <v>1.57</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU82" t="n">
         <v>1.49</v>
@@ -17546,7 +17546,7 @@
         <v>2.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT84" t="n">
         <v>1.93</v>
@@ -18358,7 +18358,7 @@
         <v>0.86</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT88" t="n">
         <v>0.87</v>
@@ -18564,7 +18564,7 @@
         <v>1.07</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -19373,7 +19373,7 @@
         <v>0.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT93" t="n">
         <v>0.88</v>
@@ -21000,7 +21000,7 @@
         <v>1.88</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU101" t="n">
         <v>1.48</v>
@@ -22015,7 +22015,7 @@
         <v>1.57</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.63</v>
@@ -22418,7 +22418,7 @@
         <v>1.25</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT108" t="n">
         <v>1.43</v>
@@ -22621,7 +22621,7 @@
         <v>1.25</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT109" t="n">
         <v>1.5</v>
@@ -22824,7 +22824,7 @@
         <v>1.22</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT110" t="n">
         <v>1.29</v>
@@ -23436,7 +23436,7 @@
         <v>2.2</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU113" t="n">
         <v>1.7</v>
@@ -24448,7 +24448,7 @@
         <v>1.3</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -25263,7 +25263,7 @@
         <v>1.29</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU122" t="n">
         <v>1.71</v>
@@ -25466,7 +25466,7 @@
         <v>0.73</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU123" t="n">
         <v>1.21</v>
@@ -26684,7 +26684,7 @@
         <v>1.29</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.68</v>
@@ -27087,7 +27087,7 @@
         <v>1.4</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT131" t="n">
         <v>1.43</v>
@@ -27290,7 +27290,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT132" t="n">
         <v>0.88</v>
@@ -27696,7 +27696,7 @@
         <v>2.45</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT134" t="n">
         <v>1.93</v>
@@ -28105,7 +28105,7 @@
         <v>1.71</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU136" t="n">
         <v>1.73</v>
@@ -29323,7 +29323,7 @@
         <v>1.07</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU142" t="n">
         <v>1.46</v>
@@ -29726,7 +29726,7 @@
         <v>1.36</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT144" t="n">
         <v>1.5</v>
@@ -29932,7 +29932,7 @@
         <v>1.57</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU145" t="n">
         <v>1.64</v>
@@ -30335,7 +30335,7 @@
         <v>1.36</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT147" t="n">
         <v>1.43</v>
@@ -30538,7 +30538,7 @@
         <v>0.45</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT148" t="n">
         <v>0.88</v>
@@ -32165,7 +32165,7 @@
         <v>1.38</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU156" t="n">
         <v>1.59</v>
@@ -32368,7 +32368,7 @@
         <v>2.25</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU157" t="n">
         <v>1.75</v>
@@ -32568,7 +32568,7 @@
         <v>1.31</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT158" t="n">
         <v>1.06</v>
@@ -32774,7 +32774,7 @@
         <v>1.38</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU159" t="n">
         <v>1.58</v>
@@ -33380,10 +33380,10 @@
         <v>1.14</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU162" t="n">
         <v>1.8</v>
@@ -34598,7 +34598,7 @@
         <v>2</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT168" t="n">
         <v>1.93</v>
@@ -35410,7 +35410,7 @@
         <v>1.15</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT172" t="n">
         <v>1.29</v>
@@ -35819,7 +35819,7 @@
         <v>2.2</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU174" t="n">
         <v>1.71</v>
@@ -36886,6 +36886,412 @@
       </c>
       <c r="BK179" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5139668</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45186.08333333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>30</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>4</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2</v>
+      </c>
+      <c r="S180" t="n">
+        <v>6</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5139669</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45186.1875</v>
+      </c>
+      <c r="F181" t="n">
+        <v>30</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>4</v>
+      </c>
+      <c r="R181" t="n">
+        <v>2</v>
+      </c>
+      <c r="S181" t="n">
+        <v>6</v>
+      </c>
+      <c r="T181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT5" t="n">
         <v>0.88</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT7" t="n">
         <v>0.87</v>
@@ -2730,7 +2730,7 @@
         <v>1.88</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.71</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.07</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU14" t="n">
         <v>0.3</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT15" t="n">
         <v>1.43</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU22" t="n">
         <v>2.03</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT30" t="n">
         <v>1.93</v>
@@ -6993,7 +6993,7 @@
         <v>2.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -8414,7 +8414,7 @@
         <v>2.25</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.76</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
         <v>1.93</v>
@@ -9429,7 +9429,7 @@
         <v>1.56</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU44" t="n">
         <v>1.59</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT49" t="n">
         <v>0.93</v>
@@ -10850,7 +10850,7 @@
         <v>2.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU51" t="n">
         <v>1.7</v>
@@ -11256,7 +11256,7 @@
         <v>0.73</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU53" t="n">
         <v>1.13</v>
@@ -11865,7 +11865,7 @@
         <v>1.07</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU56" t="n">
         <v>1.5</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT58" t="n">
         <v>1.06</v>
@@ -13489,7 +13489,7 @@
         <v>1.38</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU64" t="n">
         <v>1.66</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT65" t="n">
         <v>1.43</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT71" t="n">
         <v>1.5</v>
@@ -15313,7 +15313,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT73" t="n">
         <v>0.88</v>
@@ -15925,7 +15925,7 @@
         <v>0.73</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU76" t="n">
         <v>1.17</v>
@@ -16128,7 +16128,7 @@
         <v>2.2</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU77" t="n">
         <v>1.49</v>
@@ -17140,7 +17140,7 @@
         <v>1.29</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT82" t="n">
         <v>1.25</v>
@@ -17952,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU86" t="n">
         <v>1.86</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.87</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT96" t="n">
         <v>1.5</v>
@@ -20188,7 +20188,7 @@
         <v>1.71</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU97" t="n">
         <v>1.44</v>
@@ -20797,7 +20797,7 @@
         <v>1.71</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU100" t="n">
         <v>1.86</v>
@@ -21203,7 +21203,7 @@
         <v>1.38</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU102" t="n">
         <v>1.74</v>
@@ -22012,7 +22012,7 @@
         <v>1.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT106" t="n">
         <v>1.5</v>
@@ -22827,7 +22827,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU110" t="n">
         <v>1.33</v>
@@ -23027,7 +23027,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -24248,7 +24248,7 @@
         <v>1.71</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU117" t="n">
         <v>1.4</v>
@@ -25260,7 +25260,7 @@
         <v>1.2</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT122" t="n">
         <v>1.25</v>
@@ -26075,7 +26075,7 @@
         <v>1.88</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU126" t="n">
         <v>1.47</v>
@@ -26275,10 +26275,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU127" t="n">
         <v>1.62</v>
@@ -26681,7 +26681,7 @@
         <v>1.2</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT129" t="n">
         <v>1.5</v>
@@ -27493,7 +27493,7 @@
         <v>1.1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT133" t="n">
         <v>0.93</v>
@@ -27902,7 +27902,7 @@
         <v>0.73</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU135" t="n">
         <v>1.2</v>
@@ -29526,7 +29526,7 @@
         <v>0.73</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU143" t="n">
         <v>1.2</v>
@@ -29929,7 +29929,7 @@
         <v>1.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT145" t="n">
         <v>1.25</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT151" t="n">
         <v>0.87</v>
@@ -31353,7 +31353,7 @@
         <v>1.88</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU152" t="n">
         <v>1.46</v>
@@ -31756,7 +31756,7 @@
         <v>0.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT154" t="n">
         <v>0.88</v>
@@ -31959,10 +31959,10 @@
         <v>1.25</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU155" t="n">
         <v>1.61</v>
@@ -34804,7 +34804,7 @@
         <v>1.71</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU169" t="n">
         <v>1.71</v>
@@ -35004,7 +35004,7 @@
         <v>0.79</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT170" t="n">
         <v>0.88</v>
@@ -35413,7 +35413,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU172" t="n">
         <v>1.33</v>
@@ -36019,7 +36019,7 @@
         <v>0.92</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT175" t="n">
         <v>0.93</v>
@@ -37292,6 +37292,412 @@
       </c>
       <c r="BK181" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5139670</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45192.08333333334</v>
+      </c>
+      <c r="F182" t="n">
+        <v>31</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>3</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>4</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['15', '37', '90+10']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>2</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2</v>
+      </c>
+      <c r="S182" t="n">
+        <v>4</v>
+      </c>
+      <c r="T182" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X182" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5139671</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45192.1875</v>
+      </c>
+      <c r="F183" t="n">
+        <v>31</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>3</v>
+      </c>
+      <c r="N183" t="n">
+        <v>4</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['40', '50', '66']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>4</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2</v>
+      </c>
+      <c r="S183" t="n">
+        <v>6</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.56</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT10" t="n">
         <v>1.06</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT13" t="n">
         <v>1.4</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>0.87</v>
@@ -3542,7 +3542,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>1.61</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT16" t="n">
         <v>1.25</v>
@@ -3948,7 +3948,7 @@
         <v>1.56</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU17" t="n">
         <v>1.95</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU23" t="n">
         <v>1.42</v>
@@ -5775,7 +5775,7 @@
         <v>1.88</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU26" t="n">
         <v>1.47</v>
@@ -6178,7 +6178,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT28" t="n">
         <v>0.88</v>
@@ -6587,7 +6587,7 @@
         <v>1.2</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.82</v>
@@ -7599,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7805,7 +7805,7 @@
         <v>1.88</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU36" t="n">
         <v>1.35</v>
@@ -8005,7 +8005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT37" t="n">
         <v>1.06</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="n">
         <v>1.07</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>0.93</v>
       </c>
       <c r="AU40" t="n">
         <v>1.41</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU41" t="n">
         <v>1.19</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.51</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9629,7 +9629,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -9835,7 +9835,7 @@
         <v>2.2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU46" t="n">
         <v>1.37</v>
@@ -10238,7 +10238,7 @@
         <v>0.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT48" t="n">
         <v>0.87</v>
@@ -10444,7 +10444,7 @@
         <v>1.2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU49" t="n">
         <v>1.84</v>
@@ -10647,7 +10647,7 @@
         <v>1.38</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.83</v>
@@ -11050,7 +11050,7 @@
         <v>1.75</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT52" t="n">
         <v>1.06</v>
@@ -11253,7 +11253,7 @@
         <v>1.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT53" t="n">
         <v>1.4</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
         <v>1.25</v>
@@ -11862,7 +11862,7 @@
         <v>1.4</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
         <v>1.4</v>
@@ -12474,7 +12474,7 @@
         <v>2.25</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU59" t="n">
         <v>1.64</v>
@@ -13080,10 +13080,10 @@
         <v>2.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU62" t="n">
         <v>1.42</v>
@@ -13286,7 +13286,7 @@
         <v>1.56</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU63" t="n">
         <v>1.63</v>
@@ -13692,7 +13692,7 @@
         <v>1.2</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU65" t="n">
         <v>1.82</v>
@@ -13892,7 +13892,7 @@
         <v>1.2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT66" t="n">
         <v>0.87</v>
@@ -14095,7 +14095,7 @@
         <v>1.4</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14501,10 +14501,10 @@
         <v>1.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU69" t="n">
         <v>1.42</v>
@@ -14910,7 +14910,7 @@
         <v>1.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU71" t="n">
         <v>1.79</v>
@@ -15113,7 +15113,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU72" t="n">
         <v>1.54</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT75" t="n">
         <v>1.25</v>
@@ -15922,7 +15922,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT76" t="n">
         <v>0.87</v>
@@ -16331,7 +16331,7 @@
         <v>1.38</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU78" t="n">
         <v>1.73</v>
@@ -16531,7 +16531,7 @@
         <v>2.17</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT79" t="n">
         <v>1.06</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU83" t="n">
         <v>1.22</v>
@@ -17549,7 +17549,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU84" t="n">
         <v>1.45</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU87" t="n">
         <v>1.37</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT89" t="n">
         <v>1.5</v>
@@ -18970,7 +18970,7 @@
         <v>2.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU91" t="n">
         <v>1.6</v>
@@ -19173,7 +19173,7 @@
         <v>1.88</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU92" t="n">
         <v>1.54</v>
@@ -19779,10 +19779,10 @@
         <v>1.43</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU95" t="n">
         <v>1.9</v>
@@ -19985,7 +19985,7 @@
         <v>1.67</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU96" t="n">
         <v>1.62</v>
@@ -20185,7 +20185,7 @@
         <v>1.43</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT97" t="n">
         <v>1.4</v>
@@ -20388,10 +20388,10 @@
         <v>2.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU98" t="n">
         <v>1.43</v>
@@ -20794,7 +20794,7 @@
         <v>0.88</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT100" t="n">
         <v>0.87</v>
@@ -21403,7 +21403,7 @@
         <v>1.13</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -21606,7 +21606,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT104" t="n">
         <v>0.88</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU107" t="n">
         <v>1.23</v>
@@ -22421,7 +22421,7 @@
         <v>1.56</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU108" t="n">
         <v>1.76</v>
@@ -22624,7 +22624,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU109" t="n">
         <v>1.41</v>
@@ -23230,10 +23230,10 @@
         <v>1.22</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU112" t="n">
         <v>1.81</v>
@@ -23639,7 +23639,7 @@
         <v>1.38</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU114" t="n">
         <v>1.67</v>
@@ -23839,7 +23839,7 @@
         <v>0.78</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT115" t="n">
         <v>0.87</v>
@@ -24245,7 +24245,7 @@
         <v>0.78</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT117" t="n">
         <v>0.87</v>
@@ -24651,10 +24651,10 @@
         <v>2.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU119" t="n">
         <v>1.79</v>
@@ -25463,7 +25463,7 @@
         <v>1.22</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT123" t="n">
         <v>1.5</v>
@@ -25669,7 +25669,7 @@
         <v>2.25</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU124" t="n">
         <v>1.78</v>
@@ -25869,10 +25869,10 @@
         <v>1.22</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU125" t="n">
         <v>1.42</v>
@@ -26478,7 +26478,7 @@
         <v>0.73</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT128" t="n">
         <v>0.87</v>
@@ -26887,7 +26887,7 @@
         <v>2.2</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU130" t="n">
         <v>1.73</v>
@@ -27090,7 +27090,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU131" t="n">
         <v>1.33</v>
@@ -27496,7 +27496,7 @@
         <v>1.67</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU133" t="n">
         <v>1.64</v>
@@ -27699,7 +27699,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -27899,7 +27899,7 @@
         <v>1.27</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT135" t="n">
         <v>1.4</v>
@@ -28102,7 +28102,7 @@
         <v>1.36</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT136" t="n">
         <v>1.25</v>
@@ -29120,7 +29120,7 @@
         <v>2.25</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU141" t="n">
         <v>1.75</v>
@@ -29320,7 +29320,7 @@
         <v>1.18</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT142" t="n">
         <v>1.5</v>
@@ -29523,7 +29523,7 @@
         <v>0.82</v>
       </c>
       <c r="AS143" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT143" t="n">
         <v>0.87</v>
@@ -29729,7 +29729,7 @@
         <v>1.56</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU144" t="n">
         <v>1.78</v>
@@ -30132,7 +30132,7 @@
         <v>1.17</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -30338,7 +30338,7 @@
         <v>1.56</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU147" t="n">
         <v>1.79</v>
@@ -30741,10 +30741,10 @@
         <v>2.25</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU149" t="n">
         <v>1.44</v>
@@ -30947,7 +30947,7 @@
         <v>1.88</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU150" t="n">
         <v>1.48</v>
@@ -31553,10 +31553,10 @@
         <v>2.15</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU153" t="n">
         <v>1.22</v>
@@ -32977,7 +32977,7 @@
         <v>2.2</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU160" t="n">
         <v>1.72</v>
@@ -33177,7 +33177,7 @@
         <v>0.62</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT161" t="n">
         <v>0.88</v>
@@ -33786,10 +33786,10 @@
         <v>1.38</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU164" t="n">
         <v>1.48</v>
@@ -34192,7 +34192,7 @@
         <v>1.21</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT166" t="n">
         <v>1.06</v>
@@ -34395,10 +34395,10 @@
         <v>1.33</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU167" t="n">
         <v>1.26</v>
@@ -34601,7 +34601,7 @@
         <v>1.56</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU168" t="n">
         <v>1.75</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT169" t="n">
         <v>0.87</v>
@@ -35207,7 +35207,7 @@
         <v>0.77</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT171" t="n">
         <v>0.87</v>
@@ -35616,7 +35616,7 @@
         <v>1.38</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -36022,7 +36022,7 @@
         <v>1.2</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU175" t="n">
         <v>1.65</v>
@@ -37698,6 +37698,818 @@
       </c>
       <c r="BK183" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5139672</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45193.08333333334</v>
+      </c>
+      <c r="F184" t="n">
+        <v>31</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2</v>
+      </c>
+      <c r="M184" t="n">
+        <v>3</v>
+      </c>
+      <c r="N184" t="n">
+        <v>5</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['68', '78']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['24', '55', '81']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>2</v>
+      </c>
+      <c r="R184" t="n">
+        <v>10</v>
+      </c>
+      <c r="S184" t="n">
+        <v>12</v>
+      </c>
+      <c r="T184" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5139673</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45193.08333333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>31</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>6</v>
+      </c>
+      <c r="R185" t="n">
+        <v>3</v>
+      </c>
+      <c r="S185" t="n">
+        <v>9</v>
+      </c>
+      <c r="T185" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U185" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5139674</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45193.1875</v>
+      </c>
+      <c r="F186" t="n">
+        <v>31</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>4</v>
+      </c>
+      <c r="R186" t="n">
+        <v>4</v>
+      </c>
+      <c r="S186" t="n">
+        <v>8</v>
+      </c>
+      <c r="T186" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5139675</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45193.29166666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>31</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>4</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" t="n">
+        <v>4</v>
+      </c>
+      <c r="T187" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ187"/>
+  <dimension ref="A1:AZ191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR14" t="n">
         <v>0.3</v>
@@ -3219,7 +3219,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR16" t="n">
         <v>1.2</v>
@@ -3389,7 +3389,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR17" t="n">
         <v>1.95</v>
@@ -3556,7 +3556,7 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.5</v>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.06</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.87</v>
@@ -4239,7 +4239,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR22" t="n">
         <v>2.03</v>
@@ -4916,7 +4916,7 @@
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.4</v>
@@ -5086,10 +5086,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR27" t="n">
         <v>2.23</v>
@@ -5429,7 +5429,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR29" t="n">
         <v>1.53</v>
@@ -5599,7 +5599,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR30" t="n">
         <v>1.82</v>
@@ -5939,7 +5939,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR32" t="n">
         <v>1.5</v>
@@ -6109,7 +6109,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR33" t="n">
         <v>1.41</v>
@@ -6276,7 +6276,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.5</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.47</v>
@@ -7126,10 +7126,10 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -7639,7 +7639,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR42" t="n">
         <v>1.51</v>
@@ -7979,7 +7979,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR44" t="n">
         <v>1.59</v>
@@ -8486,7 +8486,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.88</v>
@@ -8996,10 +8996,10 @@
         <v>2.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR50" t="n">
         <v>1.83</v>
@@ -9166,10 +9166,10 @@
         <v>0.25</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR51" t="n">
         <v>1.7</v>
@@ -9509,7 +9509,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR53" t="n">
         <v>1.13</v>
@@ -9676,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -9849,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR55" t="n">
         <v>1.55</v>
@@ -10019,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR56" t="n">
         <v>1.5</v>
@@ -10186,7 +10186,7 @@
         <v>0.75</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.87</v>
@@ -10526,7 +10526,7 @@
         <v>0.75</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.47</v>
@@ -10699,7 +10699,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR60" t="n">
         <v>1.59</v>
@@ -11039,7 +11039,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR62" t="n">
         <v>1.42</v>
@@ -11376,10 +11376,10 @@
         <v>0.2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR64" t="n">
         <v>1.66</v>
@@ -13076,7 +13076,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ74" t="n">
         <v>1</v>
@@ -13249,7 +13249,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR75" t="n">
         <v>1.94</v>
@@ -13419,7 +13419,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR76" t="n">
         <v>1.17</v>
@@ -13589,7 +13589,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR77" t="n">
         <v>1.49</v>
@@ -13756,7 +13756,7 @@
         <v>1.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.07</v>
@@ -14096,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.5</v>
@@ -14439,7 +14439,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR82" t="n">
         <v>1.49</v>
@@ -14779,7 +14779,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR84" t="n">
         <v>1.45</v>
@@ -14946,7 +14946,7 @@
         <v>0.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.88</v>
@@ -15119,7 +15119,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR86" t="n">
         <v>1.86</v>
@@ -15966,7 +15966,7 @@
         <v>1.14</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.07</v>
@@ -16136,10 +16136,10 @@
         <v>2.57</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR92" t="n">
         <v>1.54</v>
@@ -16989,7 +16989,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR97" t="n">
         <v>1.44</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR98" t="n">
         <v>1.43</v>
@@ -17326,7 +17326,7 @@
         <v>2.13</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.06</v>
@@ -17499,7 +17499,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR100" t="n">
         <v>1.86</v>
@@ -17666,10 +17666,10 @@
         <v>1.5</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR101" t="n">
         <v>1.48</v>
@@ -17836,10 +17836,10 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ102" t="n">
         <v>1.38</v>
-      </c>
-      <c r="AQ102" t="n">
-        <v>1.4</v>
       </c>
       <c r="AR102" t="n">
         <v>1.74</v>
@@ -19199,7 +19199,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR110" t="n">
         <v>1.33</v>
@@ -19709,7 +19709,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR113" t="n">
         <v>1.7</v>
@@ -19876,7 +19876,7 @@
         <v>1.22</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.4</v>
@@ -20216,7 +20216,7 @@
         <v>1.7</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.06</v>
@@ -20389,7 +20389,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR117" t="n">
         <v>1.4</v>
@@ -20729,7 +20729,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR119" t="n">
         <v>1.79</v>
@@ -20896,7 +20896,7 @@
         <v>0.63</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.88</v>
@@ -21066,7 +21066,7 @@
         <v>0.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.87</v>
@@ -21239,7 +21239,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR122" t="n">
         <v>1.71</v>
@@ -21576,10 +21576,10 @@
         <v>2.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ124" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR124" t="n">
         <v>1.78</v>
@@ -21916,10 +21916,10 @@
         <v>1.4</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR126" t="n">
         <v>1.47</v>
@@ -22089,7 +22089,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR127" t="n">
         <v>1.62</v>
@@ -23279,7 +23279,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ134" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR134" t="n">
         <v>1.35</v>
@@ -23449,7 +23449,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR135" t="n">
         <v>1.2</v>
@@ -23619,7 +23619,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR136" t="n">
         <v>1.73</v>
@@ -23786,7 +23786,7 @@
         <v>0.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.88</v>
@@ -23956,7 +23956,7 @@
         <v>1.55</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.06</v>
@@ -24126,7 +24126,7 @@
         <v>1.27</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ139" t="n">
         <v>1</v>
@@ -24466,7 +24466,7 @@
         <v>1.09</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.07</v>
@@ -24809,7 +24809,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR143" t="n">
         <v>1.2</v>
@@ -25149,7 +25149,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR145" t="n">
         <v>1.64</v>
@@ -25829,7 +25829,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR149" t="n">
         <v>1.44</v>
@@ -25996,7 +25996,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.47</v>
@@ -26336,10 +26336,10 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR152" t="n">
         <v>1.46</v>
@@ -26509,7 +26509,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ153" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR153" t="n">
         <v>1.22</v>
@@ -26849,7 +26849,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR155" t="n">
         <v>1.61</v>
@@ -27016,10 +27016,10 @@
         <v>1.23</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR156" t="n">
         <v>1.59</v>
@@ -27186,7 +27186,7 @@
         <v>1.33</v>
       </c>
       <c r="AP157" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.5</v>
@@ -27526,7 +27526,7 @@
         <v>1.31</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.5</v>
@@ -28039,7 +28039,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR162" t="n">
         <v>1.8</v>
@@ -28206,7 +28206,7 @@
         <v>1.08</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ163" t="n">
         <v>1</v>
@@ -28546,7 +28546,7 @@
         <v>1</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ165" t="n">
         <v>1</v>
@@ -29059,7 +29059,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ168" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR168" t="n">
         <v>1.75</v>
@@ -29229,7 +29229,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR169" t="n">
         <v>1.71</v>
@@ -29739,7 +29739,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR172" t="n">
         <v>1.33</v>
@@ -29906,7 +29906,7 @@
         <v>1.31</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.4</v>
@@ -30416,7 +30416,7 @@
         <v>0.71</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.87</v>
@@ -30586,7 +30586,7 @@
         <v>1.13</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.06</v>
@@ -30756,7 +30756,7 @@
         <v>0.93</v>
       </c>
       <c r="AP178" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.88</v>
@@ -31269,7 +31269,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR181" t="n">
         <v>1.39</v>
@@ -31439,7 +31439,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR182" t="n">
         <v>1.61</v>
@@ -31609,7 +31609,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR183" t="n">
         <v>1.62</v>
@@ -31779,7 +31779,7 @@
         <v>1</v>
       </c>
       <c r="AQ184" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR184" t="n">
         <v>1.51</v>
@@ -32317,6 +32317,686 @@
       </c>
       <c r="AZ187" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5139676</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45199.08333333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>32</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S188" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5139677</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45199.08333333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>32</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R189" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U189" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X189" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5139678</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45199.1875</v>
+      </c>
+      <c r="F190" t="n">
+        <v>32</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>3</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['1', '7', '58']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S190" t="n">
+        <v>4</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X190" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5139679</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45199.29166666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>32</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>2</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['20', '82']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S191" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X191" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ191"/>
+  <dimension ref="A1:AZ193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,7 +1179,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.88</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.94</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.35</v>
@@ -3559,7 +3559,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR18" t="n">
         <v>1.34</v>
@@ -4236,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.38</v>
@@ -5596,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.94</v>
@@ -6279,7 +6279,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR34" t="n">
         <v>1.91</v>
@@ -6786,7 +6786,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.06</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.47</v>
@@ -7809,7 +7809,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR43" t="n">
         <v>1.37</v>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.07</v>
@@ -9506,7 +9506,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.38</v>
@@ -10869,7 +10869,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -11546,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.4</v>
@@ -12399,7 +12399,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR70" t="n">
         <v>1.64</v>
@@ -12566,7 +12566,7 @@
         <v>1.2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.47</v>
@@ -13416,7 +13416,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.8100000000000001</v>
@@ -14099,7 +14099,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR80" t="n">
         <v>1.71</v>
@@ -14606,7 +14606,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.4</v>
@@ -15116,7 +15116,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.8100000000000001</v>
@@ -15629,7 +15629,7 @@
         <v>1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR89" t="n">
         <v>1.48</v>
@@ -16476,7 +16476,7 @@
         <v>0.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.87</v>
@@ -18006,7 +18006,7 @@
         <v>1.13</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -18519,7 +18519,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR106" t="n">
         <v>1.63</v>
@@ -18686,7 +18686,7 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.07</v>
@@ -19366,7 +19366,7 @@
         <v>1.33</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ111" t="n">
         <v>1</v>
@@ -21236,7 +21236,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.35</v>
@@ -21406,10 +21406,10 @@
         <v>1.22</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR123" t="n">
         <v>1.21</v>
@@ -22426,10 +22426,10 @@
         <v>1.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR129" t="n">
         <v>1.68</v>
@@ -23446,7 +23446,7 @@
         <v>1.27</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.38</v>
@@ -24639,7 +24639,7 @@
         <v>1</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR142" t="n">
         <v>1.46</v>
@@ -24806,7 +24806,7 @@
         <v>0.82</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.8100000000000001</v>
@@ -26166,7 +26166,7 @@
         <v>0.75</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.87</v>
@@ -26506,7 +26506,7 @@
         <v>2.15</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.94</v>
@@ -26676,7 +26676,7 @@
         <v>0.67</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.88</v>
@@ -27189,7 +27189,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR157" t="n">
         <v>1.75</v>
@@ -27529,7 +27529,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR159" t="n">
         <v>1.58</v>
@@ -27866,7 +27866,7 @@
         <v>0.62</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.88</v>
@@ -28886,7 +28886,7 @@
         <v>1.33</v>
       </c>
       <c r="AP167" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.4</v>
@@ -30079,7 +30079,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR174" t="n">
         <v>1.71</v>
@@ -30246,7 +30246,7 @@
         <v>0.92</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.07</v>
@@ -31099,7 +31099,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR180" t="n">
         <v>1.78</v>
@@ -31606,7 +31606,7 @@
         <v>1.29</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.38</v>
@@ -32116,7 +32116,7 @@
         <v>1.5</v>
       </c>
       <c r="AP186" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.47</v>
@@ -32997,6 +32997,346 @@
       </c>
       <c r="AZ191" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5139680</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45200.08333333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>32</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U192" t="n">
+        <v>3</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X192" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5139681</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45200.1875</v>
+      </c>
+      <c r="F193" t="n">
+        <v>32</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>3</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['65', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X193" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.59</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.38</v>
@@ -3750,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR15" t="n">
         <v>1.61</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.94</v>
@@ -4625,7 +4625,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>2.72</v>
@@ -4843,7 +4843,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR20" t="n">
         <v>1.91</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR21" t="n">
         <v>1.25</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR23" t="n">
         <v>1.42</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.88</v>
@@ -6151,7 +6151,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.88</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.38</v>
@@ -7238,10 +7238,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR31" t="n">
         <v>1.68</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.8100000000000001</v>
@@ -7674,7 +7674,7 @@
         <v>0.67</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.35</v>
@@ -8331,7 +8331,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR36" t="n">
         <v>1.35</v>
@@ -8549,7 +8549,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>1.09</v>
@@ -8764,10 +8764,10 @@
         <v>1.33</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR38" t="n">
         <v>1.57</v>
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR40" t="n">
         <v>1.41</v>
@@ -9421,7 +9421,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR41" t="n">
         <v>1.19</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.94</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.59</v>
@@ -10072,7 +10072,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.8100000000000001</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10508,10 +10508,10 @@
         <v>2.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR46" t="n">
         <v>1.37</v>
@@ -10944,10 +10944,10 @@
         <v>0.67</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR48" t="n">
         <v>1.9</v>
@@ -11165,7 +11165,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR49" t="n">
         <v>1.84</v>
@@ -11816,10 +11816,10 @@
         <v>1.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR52" t="n">
         <v>1.88</v>
@@ -12909,7 +12909,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR57" t="n">
         <v>1.37</v>
@@ -13124,10 +13124,10 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.47</v>
@@ -13345,7 +13345,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR59" t="n">
         <v>1.64</v>
@@ -13560,7 +13560,7 @@
         <v>0.6</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.35</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.59</v>
@@ -13996,7 +13996,7 @@
         <v>2.4</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.94</v>
@@ -14214,10 +14214,10 @@
         <v>0.75</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR63" t="n">
         <v>1.63</v>
@@ -14653,7 +14653,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR65" t="n">
         <v>1.82</v>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR66" t="n">
         <v>1.41</v>
@@ -15086,7 +15086,7 @@
         <v>1.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR68" t="n">
         <v>1.49</v>
@@ -15522,10 +15522,10 @@
         <v>1.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR69" t="n">
         <v>1.42</v>
@@ -15740,7 +15740,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.59</v>
@@ -15961,7 +15961,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR71" t="n">
         <v>1.79</v>
@@ -16176,10 +16176,10 @@
         <v>0.8</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR72" t="n">
         <v>1.54</v>
@@ -16394,7 +16394,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.88</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.35</v>
@@ -17266,7 +17266,7 @@
         <v>1.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.38</v>
@@ -17487,7 +17487,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR78" t="n">
         <v>1.73</v>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.46</v>
@@ -18138,10 +18138,10 @@
         <v>2.29</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR81" t="n">
         <v>1.7</v>
@@ -18356,7 +18356,7 @@
         <v>1.29</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.35</v>
@@ -18577,7 +18577,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR83" t="n">
         <v>1.22</v>
@@ -18792,7 +18792,7 @@
         <v>2.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.94</v>
@@ -19446,10 +19446,10 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR87" t="n">
         <v>1.37</v>
@@ -19664,10 +19664,10 @@
         <v>0.86</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR88" t="n">
         <v>1.74</v>
@@ -20100,7 +20100,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ90" t="n">
         <v>1</v>
@@ -20321,7 +20321,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR91" t="n">
         <v>1.6</v>
@@ -20754,7 +20754,7 @@
         <v>0.33</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.88</v>
@@ -20975,7 +20975,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR94" t="n">
         <v>1.78</v>
@@ -21190,10 +21190,10 @@
         <v>1.43</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR95" t="n">
         <v>1.9</v>
@@ -21408,10 +21408,10 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR96" t="n">
         <v>1.62</v>
@@ -21626,7 +21626,7 @@
         <v>1.43</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.38</v>
@@ -22065,7 +22065,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR99" t="n">
         <v>1.68</v>
@@ -22280,7 +22280,7 @@
         <v>0.88</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.8100000000000001</v>
@@ -23152,7 +23152,7 @@
         <v>0.71</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.88</v>
@@ -23370,10 +23370,10 @@
         <v>1.89</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR105" t="n">
         <v>1.7</v>
@@ -23588,7 +23588,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.59</v>
@@ -23809,7 +23809,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR107" t="n">
         <v>1.23</v>
@@ -24024,10 +24024,10 @@
         <v>1.25</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR108" t="n">
         <v>1.76</v>
@@ -24242,10 +24242,10 @@
         <v>1.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR109" t="n">
         <v>1.41</v>
@@ -24460,7 +24460,7 @@
         <v>1.22</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.38</v>
@@ -24896,10 +24896,10 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR112" t="n">
         <v>1.81</v>
@@ -25114,7 +25114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.35</v>
@@ -25335,7 +25335,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR114" t="n">
         <v>1.67</v>
@@ -25553,7 +25553,7 @@
         <v>1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR115" t="n">
         <v>1.41</v>
@@ -25771,7 +25771,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR116" t="n">
         <v>1.45</v>
@@ -25986,7 +25986,7 @@
         <v>0.78</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.8100000000000001</v>
@@ -26204,7 +26204,7 @@
         <v>1.3</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118" t="n">
         <v>1</v>
@@ -26422,7 +26422,7 @@
         <v>2.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.94</v>
@@ -26861,7 +26861,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR121" t="n">
         <v>1.68</v>
@@ -27733,7 +27733,7 @@
         <v>1</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -28166,7 +28166,7 @@
         <v>0.8</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.8100000000000001</v>
@@ -28384,10 +28384,10 @@
         <v>0.73</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR128" t="n">
         <v>1.42</v>
@@ -28820,10 +28820,10 @@
         <v>1.2</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR130" t="n">
         <v>1.73</v>
@@ -29038,10 +29038,10 @@
         <v>1.4</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR131" t="n">
         <v>1.33</v>
@@ -29256,7 +29256,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.88</v>
@@ -29474,10 +29474,10 @@
         <v>1.1</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR133" t="n">
         <v>1.64</v>
@@ -29692,7 +29692,7 @@
         <v>2.45</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.94</v>
@@ -30128,7 +30128,7 @@
         <v>1.36</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.35</v>
@@ -30567,7 +30567,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR138" t="n">
         <v>1.77</v>
@@ -31000,10 +31000,10 @@
         <v>1.42</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR140" t="n">
         <v>1.73</v>
@@ -31221,7 +31221,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR141" t="n">
         <v>1.75</v>
@@ -31872,10 +31872,10 @@
         <v>1.36</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR144" t="n">
         <v>1.78</v>
@@ -32090,7 +32090,7 @@
         <v>1.33</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.35</v>
@@ -32308,7 +32308,7 @@
         <v>1.17</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ146" t="n">
         <v>1</v>
@@ -32526,10 +32526,10 @@
         <v>1.36</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR147" t="n">
         <v>1.79</v>
@@ -32744,7 +32744,7 @@
         <v>0.45</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.88</v>
@@ -32962,7 +32962,7 @@
         <v>2.25</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.94</v>
@@ -33183,7 +33183,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR150" t="n">
         <v>1.48</v>
@@ -33401,7 +33401,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR151" t="n">
         <v>1.62</v>
@@ -34270,7 +34270,7 @@
         <v>1.25</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.38</v>
@@ -34924,10 +34924,10 @@
         <v>1.31</v>
       </c>
       <c r="AP158" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR158" t="n">
         <v>1.33</v>
@@ -35360,10 +35360,10 @@
         <v>1</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR160" t="n">
         <v>1.72</v>
@@ -35796,7 +35796,7 @@
         <v>1.14</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.35</v>
@@ -36235,7 +36235,7 @@
         <v>1</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR164" t="n">
         <v>1.48</v>
@@ -36668,10 +36668,10 @@
         <v>1.21</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR166" t="n">
         <v>1.39</v>
@@ -36889,7 +36889,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR167" t="n">
         <v>1.26</v>
@@ -37104,7 +37104,7 @@
         <v>2</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.94</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.8100000000000001</v>
@@ -37540,7 +37540,7 @@
         <v>0.79</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.88</v>
@@ -37758,10 +37758,10 @@
         <v>0.77</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR171" t="n">
         <v>1.44</v>
@@ -37976,7 +37976,7 @@
         <v>1.15</v>
       </c>
       <c r="AP172" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.38</v>
@@ -38197,7 +38197,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR173" t="n">
         <v>1.53</v>
@@ -38412,7 +38412,7 @@
         <v>1.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.59</v>
@@ -38633,7 +38633,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR175" t="n">
         <v>1.65</v>
@@ -38851,7 +38851,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR176" t="n">
         <v>1.46</v>
@@ -39069,7 +39069,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR177" t="n">
         <v>1.51</v>
@@ -39502,7 +39502,7 @@
         <v>1</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ179" t="n">
         <v>1</v>
@@ -39720,7 +39720,7 @@
         <v>1.4</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.59</v>
@@ -39938,7 +39938,7 @@
         <v>1.13</v>
       </c>
       <c r="AP181" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.35</v>
@@ -40156,7 +40156,7 @@
         <v>0.93</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.8100000000000001</v>
@@ -40810,10 +40810,10 @@
         <v>0.93</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR185" t="n">
         <v>1.75</v>
@@ -41031,7 +41031,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR186" t="n">
         <v>1.23</v>
@@ -41246,10 +41246,10 @@
         <v>1.43</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR187" t="n">
         <v>1.44</v>
@@ -42632,6 +42632,1314 @@
         <v>5.5</v>
       </c>
       <c r="BP193" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5139682</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45207.125</v>
+      </c>
+      <c r="F194" t="n">
+        <v>33</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S194" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X194" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5139683</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45207.125</v>
+      </c>
+      <c r="F195" t="n">
+        <v>33</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" t="n">
+        <v>4</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['31', '70']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['45+1', '67']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S195" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X195" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL195" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP195" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5139684</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45207.125</v>
+      </c>
+      <c r="F196" t="n">
+        <v>33</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2</v>
+      </c>
+      <c r="N196" t="n">
+        <v>2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['60', '75']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U196" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X196" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL196" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP196" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5139685</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45207.125</v>
+      </c>
+      <c r="F197" t="n">
+        <v>33</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>4</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X197" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP197" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5139686</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45207.125</v>
+      </c>
+      <c r="F198" t="n">
+        <v>33</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S198" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X198" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BL198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BN198" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BO198" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="BP198" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5139687</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45207.125</v>
+      </c>
+      <c r="F199" t="n">
+        <v>33</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S199" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X199" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BL199" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BN199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO199" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BP199" t="n">
         <v>1.14</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -42906,7 +42906,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>['31', '70']</t>
+          <t>['30', '70']</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -43011,13 +43011,13 @@
         <v>4</v>
       </c>
       <c r="AW195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX195" t="n">
         <v>4</v>
       </c>
       <c r="AY195" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ195" t="n">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -3400,7 +3400,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5139498</v>
+        <v>5139499</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3420,62 +3420,62 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Suwon</t>
+          <t>Daejeon Citizen</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Suwon Bluewings</t>
+          <t>Pohang Steelers</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['41', '53']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>['69']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
-        <v>3.37</v>
+        <v>2.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U14" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
         <v>7.5</v>
@@ -3484,13 +3484,13 @@
         <v>1.07</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.86</v>
+        <v>3.68</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.22</v>
+        <v>3.61</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.64</v>
+        <v>2.03</v>
       </c>
       <c r="AC14" t="n">
         <v>1.07</v>
@@ -3499,61 +3499,61 @@
         <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN14" t="n">
         <v>3</v>
       </c>
-      <c r="AG14" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.3</v>
+        <v>1.61</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.91</v>
+        <v>0.42</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.21</v>
+        <v>2.03</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
         <v>2</v>
@@ -3562,25 +3562,25 @@
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.33</v>
+        <v>2.78</v>
       </c>
       <c r="BE14" t="n">
         <v>7.5</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="BG14" t="n">
         <v>1.48</v>
@@ -3618,7 +3618,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5139499</v>
+        <v>5139498</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3638,62 +3638,62 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Daejeon Citizen</t>
+          <t>Suwon</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pohang Steelers</t>
+          <t>Suwon Bluewings</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['41', '53']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['69']</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>2.55</v>
+        <v>3.37</v>
       </c>
       <c r="T15" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U15" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="V15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X15" t="n">
         <v>7.5</v>
@@ -3702,13 +3702,13 @@
         <v>1.07</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.68</v>
+        <v>2.86</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.61</v>
+        <v>3.22</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.03</v>
+        <v>2.64</v>
       </c>
       <c r="AC15" t="n">
         <v>1.07</v>
@@ -3717,61 +3717,61 @@
         <v>7.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.31</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.61</v>
+        <v>0.3</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.42</v>
+        <v>1.91</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.03</v>
+        <v>2.21</v>
       </c>
       <c r="AU15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV15" t="n">
         <v>6</v>
       </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
       <c r="AW15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
         <v>2</v>
@@ -3780,25 +3780,25 @@
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BA15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB15" t="n">
         <v>5</v>
       </c>
-      <c r="BB15" t="n">
-        <v>1</v>
-      </c>
       <c r="BC15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD15" t="n">
-        <v>2.78</v>
+        <v>2.33</v>
       </c>
       <c r="BE15" t="n">
         <v>7.5</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="BG15" t="n">
         <v>1.48</v>
@@ -11248,7 +11248,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>5139535</v>
+        <v>5139534</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -11268,197 +11268,197 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Incheon United</t>
+          <t>Pohang Steelers</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Suwon Bluewings</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>1</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>['10']</t>
-        </is>
-      </c>
       <c r="Q50" t="n">
-        <v>4.44</v>
+        <v>2.55</v>
       </c>
       <c r="R50" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>2.65</v>
+        <v>4.7</v>
       </c>
       <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE50" t="n">
         <v>1.4</v>
       </c>
-      <c r="U50" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="V50" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X50" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE50" t="n">
+      <c r="AF50" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG50" t="n">
         <v>1.38</v>
       </c>
-      <c r="AF50" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>1.41</v>
-      </c>
       <c r="BH50" t="n">
-        <v>2.69</v>
+        <v>2.9</v>
       </c>
       <c r="BI50" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="BJ50" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BK50" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="BL50" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="BM50" t="n">
-        <v>3.04</v>
+        <v>2.85</v>
       </c>
       <c r="BN50" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="BO50" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="BP50" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="51">
@@ -11466,7 +11466,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>5139534</v>
+        <v>5139535</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -11486,197 +11486,197 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pohang Steelers</t>
+          <t>Incheon United</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Suwon Bluewings</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
         <v>1</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>2.55</v>
+        <v>4.44</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="S51" t="n">
-        <v>4.7</v>
+        <v>2.65</v>
       </c>
       <c r="T51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X51" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN51" t="n">
         <v>1.5</v>
       </c>
-      <c r="U51" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="V51" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X51" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>2</v>
-      </c>
       <c r="AO51" t="n">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.94</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AT51" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="AU51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW51" t="n">
         <v>2</v>
       </c>
       <c r="AX51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB51" t="n">
         <v>4</v>
       </c>
-      <c r="AY51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>5</v>
-      </c>
       <c r="BC51" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD51" t="n">
-        <v>1.55</v>
+        <v>2.62</v>
       </c>
       <c r="BE51" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="BF51" t="n">
-        <v>3.5</v>
+        <v>1.68</v>
       </c>
       <c r="BG51" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="BH51" t="n">
-        <v>2.9</v>
+        <v>2.69</v>
       </c>
       <c r="BI51" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="BJ51" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BK51" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="BL51" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="BM51" t="n">
-        <v>2.85</v>
+        <v>3.04</v>
       </c>
       <c r="BN51" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="BO51" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="BP51" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="52">
@@ -13864,7 +13864,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>5139547</v>
+        <v>5139546</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -13884,62 +13884,62 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>FC Seoul</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Jeonbuk Motors</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['78']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>['12', '39', '41']</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="R62" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S62" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="U62" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V62" t="n">
-        <v>2.75</v>
+        <v>3.29</v>
       </c>
       <c r="W62" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X62" t="n">
         <v>7</v>
@@ -13948,31 +13948,31 @@
         <v>1.08</v>
       </c>
       <c r="Z62" t="n">
-        <v>6.16</v>
+        <v>3.89</v>
       </c>
       <c r="AA62" t="n">
-        <v>2.94</v>
+        <v>2.55</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.65</v>
+        <v>2.18</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD62" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF62" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AG62" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AI62" t="n">
         <v>1.8</v>
@@ -13981,46 +13981,46 @@
         <v>1.95</v>
       </c>
       <c r="AK62" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AL62" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM62" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="AN62" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AO62" t="n">
-        <v>2.4</v>
+        <v>0.75</v>
       </c>
       <c r="AP62" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR62" t="n">
         <v>1.63</v>
       </c>
-      <c r="AQ62" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AS62" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.96</v>
+        <v>3.16</v>
       </c>
       <c r="AU62" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV62" t="n">
         <v>4</v>
       </c>
-      <c r="AV62" t="n">
+      <c r="AW62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX62" t="n">
         <v>5</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>4</v>
       </c>
       <c r="AY62" t="n">
         <v>13</v>
@@ -14029,52 +14029,52 @@
         <v>9</v>
       </c>
       <c r="BA62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC62" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BD62" t="n">
-        <v>2.66</v>
+        <v>1.64</v>
       </c>
       <c r="BE62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF62" t="n">
-        <v>1.69</v>
+        <v>2.77</v>
       </c>
       <c r="BG62" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BH62" t="n">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="BI62" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BJ62" t="n">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="BK62" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="BL62" t="n">
         <v>1.7</v>
       </c>
       <c r="BM62" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="BN62" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="BO62" t="n">
-        <v>3.74</v>
+        <v>4.1</v>
       </c>
       <c r="BP62" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="63">
@@ -14082,7 +14082,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>5139546</v>
+        <v>5139547</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -14102,62 +14102,62 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>FC Seoul</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Jeonbuk Motors</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['78']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>['12', '39', '41']</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S63" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="T63" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="U63" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V63" t="n">
-        <v>3.29</v>
+        <v>2.75</v>
       </c>
       <c r="W63" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X63" t="n">
         <v>7</v>
@@ -14166,31 +14166,31 @@
         <v>1.08</v>
       </c>
       <c r="Z63" t="n">
-        <v>3.89</v>
+        <v>6.16</v>
       </c>
       <c r="AA63" t="n">
-        <v>2.55</v>
+        <v>2.94</v>
       </c>
       <c r="AB63" t="n">
-        <v>2.18</v>
+        <v>1.65</v>
       </c>
       <c r="AC63" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE63" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF63" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AG63" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AH63" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AI63" t="n">
         <v>1.8</v>
@@ -14199,46 +14199,46 @@
         <v>1.95</v>
       </c>
       <c r="AK63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR63" t="n">
         <v>1.42</v>
       </c>
-      <c r="AL63" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AS63" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AT63" t="n">
-        <v>3.16</v>
+        <v>2.96</v>
       </c>
       <c r="AU63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX63" t="n">
         <v>4</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>5</v>
       </c>
       <c r="AY63" t="n">
         <v>13</v>
@@ -14247,52 +14247,52 @@
         <v>9</v>
       </c>
       <c r="BA63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC63" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BD63" t="n">
-        <v>1.64</v>
+        <v>2.66</v>
       </c>
       <c r="BE63" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF63" t="n">
-        <v>2.77</v>
+        <v>1.69</v>
       </c>
       <c r="BG63" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="BH63" t="n">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="BI63" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BJ63" t="n">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="BK63" t="n">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="BL63" t="n">
         <v>1.7</v>
       </c>
       <c r="BM63" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="BN63" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="BO63" t="n">
-        <v>4.1</v>
+        <v>3.74</v>
       </c>
       <c r="BP63" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="64">
@@ -15826,7 +15826,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>5139555</v>
+        <v>5139557</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -15846,12 +15846,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Jeju United</t>
+          <t>Daejeon Citizen</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Incheon United</t>
+          <t>Suwon</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -15867,83 +15867,83 @@
         <v>2</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['18', '90']</t>
+          <t>['16', '56']</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S71" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T71" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="U71" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="V71" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="W71" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="X71" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z71" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ71" t="n">
         <v>2.15</v>
       </c>
-      <c r="AA71" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>1.87</v>
-      </c>
       <c r="AK71" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AL71" t="n">
         <v>1.25</v>
@@ -15952,85 +15952,85 @@
         <v>1.68</v>
       </c>
       <c r="AN71" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AO71" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.44</v>
+        <v>0.88</v>
       </c>
       <c r="AR71" t="n">
-        <v>1.79</v>
+        <v>1.42</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.13</v>
+        <v>2.68</v>
       </c>
       <c r="AU71" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA71" t="n">
         <v>4</v>
       </c>
-      <c r="AW71" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>5</v>
-      </c>
       <c r="BB71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC71" t="n">
         <v>8</v>
       </c>
       <c r="BD71" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="BE71" t="n">
         <v>8</v>
       </c>
       <c r="BF71" t="n">
-        <v>2.92</v>
+        <v>3.17</v>
       </c>
       <c r="BG71" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="BH71" t="n">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="BI71" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="BJ71" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="BK71" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="BL71" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="BM71" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BN71" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="BO71" t="n">
         <v>3.64</v>
@@ -16262,7 +16262,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>5139557</v>
+        <v>5139555</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -16282,12 +16282,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Daejeon Citizen</t>
+          <t>Jeju United</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Suwon</t>
+          <t>Incheon United</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -16303,83 +16303,83 @@
         <v>2</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['18', '90']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V73" t="n">
         <v>3</v>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>['16', '56']</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>['61']</t>
-        </is>
-      </c>
-      <c r="Q73" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S73" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T73" t="n">
+      <c r="W73" t="n">
         <v>1.36</v>
       </c>
-      <c r="U73" t="n">
-        <v>3</v>
-      </c>
-      <c r="V73" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X73" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="AA73" t="n">
-        <v>3.64</v>
+        <v>3.42</v>
       </c>
       <c r="AB73" t="n">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="AC73" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AD73" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK73" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>1.28</v>
       </c>
       <c r="AL73" t="n">
         <v>1.25</v>
@@ -16388,85 +16388,85 @@
         <v>1.68</v>
       </c>
       <c r="AN73" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AO73" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.88</v>
+        <v>1.44</v>
       </c>
       <c r="AR73" t="n">
-        <v>1.42</v>
+        <v>1.79</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.68</v>
+        <v>3.13</v>
       </c>
       <c r="AU73" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW73" t="n">
         <v>8</v>
       </c>
-      <c r="AW73" t="n">
+      <c r="AX73" t="n">
         <v>6</v>
       </c>
-      <c r="AX73" t="n">
-        <v>11</v>
-      </c>
       <c r="AY73" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ73" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BA73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC73" t="n">
         <v>8</v>
       </c>
       <c r="BD73" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="BE73" t="n">
         <v>8</v>
       </c>
       <c r="BF73" t="n">
-        <v>3.17</v>
+        <v>2.92</v>
       </c>
       <c r="BG73" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="BH73" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="BI73" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="BJ73" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="BK73" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="BL73" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="BM73" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BN73" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="BO73" t="n">
         <v>3.64</v>
@@ -31522,7 +31522,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>5139631</v>
+        <v>5139632</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -31542,197 +31542,197 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>FC Seoul</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Suwon Bluewings</t>
+          <t>Incheon United</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>['41']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>['23', '60']</t>
+          <t>['45']</t>
         </is>
       </c>
       <c r="Q143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S143" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF143" t="n">
         <v>3.2</v>
       </c>
-      <c r="R143" t="n">
-        <v>2</v>
-      </c>
-      <c r="S143" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T143" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U143" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="V143" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="W143" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X143" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y143" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z143" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA143" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AB143" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AC143" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD143" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE143" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF143" t="n">
-        <v>2.9</v>
-      </c>
       <c r="AG143" t="n">
-        <v>2.33</v>
+        <v>2.02</v>
       </c>
       <c r="AH143" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="AI143" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AJ143" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AK143" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AL143" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM143" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ143" t="n">
         <v>1.44</v>
       </c>
-      <c r="AN143" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AO143" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AP143" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AQ143" t="n">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="AR143" t="n">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.53</v>
+        <v>3.08</v>
       </c>
       <c r="AU143" t="n">
         <v>5</v>
       </c>
       <c r="AV143" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW143" t="n">
         <v>5</v>
       </c>
       <c r="AX143" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY143" t="n">
         <v>10</v>
       </c>
       <c r="AZ143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA143" t="n">
         <v>8</v>
       </c>
       <c r="BB143" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC143" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD143" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="BE143" t="n">
         <v>8</v>
       </c>
       <c r="BF143" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BG143" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="BH143" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="BI143" t="n">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="BJ143" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="BK143" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BL143" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="BM143" t="n">
-        <v>3.08</v>
+        <v>2.49</v>
       </c>
       <c r="BN143" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="BO143" t="n">
-        <v>4.4</v>
+        <v>3.34</v>
       </c>
       <c r="BP143" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="144">
@@ -31740,7 +31740,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>5139632</v>
+        <v>5139631</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -31760,197 +31760,197 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>FC Seoul</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Incheon United</t>
+          <t>Suwon Bluewings</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['41']</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>['45']</t>
+          <t>['23', '60']</t>
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R144" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S144" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="T144" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="U144" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="V144" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="W144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X144" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE144" t="n">
         <v>1.38</v>
       </c>
-      <c r="X144" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y144" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z144" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AA144" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AB144" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AC144" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD144" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE144" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AF144" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AG144" t="n">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="AH144" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AI144" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AJ144" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AK144" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AL144" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM144" t="n">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="AN144" t="n">
-        <v>2</v>
+        <v>0.64</v>
       </c>
       <c r="AO144" t="n">
-        <v>1.36</v>
+        <v>0.82</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.47</v>
+        <v>0.76</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.44</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR144" t="n">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT144" t="n">
-        <v>3.08</v>
+        <v>2.53</v>
       </c>
       <c r="AU144" t="n">
         <v>5</v>
       </c>
       <c r="AV144" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW144" t="n">
         <v>5</v>
       </c>
       <c r="AX144" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY144" t="n">
         <v>10</v>
       </c>
       <c r="AZ144" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA144" t="n">
         <v>8</v>
       </c>
       <c r="BB144" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC144" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD144" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="BE144" t="n">
         <v>8</v>
       </c>
       <c r="BF144" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BG144" t="n">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="BH144" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="BI144" t="n">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="BJ144" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="BK144" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BL144" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="BM144" t="n">
-        <v>2.49</v>
+        <v>3.08</v>
       </c>
       <c r="BN144" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="BO144" t="n">
-        <v>3.34</v>
+        <v>4.4</v>
       </c>
       <c r="BP144" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="145">
@@ -34792,7 +34792,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>5139646</v>
+        <v>5139647</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -34812,12 +34812,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Suwon Bluewings</t>
+          <t>Incheon United</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Jeju United</t>
+          <t>Gwangju</t>
         </is>
       </c>
       <c r="I158" t="n">
@@ -34830,179 +34830,179 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N158" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['50', '60']</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['79', '90+3']</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R158" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S158" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="T158" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="U158" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V158" t="n">
         <v>3</v>
       </c>
-      <c r="V158" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W158" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="X158" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y158" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z158" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="AA158" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AB158" t="n">
-        <v>2.16</v>
+        <v>3</v>
       </c>
       <c r="AC158" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AD158" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE158" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AF158" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AG158" t="n">
-        <v>1.92</v>
+        <v>2.27</v>
       </c>
       <c r="AH158" t="n">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="AI158" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AJ158" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AK158" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="AL158" t="n">
         <v>1.3</v>
       </c>
       <c r="AM158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN158" t="n">
         <v>1.38</v>
-      </c>
-      <c r="AN158" t="n">
-        <v>0.46</v>
       </c>
       <c r="AO158" t="n">
         <v>1.31</v>
       </c>
       <c r="AP158" t="n">
-        <v>0.71</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1</v>
+        <v>1.59</v>
       </c>
       <c r="AR158" t="n">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="AT158" t="n">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="AU158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY158" t="n">
         <v>7</v>
       </c>
-      <c r="AV158" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW158" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX158" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY158" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ158" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA158" t="n">
         <v>3</v>
       </c>
       <c r="BB158" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC158" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD158" t="n">
-        <v>2.77</v>
+        <v>1.85</v>
       </c>
       <c r="BE158" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF158" t="n">
-        <v>1.64</v>
+        <v>2.29</v>
       </c>
       <c r="BG158" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="BH158" t="n">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="BI158" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="BJ158" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="BK158" t="n">
-        <v>2.53</v>
+        <v>2.42</v>
       </c>
       <c r="BL158" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BM158" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="BN158" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="BO158" t="n">
-        <v>4.3</v>
+        <v>4.95</v>
       </c>
       <c r="BP158" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="159">
@@ -35010,7 +35010,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>5139647</v>
+        <v>5139646</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -35030,12 +35030,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Incheon United</t>
+          <t>Suwon Bluewings</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Gwangju</t>
+          <t>Jeju United</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -35048,179 +35048,179 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>['50', '60']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>['79', '90+3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R159" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U159" t="n">
+        <v>3</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA159" t="n">
         <v>3.3</v>
       </c>
-      <c r="T159" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U159" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="V159" t="n">
-        <v>3</v>
-      </c>
-      <c r="W159" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X159" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y159" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z159" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA159" t="n">
-        <v>3</v>
-      </c>
       <c r="AB159" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="AC159" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AD159" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE159" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AF159" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AG159" t="n">
-        <v>2.27</v>
+        <v>1.92</v>
       </c>
       <c r="AH159" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="AI159" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AJ159" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AK159" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="AL159" t="n">
         <v>1.3</v>
       </c>
       <c r="AM159" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AN159" t="n">
-        <v>1.38</v>
+        <v>0.46</v>
       </c>
       <c r="AO159" t="n">
         <v>1.31</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.47</v>
+        <v>0.71</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.59</v>
+        <v>1</v>
       </c>
       <c r="AR159" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.93</v>
+        <v>3.01</v>
       </c>
       <c r="AU159" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV159" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX159" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY159" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ159" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA159" t="n">
         <v>3</v>
       </c>
       <c r="BB159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE159" t="n">
         <v>8</v>
       </c>
-      <c r="BC159" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD159" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BE159" t="n">
-        <v>7.5</v>
-      </c>
       <c r="BF159" t="n">
-        <v>2.29</v>
+        <v>1.64</v>
       </c>
       <c r="BG159" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BH159" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="BI159" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="BJ159" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="BK159" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="BL159" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="BM159" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="BN159" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="BO159" t="n">
-        <v>4.95</v>
+        <v>4.3</v>
       </c>
       <c r="BP159" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="160">
@@ -43877,22 +43877,22 @@
         <v>3.28</v>
       </c>
       <c r="AU199" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV199" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW199" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX199" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY199" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ199" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA199" t="n">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.35</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.8100000000000001</v>
@@ -5061,7 +5061,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR21" t="n">
         <v>1.25</v>
@@ -7892,7 +7892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.59</v>
@@ -8331,7 +8331,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR36" t="n">
         <v>1.35</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.38</v>
@@ -9421,7 +9421,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR41" t="n">
         <v>1.19</v>
@@ -11380,7 +11380,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.8100000000000001</v>
@@ -13342,10 +13342,10 @@
         <v>0.75</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR59" t="n">
         <v>1.64</v>
@@ -16397,7 +16397,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR73" t="n">
         <v>1.79</v>
@@ -16612,7 +16612,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ74" t="n">
         <v>1</v>
@@ -19449,7 +19449,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR87" t="n">
         <v>1.37</v>
@@ -20318,7 +20318,7 @@
         <v>1.14</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.19</v>
@@ -21411,7 +21411,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR96" t="n">
         <v>1.62</v>
@@ -22062,7 +22062,7 @@
         <v>2.13</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ99" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR109" t="n">
         <v>1.41</v>
@@ -26640,7 +26640,7 @@
         <v>0.63</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.88</v>
@@ -27512,7 +27512,7 @@
         <v>2.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.94</v>
@@ -27733,7 +27733,7 @@
         <v>1</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -28823,7 +28823,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR130" t="n">
         <v>1.73</v>
@@ -30564,7 +30564,7 @@
         <v>1.55</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ138" t="n">
         <v>1</v>
@@ -31218,7 +31218,7 @@
         <v>1.09</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.19</v>
@@ -31657,7 +31657,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR143" t="n">
         <v>1.78</v>
@@ -33183,7 +33183,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR150" t="n">
         <v>1.48</v>
@@ -34706,7 +34706,7 @@
         <v>1.33</v>
       </c>
       <c r="AP157" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.59</v>
@@ -36014,7 +36014,7 @@
         <v>1.08</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ163" t="n">
         <v>1</v>
@@ -36235,7 +36235,7 @@
         <v>1</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR164" t="n">
         <v>1.48</v>
@@ -39284,7 +39284,7 @@
         <v>0.93</v>
       </c>
       <c r="AP178" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.88</v>
@@ -41031,7 +41031,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR186" t="n">
         <v>1.23</v>
@@ -41464,7 +41464,7 @@
         <v>2</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.94</v>
@@ -42775,7 +42775,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR194" t="n">
         <v>1.7</v>
@@ -43941,6 +43941,224 @@
       </c>
       <c r="BP199" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>7237358</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45219.3125</v>
+      </c>
+      <c r="F200" t="n">
+        <v>34</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S200" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X200" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL200" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO200" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BP200" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.41</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.38</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.31</v>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR15" t="n">
         <v>0.3</v>
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR17" t="n">
         <v>1.95</v>
@@ -4843,7 +4843,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR20" t="n">
         <v>1.91</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.41</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.38</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR23" t="n">
         <v>1.42</v>
@@ -5933,7 +5933,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR25" t="n">
         <v>0.91</v>
@@ -6584,10 +6584,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR28" t="n">
         <v>1.82</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.38</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR30" t="n">
         <v>1.82</v>
@@ -7241,7 +7241,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR31" t="n">
         <v>1.68</v>
@@ -7459,7 +7459,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR32" t="n">
         <v>1.5</v>
@@ -7674,7 +7674,7 @@
         <v>0.67</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.35</v>
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR40" t="n">
         <v>1.41</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR42" t="n">
         <v>1.51</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.59</v>
@@ -10072,10 +10072,10 @@
         <v>0.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR44" t="n">
         <v>1.59</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR47" t="n">
         <v>1.86</v>
@@ -10944,10 +10944,10 @@
         <v>0.67</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR48" t="n">
         <v>1.9</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR49" t="n">
         <v>1.84</v>
@@ -11383,7 +11383,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR50" t="n">
         <v>1.7</v>
@@ -11601,7 +11601,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR51" t="n">
         <v>1.83</v>
@@ -11816,7 +11816,7 @@
         <v>1.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12909,7 +12909,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR57" t="n">
         <v>1.37</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -13996,10 +13996,10 @@
         <v>0.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR62" t="n">
         <v>1.63</v>
@@ -14214,10 +14214,10 @@
         <v>2.4</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR63" t="n">
         <v>1.42</v>
@@ -14435,7 +14435,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR64" t="n">
         <v>1.66</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.31</v>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR66" t="n">
         <v>1.41</v>
@@ -15086,7 +15086,7 @@
         <v>1.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR68" t="n">
         <v>1.49</v>
@@ -15522,7 +15522,7 @@
         <v>1.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.31</v>
@@ -15740,7 +15740,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.59</v>
@@ -15958,10 +15958,10 @@
         <v>0.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR71" t="n">
         <v>1.42</v>
@@ -16179,7 +16179,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR72" t="n">
         <v>1.54</v>
@@ -16394,7 +16394,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.41</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.35</v>
@@ -17051,7 +17051,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR76" t="n">
         <v>1.17</v>
@@ -17487,7 +17487,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR78" t="n">
         <v>1.73</v>
@@ -18138,7 +18138,7 @@
         <v>2.29</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ81" t="n">
         <v>1</v>
@@ -18356,7 +18356,7 @@
         <v>1.29</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.35</v>
@@ -18795,7 +18795,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR84" t="n">
         <v>1.45</v>
@@ -19013,7 +19013,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR85" t="n">
         <v>1.45</v>
@@ -19228,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR86" t="n">
         <v>1.86</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.41</v>
@@ -19664,10 +19664,10 @@
         <v>0.86</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR88" t="n">
         <v>1.74</v>
@@ -20321,7 +20321,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR91" t="n">
         <v>1.6</v>
@@ -20539,7 +20539,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR92" t="n">
         <v>1.54</v>
@@ -20757,7 +20757,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR93" t="n">
         <v>1.38</v>
@@ -20972,10 +20972,10 @@
         <v>0.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR94" t="n">
         <v>1.78</v>
@@ -21190,7 +21190,7 @@
         <v>1.43</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.31</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.41</v>
@@ -21626,7 +21626,7 @@
         <v>1.43</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.38</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR98" t="n">
         <v>1.43</v>
@@ -22280,10 +22280,10 @@
         <v>0.88</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR100" t="n">
         <v>1.86</v>
@@ -23152,10 +23152,10 @@
         <v>0.71</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR104" t="n">
         <v>1.37</v>
@@ -23588,7 +23588,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.59</v>
@@ -23809,7 +23809,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR107" t="n">
         <v>1.23</v>
@@ -24024,7 +24024,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.31</v>
@@ -24678,7 +24678,7 @@
         <v>1.33</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ111" t="n">
         <v>1</v>
@@ -24896,10 +24896,10 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR112" t="n">
         <v>1.81</v>
@@ -25553,7 +25553,7 @@
         <v>1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR115" t="n">
         <v>1.41</v>
@@ -25986,10 +25986,10 @@
         <v>0.78</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR117" t="n">
         <v>1.4</v>
@@ -26204,7 +26204,7 @@
         <v>1.3</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ118" t="n">
         <v>1</v>
@@ -26422,10 +26422,10 @@
         <v>2.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR119" t="n">
         <v>1.79</v>
@@ -26643,7 +26643,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR120" t="n">
         <v>1.72</v>
@@ -26861,7 +26861,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR121" t="n">
         <v>1.68</v>
@@ -27076,7 +27076,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.35</v>
@@ -27515,7 +27515,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR124" t="n">
         <v>1.78</v>
@@ -28166,10 +28166,10 @@
         <v>0.8</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR127" t="n">
         <v>1.62</v>
@@ -28384,10 +28384,10 @@
         <v>0.73</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR128" t="n">
         <v>1.42</v>
@@ -28602,7 +28602,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.59</v>
@@ -29256,10 +29256,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR132" t="n">
         <v>1.69</v>
@@ -29474,10 +29474,10 @@
         <v>1.1</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR133" t="n">
         <v>1.64</v>
@@ -29695,7 +29695,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR134" t="n">
         <v>1.35</v>
@@ -30128,7 +30128,7 @@
         <v>1.36</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.35</v>
@@ -30349,7 +30349,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR137" t="n">
         <v>1.47</v>
@@ -31221,7 +31221,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR141" t="n">
         <v>1.75</v>
@@ -31654,7 +31654,7 @@
         <v>1.36</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.41</v>
@@ -31875,7 +31875,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR144" t="n">
         <v>1.2</v>
@@ -32090,7 +32090,7 @@
         <v>1.33</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.35</v>
@@ -32308,7 +32308,7 @@
         <v>1.17</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ146" t="n">
         <v>1</v>
@@ -32526,7 +32526,7 @@
         <v>1.36</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.31</v>
@@ -32747,7 +32747,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR148" t="n">
         <v>1.34</v>
@@ -32962,10 +32962,10 @@
         <v>2.25</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR149" t="n">
         <v>1.44</v>
@@ -33398,10 +33398,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR151" t="n">
         <v>1.62</v>
@@ -33619,7 +33619,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR152" t="n">
         <v>1.46</v>
@@ -33837,7 +33837,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR153" t="n">
         <v>1.22</v>
@@ -34052,10 +34052,10 @@
         <v>0.67</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR154" t="n">
         <v>1.62</v>
@@ -34270,7 +34270,7 @@
         <v>1.25</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.38</v>
@@ -35363,7 +35363,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR160" t="n">
         <v>1.72</v>
@@ -35581,7 +35581,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR161" t="n">
         <v>1.26</v>
@@ -35796,7 +35796,7 @@
         <v>1.14</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.35</v>
@@ -36668,7 +36668,7 @@
         <v>1.21</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166" t="n">
         <v>1</v>
@@ -37104,10 +37104,10 @@
         <v>2</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR168" t="n">
         <v>1.75</v>
@@ -37322,10 +37322,10 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR169" t="n">
         <v>1.71</v>
@@ -37540,10 +37540,10 @@
         <v>0.79</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR170" t="n">
         <v>1.61</v>
@@ -37758,10 +37758,10 @@
         <v>0.77</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR171" t="n">
         <v>1.44</v>
@@ -38630,10 +38630,10 @@
         <v>0.92</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR175" t="n">
         <v>1.65</v>
@@ -38851,7 +38851,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR176" t="n">
         <v>1.46</v>
@@ -39287,7 +39287,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR178" t="n">
         <v>1.69</v>
@@ -39720,7 +39720,7 @@
         <v>1.4</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.59</v>
@@ -40156,10 +40156,10 @@
         <v>0.93</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR182" t="n">
         <v>1.61</v>
@@ -40374,7 +40374,7 @@
         <v>1.29</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.38</v>
@@ -40595,7 +40595,7 @@
         <v>1</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR184" t="n">
         <v>1.51</v>
@@ -40810,10 +40810,10 @@
         <v>0.93</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR185" t="n">
         <v>1.75</v>
@@ -41246,7 +41246,7 @@
         <v>1.43</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.31</v>
@@ -41467,7 +41467,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AR188" t="n">
         <v>1.73</v>
@@ -42121,7 +42121,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -42554,7 +42554,7 @@
         <v>1.5</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.59</v>
@@ -42990,10 +42990,10 @@
         <v>0.88</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR195" t="n">
         <v>1.4</v>
@@ -43208,10 +43208,10 @@
         <v>1.07</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR196" t="n">
         <v>1.82</v>
@@ -43644,10 +43644,10 @@
         <v>0.87</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR198" t="n">
         <v>1.78</v>
@@ -43862,7 +43862,7 @@
         <v>1.06</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ199" t="n">
         <v>1</v>
@@ -44159,6 +44159,1096 @@
       </c>
       <c r="BP200" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>7237359</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45220.08333333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>34</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2</v>
+      </c>
+      <c r="S201" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X201" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL201" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO201" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP201" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>7237360</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45220.1875</v>
+      </c>
+      <c r="F202" t="n">
+        <v>34</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>2</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['30', '90']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2</v>
+      </c>
+      <c r="S202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>7237361</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45221.08333333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>34</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['53', '80']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S203" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>7237362</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45221.08333333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>34</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>2</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['4', '25']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>4</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>7237363</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45221.19444444445</v>
+      </c>
+      <c r="F205" t="n">
+        <v>34</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S205" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U205" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X205" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.76</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.83</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.38</v>
@@ -3535,7 +3535,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR14" t="n">
         <v>1.61</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.35</v>
@@ -4404,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.59</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR21" t="n">
         <v>1.25</v>
@@ -6148,10 +6148,10 @@
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.89</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR36" t="n">
         <v>1.35</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR41" t="n">
         <v>1.19</v>
@@ -10511,7 +10511,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR46" t="n">
         <v>1.37</v>
@@ -10944,7 +10944,7 @@
         <v>0.67</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.76</v>
@@ -11816,7 +11816,7 @@
         <v>1.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12034,7 +12034,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.38</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -12906,7 +12906,7 @@
         <v>0.75</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.76</v>
@@ -13345,7 +13345,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR59" t="n">
         <v>1.64</v>
@@ -14653,7 +14653,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR65" t="n">
         <v>1.82</v>
@@ -15086,7 +15086,7 @@
         <v>1.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR69" t="n">
         <v>1.42</v>
@@ -16397,7 +16397,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR73" t="n">
         <v>1.79</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.35</v>
@@ -17048,7 +17048,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.76</v>
@@ -18574,10 +18574,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR83" t="n">
         <v>1.22</v>
@@ -19010,7 +19010,7 @@
         <v>0.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.89</v>
@@ -19449,7 +19449,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.37</v>
@@ -20536,7 +20536,7 @@
         <v>2.57</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.83</v>
@@ -21190,10 +21190,10 @@
         <v>1.43</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR95" t="n">
         <v>1.9</v>
@@ -21411,7 +21411,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR96" t="n">
         <v>1.62</v>
@@ -22280,7 +22280,7 @@
         <v>0.88</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.76</v>
@@ -22498,7 +22498,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.35</v>
@@ -22934,7 +22934,7 @@
         <v>1.13</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -23806,7 +23806,7 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.29</v>
@@ -24027,7 +24027,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR108" t="n">
         <v>1.76</v>
@@ -24245,7 +24245,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR109" t="n">
         <v>1.41</v>
@@ -24896,7 +24896,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.29</v>
@@ -25335,7 +25335,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR114" t="n">
         <v>1.67</v>
@@ -25768,7 +25768,7 @@
         <v>1.7</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ116" t="n">
         <v>1</v>
@@ -26422,7 +26422,7 @@
         <v>2.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.83</v>
@@ -27294,7 +27294,7 @@
         <v>1.22</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.59</v>
@@ -27733,7 +27733,7 @@
         <v>1</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -27948,7 +27948,7 @@
         <v>1.4</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.38</v>
@@ -28823,7 +28823,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR130" t="n">
         <v>1.73</v>
@@ -29041,7 +29041,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR131" t="n">
         <v>1.33</v>
@@ -29910,7 +29910,7 @@
         <v>1.27</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.38</v>
@@ -30128,7 +30128,7 @@
         <v>1.36</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.35</v>
@@ -30346,7 +30346,7 @@
         <v>0.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.89</v>
@@ -31657,7 +31657,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR143" t="n">
         <v>1.78</v>
@@ -31872,7 +31872,7 @@
         <v>0.82</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.76</v>
@@ -32308,7 +32308,7 @@
         <v>1.17</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ146" t="n">
         <v>1</v>
@@ -32529,7 +32529,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR147" t="n">
         <v>1.79</v>
@@ -33180,10 +33180,10 @@
         <v>1.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR150" t="n">
         <v>1.48</v>
@@ -33616,7 +33616,7 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.76</v>
@@ -33834,7 +33834,7 @@
         <v>2.15</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.83</v>
@@ -35578,7 +35578,7 @@
         <v>0.62</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.89</v>
@@ -36235,7 +36235,7 @@
         <v>1</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR164" t="n">
         <v>1.48</v>
@@ -36450,7 +36450,7 @@
         <v>1</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ165" t="n">
         <v>1</v>
@@ -36886,10 +36886,10 @@
         <v>1.33</v>
       </c>
       <c r="AP167" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR167" t="n">
         <v>1.26</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ169" t="n">
         <v>0.76</v>
@@ -38197,7 +38197,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR173" t="n">
         <v>1.53</v>
@@ -38848,7 +38848,7 @@
         <v>0.71</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.76</v>
@@ -40810,7 +40810,7 @@
         <v>0.93</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.29</v>
@@ -41028,10 +41028,10 @@
         <v>1.5</v>
       </c>
       <c r="AP186" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR186" t="n">
         <v>1.23</v>
@@ -41249,7 +41249,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR187" t="n">
         <v>1.44</v>
@@ -41900,7 +41900,7 @@
         <v>1.25</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.35</v>
@@ -42336,7 +42336,7 @@
         <v>1</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ192" t="n">
         <v>1</v>
@@ -42775,7 +42775,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR194" t="n">
         <v>1.7</v>
@@ -43429,7 +43429,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR197" t="n">
         <v>1.38</v>
@@ -43644,7 +43644,7 @@
         <v>0.87</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.76</v>
@@ -44083,7 +44083,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR200" t="n">
         <v>1.75</v>
@@ -44298,7 +44298,7 @@
         <v>1.94</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.83</v>
@@ -45249,6 +45249,660 @@
       </c>
       <c r="BP205" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>7237364</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45227.08333333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>35</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>2</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X206" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>7237365</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45227.1875</v>
+      </c>
+      <c r="F207" t="n">
+        <v>35</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['76', '84']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2</v>
+      </c>
+      <c r="S207" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>7237366</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45227.1875</v>
+      </c>
+      <c r="F208" t="n">
+        <v>35</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2</v>
+      </c>
+      <c r="S208" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X208" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.29</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.59</v>
@@ -1791,7 +1791,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.29</v>
@@ -3317,7 +3317,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.76</v>
@@ -3971,7 +3971,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR16" t="n">
         <v>1.2</v>
@@ -5279,7 +5279,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR22" t="n">
         <v>2.03</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.89</v>
@@ -6369,7 +6369,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR27" t="n">
         <v>2.23</v>
@@ -6805,7 +6805,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR29" t="n">
         <v>1.53</v>
@@ -7238,7 +7238,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.76</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.76</v>
@@ -7677,7 +7677,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR33" t="n">
         <v>1.41</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ38" t="n">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.29</v>
@@ -10508,7 +10508,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.29</v>
@@ -12037,7 +12037,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR53" t="n">
         <v>1.13</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR55" t="n">
         <v>1.55</v>
@@ -12688,10 +12688,10 @@
         <v>1.4</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR56" t="n">
         <v>1.5</v>
@@ -13560,10 +13560,10 @@
         <v>0.6</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR60" t="n">
         <v>1.59</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.59</v>
@@ -14868,7 +14868,7 @@
         <v>1.2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.76</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.76</v>
@@ -16176,7 +16176,7 @@
         <v>0.8</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.29</v>
@@ -16833,7 +16833,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR75" t="n">
         <v>1.94</v>
@@ -17266,10 +17266,10 @@
         <v>1.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR77" t="n">
         <v>1.49</v>
@@ -17702,7 +17702,7 @@
         <v>2.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -18359,7 +18359,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR82" t="n">
         <v>1.49</v>
@@ -18792,7 +18792,7 @@
         <v>2.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.83</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.59</v>
@@ -20100,7 +20100,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ90" t="n">
         <v>1</v>
@@ -20754,7 +20754,7 @@
         <v>0.33</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.89</v>
@@ -21629,7 +21629,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR97" t="n">
         <v>1.44</v>
@@ -21844,7 +21844,7 @@
         <v>2.25</v>
       </c>
       <c r="AP98" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.83</v>
@@ -22501,7 +22501,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR101" t="n">
         <v>1.48</v>
@@ -22719,7 +22719,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR102" t="n">
         <v>1.74</v>
@@ -23370,7 +23370,7 @@
         <v>1.89</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -24242,7 +24242,7 @@
         <v>1.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.5</v>
@@ -24460,10 +24460,10 @@
         <v>1.22</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR110" t="n">
         <v>1.33</v>
@@ -25114,10 +25114,10 @@
         <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR113" t="n">
         <v>1.7</v>
@@ -25550,7 +25550,7 @@
         <v>0.78</v>
       </c>
       <c r="AP115" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.76</v>
@@ -27079,7 +27079,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR122" t="n">
         <v>1.71</v>
@@ -27730,7 +27730,7 @@
         <v>1.22</v>
       </c>
       <c r="AP125" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.5</v>
@@ -27951,7 +27951,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR126" t="n">
         <v>1.47</v>
@@ -28820,7 +28820,7 @@
         <v>1.2</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.5</v>
@@ -29038,7 +29038,7 @@
         <v>1.4</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.29</v>
@@ -29692,7 +29692,7 @@
         <v>2.45</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.83</v>
@@ -29913,7 +29913,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR135" t="n">
         <v>1.2</v>
@@ -30131,7 +30131,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR136" t="n">
         <v>1.73</v>
@@ -31000,7 +31000,7 @@
         <v>1.42</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31436,7 +31436,7 @@
         <v>1.18</v>
       </c>
       <c r="AP142" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.59</v>
@@ -32093,7 +32093,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR145" t="n">
         <v>1.64</v>
@@ -32744,7 +32744,7 @@
         <v>0.45</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.89</v>
@@ -34273,7 +34273,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR155" t="n">
         <v>1.61</v>
@@ -34491,7 +34491,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR156" t="n">
         <v>1.59</v>
@@ -35142,7 +35142,7 @@
         <v>1.31</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ159" t="n">
         <v>1</v>
@@ -35360,7 +35360,7 @@
         <v>1</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.29</v>
@@ -35799,7 +35799,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR162" t="n">
         <v>1.8</v>
@@ -36232,7 +36232,7 @@
         <v>1.38</v>
       </c>
       <c r="AP164" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.5</v>
@@ -37976,10 +37976,10 @@
         <v>1.15</v>
       </c>
       <c r="AP172" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR172" t="n">
         <v>1.33</v>
@@ -38412,7 +38412,7 @@
         <v>1.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.59</v>
@@ -39502,7 +39502,7 @@
         <v>1</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ179" t="n">
         <v>1</v>
@@ -39938,10 +39938,10 @@
         <v>1.13</v>
       </c>
       <c r="AP181" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR181" t="n">
         <v>1.39</v>
@@ -40377,7 +40377,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR183" t="n">
         <v>1.62</v>
@@ -40592,7 +40592,7 @@
         <v>1.93</v>
       </c>
       <c r="AP184" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.83</v>
@@ -41682,10 +41682,10 @@
         <v>1.4</v>
       </c>
       <c r="AP189" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR189" t="n">
         <v>1.46</v>
@@ -41903,7 +41903,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR190" t="n">
         <v>1.48</v>
@@ -42772,7 +42772,7 @@
         <v>1.47</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.5</v>
@@ -43426,7 +43426,7 @@
         <v>1.4</v>
       </c>
       <c r="AP197" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.29</v>
@@ -45903,6 +45903,660 @@
       </c>
       <c r="BP208" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>7237367</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45228.08333333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>35</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['69', '90']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S209" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X209" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>7237368</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45228.08333333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>35</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>2</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>2</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2</v>
+      </c>
+      <c r="M210" t="n">
+        <v>2</v>
+      </c>
+      <c r="N210" t="n">
+        <v>4</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['21', '30']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['81', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U210" t="n">
+        <v>3</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X210" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>7237369</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45228.1875</v>
+      </c>
+      <c r="F211" t="n">
+        <v>35</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>3</v>
+      </c>
+      <c r="M211" t="n">
+        <v>4</v>
+      </c>
+      <c r="N211" t="n">
+        <v>7</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['30', '67', '90+2']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['57', '60', '74', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>4</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U211" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.89</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -3317,7 +3317,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.29</v>
@@ -4407,7 +4407,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR18" t="n">
         <v>1.34</v>
@@ -4843,7 +4843,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR20" t="n">
         <v>1.91</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR22" t="n">
         <v>2.03</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.29</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR29" t="n">
         <v>1.53</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.83</v>
@@ -7241,7 +7241,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR31" t="n">
         <v>1.68</v>
@@ -7895,7 +7895,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR34" t="n">
         <v>1.91</v>
@@ -8985,7 +8985,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.83</v>
@@ -9854,10 +9854,10 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR43" t="n">
         <v>1.37</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10947,7 +10947,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR48" t="n">
         <v>1.9</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.29</v>
@@ -12037,7 +12037,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR53" t="n">
         <v>1.13</v>
@@ -12691,7 +12691,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR56" t="n">
         <v>1.5</v>
@@ -12909,7 +12909,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR57" t="n">
         <v>1.37</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -13781,7 +13781,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -14214,7 +14214,7 @@
         <v>2.4</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.83</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.29</v>
@@ -14871,7 +14871,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR66" t="n">
         <v>1.41</v>
@@ -15307,7 +15307,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR68" t="n">
         <v>1.49</v>
@@ -15522,7 +15522,7 @@
         <v>1.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.29</v>
@@ -15743,7 +15743,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR70" t="n">
         <v>1.64</v>
@@ -15958,7 +15958,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.89</v>
@@ -16394,7 +16394,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.5</v>
@@ -17269,7 +17269,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR77" t="n">
         <v>1.49</v>
@@ -17923,7 +17923,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR80" t="n">
         <v>1.71</v>
@@ -18356,7 +18356,7 @@
         <v>1.29</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.28</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.76</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.5</v>
@@ -19667,7 +19667,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR88" t="n">
         <v>1.74</v>
@@ -19885,7 +19885,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR89" t="n">
         <v>1.48</v>
@@ -20972,10 +20972,10 @@
         <v>0.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR94" t="n">
         <v>1.78</v>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.5</v>
@@ -21626,10 +21626,10 @@
         <v>1.43</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR97" t="n">
         <v>1.44</v>
@@ -22719,7 +22719,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR102" t="n">
         <v>1.74</v>
@@ -23152,7 +23152,7 @@
         <v>0.71</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.89</v>
@@ -23588,10 +23588,10 @@
         <v>1.25</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR106" t="n">
         <v>1.63</v>
@@ -24463,7 +24463,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR110" t="n">
         <v>1.33</v>
@@ -24678,7 +24678,7 @@
         <v>1.33</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ111" t="n">
         <v>1</v>
@@ -25553,7 +25553,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR115" t="n">
         <v>1.41</v>
@@ -25986,7 +25986,7 @@
         <v>0.78</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.76</v>
@@ -26861,7 +26861,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR121" t="n">
         <v>1.68</v>
@@ -27076,7 +27076,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.28</v>
@@ -27297,7 +27297,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR123" t="n">
         <v>1.21</v>
@@ -27951,7 +27951,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR126" t="n">
         <v>1.47</v>
@@ -28166,7 +28166,7 @@
         <v>0.8</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.76</v>
@@ -28384,10 +28384,10 @@
         <v>0.73</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR128" t="n">
         <v>1.42</v>
@@ -28602,10 +28602,10 @@
         <v>1.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR129" t="n">
         <v>1.68</v>
@@ -29474,7 +29474,7 @@
         <v>1.1</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.29</v>
@@ -29913,7 +29913,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR135" t="n">
         <v>1.2</v>
@@ -31439,7 +31439,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR142" t="n">
         <v>1.46</v>
@@ -32090,7 +32090,7 @@
         <v>1.33</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.28</v>
@@ -32962,7 +32962,7 @@
         <v>2.25</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.83</v>
@@ -33398,10 +33398,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR151" t="n">
         <v>1.62</v>
@@ -34052,7 +34052,7 @@
         <v>0.67</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.89</v>
@@ -34270,10 +34270,10 @@
         <v>1.25</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR155" t="n">
         <v>1.61</v>
@@ -34709,7 +34709,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR157" t="n">
         <v>1.75</v>
@@ -34927,7 +34927,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR158" t="n">
         <v>1.58</v>
@@ -36668,7 +36668,7 @@
         <v>1.21</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166" t="n">
         <v>1</v>
@@ -37540,7 +37540,7 @@
         <v>0.79</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.89</v>
@@ -37758,10 +37758,10 @@
         <v>0.77</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR171" t="n">
         <v>1.44</v>
@@ -37979,7 +37979,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR172" t="n">
         <v>1.33</v>
@@ -38415,7 +38415,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR174" t="n">
         <v>1.71</v>
@@ -38630,7 +38630,7 @@
         <v>0.92</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.29</v>
@@ -38851,7 +38851,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR176" t="n">
         <v>1.46</v>
@@ -39723,7 +39723,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR180" t="n">
         <v>1.78</v>
@@ -40156,7 +40156,7 @@
         <v>0.93</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.76</v>
@@ -40374,10 +40374,10 @@
         <v>1.29</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR183" t="n">
         <v>1.62</v>
@@ -41246,7 +41246,7 @@
         <v>1.43</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.29</v>
@@ -41685,7 +41685,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR189" t="n">
         <v>1.46</v>
@@ -42554,10 +42554,10 @@
         <v>1.5</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR193" t="n">
         <v>1.6</v>
@@ -42990,7 +42990,7 @@
         <v>0.88</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.89</v>
@@ -43647,7 +43647,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR198" t="n">
         <v>1.78</v>
@@ -43862,7 +43862,7 @@
         <v>1.06</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ199" t="n">
         <v>1</v>
@@ -44516,7 +44516,7 @@
         <v>1.19</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.29</v>
@@ -44737,7 +44737,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR203" t="n">
         <v>1.82</v>
@@ -44952,7 +44952,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.76</v>
@@ -45170,7 +45170,7 @@
         <v>0.88</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.89</v>
@@ -46481,7 +46481,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR211" t="n">
         <v>1.5</v>
@@ -46557,6 +46557,660 @@
       </c>
       <c r="BP211" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>7237370</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45241.08333333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>36</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S212" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X212" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>7237371</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45241.1875</v>
+      </c>
+      <c r="F213" t="n">
+        <v>36</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="n">
+        <v>2</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2</v>
+      </c>
+      <c r="S213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X213" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>7237372</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45241.1875</v>
+      </c>
+      <c r="F214" t="n">
+        <v>36</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S214" t="n">
+        <v>3</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X214" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP214"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR14" t="n">
         <v>1.61</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR15" t="n">
         <v>0.3</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR23" t="n">
         <v>1.42</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.89</v>
@@ -6151,7 +6151,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6366,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.28</v>
@@ -7456,10 +7456,10 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR32" t="n">
         <v>1.5</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR40" t="n">
         <v>1.41</v>
@@ -10075,7 +10075,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR44" t="n">
         <v>1.59</v>
@@ -10508,10 +10508,10 @@
         <v>2.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR46" t="n">
         <v>1.37</v>
@@ -10726,7 +10726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.89</v>
@@ -11165,7 +11165,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR49" t="n">
         <v>1.84</v>
@@ -11383,7 +11383,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR50" t="n">
         <v>1.7</v>
@@ -11598,7 +11598,7 @@
         <v>2.25</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.83</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.28</v>
@@ -12688,7 +12688,7 @@
         <v>1.4</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.44</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.56</v>
@@ -13999,7 +13999,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR62" t="n">
         <v>1.63</v>
@@ -14432,10 +14432,10 @@
         <v>0.2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR64" t="n">
         <v>1.66</v>
@@ -14653,7 +14653,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR65" t="n">
         <v>1.82</v>
@@ -14868,7 +14868,7 @@
         <v>1.2</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.89</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.89</v>
@@ -15525,7 +15525,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR69" t="n">
         <v>1.42</v>
@@ -16179,7 +16179,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR72" t="n">
         <v>1.54</v>
@@ -17051,7 +17051,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR76" t="n">
         <v>1.17</v>
@@ -17266,7 +17266,7 @@
         <v>1.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.44</v>
@@ -17484,10 +17484,10 @@
         <v>1.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR78" t="n">
         <v>1.73</v>
@@ -17702,7 +17702,7 @@
         <v>2.17</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.56</v>
@@ -18577,7 +18577,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR83" t="n">
         <v>1.22</v>
@@ -19231,7 +19231,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR86" t="n">
         <v>1.86</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.56</v>
@@ -20100,7 +20100,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ90" t="n">
         <v>1</v>
@@ -20321,7 +20321,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR91" t="n">
         <v>1.6</v>
@@ -21193,7 +21193,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR95" t="n">
         <v>1.9</v>
@@ -21844,7 +21844,7 @@
         <v>2.25</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.83</v>
@@ -22283,7 +22283,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR100" t="n">
         <v>1.86</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.44</v>
@@ -23370,7 +23370,7 @@
         <v>1.89</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -23809,7 +23809,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR107" t="n">
         <v>1.23</v>
@@ -24027,7 +24027,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR108" t="n">
         <v>1.76</v>
@@ -24899,7 +24899,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR112" t="n">
         <v>1.81</v>
@@ -25114,7 +25114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.28</v>
@@ -25332,10 +25332,10 @@
         <v>1.22</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR114" t="n">
         <v>1.67</v>
@@ -25550,7 +25550,7 @@
         <v>0.78</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.89</v>
@@ -25989,7 +25989,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR117" t="n">
         <v>1.4</v>
@@ -26858,7 +26858,7 @@
         <v>0.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.89</v>
@@ -27730,7 +27730,7 @@
         <v>1.22</v>
       </c>
       <c r="AP125" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.5</v>
@@ -28169,7 +28169,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR127" t="n">
         <v>1.62</v>
@@ -28820,7 +28820,7 @@
         <v>1.2</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.5</v>
@@ -29041,7 +29041,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR131" t="n">
         <v>1.33</v>
@@ -29477,7 +29477,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR133" t="n">
         <v>1.64</v>
@@ -30782,7 +30782,7 @@
         <v>1.27</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ139" t="n">
         <v>1</v>
@@ -31000,7 +31000,7 @@
         <v>1.42</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR141" t="n">
         <v>1.75</v>
@@ -31436,7 +31436,7 @@
         <v>1.18</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.56</v>
@@ -31875,7 +31875,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR144" t="n">
         <v>1.2</v>
@@ -32529,7 +32529,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR147" t="n">
         <v>1.79</v>
@@ -33619,7 +33619,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR152" t="n">
         <v>1.46</v>
@@ -34488,7 +34488,7 @@
         <v>1.23</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.28</v>
@@ -34924,7 +34924,7 @@
         <v>1.31</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.56</v>
@@ -35360,10 +35360,10 @@
         <v>1</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR160" t="n">
         <v>1.72</v>
@@ -36232,7 +36232,7 @@
         <v>1.38</v>
       </c>
       <c r="AP164" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.5</v>
@@ -36889,7 +36889,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR167" t="n">
         <v>1.26</v>
@@ -37325,7 +37325,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR169" t="n">
         <v>1.71</v>
@@ -38194,10 +38194,10 @@
         <v>1.31</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR173" t="n">
         <v>1.53</v>
@@ -38412,7 +38412,7 @@
         <v>1.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.56</v>
@@ -38633,7 +38633,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR175" t="n">
         <v>1.65</v>
@@ -39066,7 +39066,7 @@
         <v>1.13</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ177" t="n">
         <v>1</v>
@@ -39502,7 +39502,7 @@
         <v>1</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ179" t="n">
         <v>1</v>
@@ -40159,7 +40159,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR182" t="n">
         <v>1.61</v>
@@ -40592,7 +40592,7 @@
         <v>1.93</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.83</v>
@@ -40813,7 +40813,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR185" t="n">
         <v>1.75</v>
@@ -41249,7 +41249,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR187" t="n">
         <v>1.44</v>
@@ -41682,7 +41682,7 @@
         <v>1.4</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.44</v>
@@ -42118,10 +42118,10 @@
         <v>0.87</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -42772,7 +42772,7 @@
         <v>1.47</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.5</v>
@@ -43211,7 +43211,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR196" t="n">
         <v>1.82</v>
@@ -43429,7 +43429,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR197" t="n">
         <v>1.38</v>
@@ -44519,7 +44519,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR202" t="n">
         <v>1.41</v>
@@ -44955,7 +44955,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR204" t="n">
         <v>1.58</v>
@@ -45391,7 +45391,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR206" t="n">
         <v>1.49</v>
@@ -46042,7 +46042,7 @@
         <v>1.35</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.28</v>
@@ -46478,7 +46478,7 @@
         <v>1.38</v>
       </c>
       <c r="AP211" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.44</v>
@@ -47211,6 +47211,660 @@
       </c>
       <c r="BP214" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>7237374</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45242.08333333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>36</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>2</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" t="n">
+        <v>3</v>
+      </c>
+      <c r="N215" t="n">
+        <v>5</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['31', '61']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['45+4', '54', '79']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S215" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U215" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X215" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>7237373</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45242.08333333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>36</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S216" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X216" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>7237375</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45242.1875</v>
+      </c>
+      <c r="F217" t="n">
+        <v>36</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>3</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2</v>
+      </c>
+      <c r="N217" t="n">
+        <v>5</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['46', '51', '63']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['32', '83']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S217" t="n">
+        <v>4</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X217" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.5</v>
@@ -1355,7 +1355,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>0.3</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR16" t="n">
         <v>1.2</v>
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR17" t="n">
         <v>1.95</v>
@@ -4404,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR18" t="n">
         <v>1.34</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.89</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.44</v>
@@ -5715,7 +5715,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR24" t="n">
         <v>1.56</v>
@@ -5933,7 +5933,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR25" t="n">
         <v>0.91</v>
@@ -6148,7 +6148,7 @@
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.22</v>
@@ -6366,10 +6366,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR27" t="n">
         <v>2.23</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR28" t="n">
         <v>1.82</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR30" t="n">
         <v>1.82</v>
@@ -7459,7 +7459,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>1.5</v>
@@ -7674,10 +7674,10 @@
         <v>0.67</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR33" t="n">
         <v>1.41</v>
@@ -7892,10 +7892,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR34" t="n">
         <v>1.91</v>
@@ -8113,7 +8113,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR35" t="n">
         <v>0.82</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.5</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.44</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.5</v>
@@ -9639,7 +9639,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR42" t="n">
         <v>1.51</v>
@@ -9857,7 +9857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR43" t="n">
         <v>1.37</v>
@@ -10072,10 +10072,10 @@
         <v>0.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.59</v>
@@ -10293,7 +10293,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR45" t="n">
         <v>1.34</v>
@@ -10726,10 +10726,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR47" t="n">
         <v>1.86</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.28</v>
@@ -11380,10 +11380,10 @@
         <v>0.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR50" t="n">
         <v>1.7</v>
@@ -11598,10 +11598,10 @@
         <v>2.25</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR51" t="n">
         <v>1.83</v>
@@ -12034,7 +12034,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.44</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR54" t="n">
         <v>1.31</v>
@@ -12473,7 +12473,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR55" t="n">
         <v>1.55</v>
@@ -12906,7 +12906,7 @@
         <v>0.75</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.89</v>
@@ -13342,7 +13342,7 @@
         <v>0.75</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.5</v>
@@ -13563,7 +13563,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR60" t="n">
         <v>1.59</v>
@@ -13781,7 +13781,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR61" t="n">
         <v>1.43</v>
@@ -13996,7 +13996,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.28</v>
@@ -14217,7 +14217,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR63" t="n">
         <v>1.42</v>
@@ -14432,10 +14432,10 @@
         <v>0.2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.66</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.22</v>
@@ -15089,7 +15089,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR67" t="n">
         <v>1.95</v>
@@ -15740,10 +15740,10 @@
         <v>1.2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR70" t="n">
         <v>1.64</v>
@@ -15961,7 +15961,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR71" t="n">
         <v>1.42</v>
@@ -16394,7 +16394,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.5</v>
@@ -16612,10 +16612,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR74" t="n">
         <v>1.51</v>
@@ -16833,7 +16833,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR75" t="n">
         <v>1.94</v>
@@ -17048,10 +17048,10 @@
         <v>0.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>1.17</v>
@@ -17484,7 +17484,7 @@
         <v>1.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.28</v>
@@ -17920,10 +17920,10 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR80" t="n">
         <v>1.71</v>
@@ -18138,7 +18138,7 @@
         <v>2.29</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81" t="n">
         <v>1</v>
@@ -18359,7 +18359,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR82" t="n">
         <v>1.49</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.22</v>
@@ -18795,7 +18795,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR84" t="n">
         <v>1.45</v>
@@ -19010,10 +19010,10 @@
         <v>0.4</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR85" t="n">
         <v>1.45</v>
@@ -19228,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.86</v>
@@ -19664,7 +19664,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.89</v>
@@ -19885,7 +19885,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR89" t="n">
         <v>1.48</v>
@@ -20103,7 +20103,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR90" t="n">
         <v>1.53</v>
@@ -20318,7 +20318,7 @@
         <v>1.14</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.28</v>
@@ -20536,10 +20536,10 @@
         <v>2.57</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR92" t="n">
         <v>1.54</v>
@@ -20757,7 +20757,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR93" t="n">
         <v>1.38</v>
@@ -20972,7 +20972,7 @@
         <v>0.75</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.89</v>
@@ -21847,7 +21847,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR98" t="n">
         <v>1.43</v>
@@ -22062,7 +22062,7 @@
         <v>2.13</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ99" t="n">
         <v>1</v>
@@ -22283,7 +22283,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR100" t="n">
         <v>1.86</v>
@@ -22498,10 +22498,10 @@
         <v>1.5</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR101" t="n">
         <v>1.48</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.44</v>
@@ -22934,10 +22934,10 @@
         <v>1.13</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR103" t="n">
         <v>1.15</v>
@@ -23155,7 +23155,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR104" t="n">
         <v>1.37</v>
@@ -23591,7 +23591,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR106" t="n">
         <v>1.63</v>
@@ -23806,7 +23806,7 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.28</v>
@@ -24024,7 +24024,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.22</v>
@@ -24678,10 +24678,10 @@
         <v>1.33</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR111" t="n">
         <v>1.74</v>
@@ -25117,7 +25117,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR113" t="n">
         <v>1.7</v>
@@ -25332,7 +25332,7 @@
         <v>1.22</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.22</v>
@@ -25768,7 +25768,7 @@
         <v>1.7</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ116" t="n">
         <v>1</v>
@@ -25989,7 +25989,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR117" t="n">
         <v>1.4</v>
@@ -26204,10 +26204,10 @@
         <v>1.3</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR118" t="n">
         <v>1.7</v>
@@ -26425,7 +26425,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR119" t="n">
         <v>1.79</v>
@@ -26640,10 +26640,10 @@
         <v>0.63</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR120" t="n">
         <v>1.72</v>
@@ -26858,7 +26858,7 @@
         <v>0.8</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.89</v>
@@ -27076,10 +27076,10 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR122" t="n">
         <v>1.71</v>
@@ -27294,10 +27294,10 @@
         <v>1.22</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR123" t="n">
         <v>1.21</v>
@@ -27512,10 +27512,10 @@
         <v>2.4</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR124" t="n">
         <v>1.78</v>
@@ -27948,7 +27948,7 @@
         <v>1.4</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.44</v>
@@ -28169,7 +28169,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR127" t="n">
         <v>1.62</v>
@@ -28602,10 +28602,10 @@
         <v>1.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR129" t="n">
         <v>1.68</v>
@@ -29256,10 +29256,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR132" t="n">
         <v>1.69</v>
@@ -29695,7 +29695,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR134" t="n">
         <v>1.35</v>
@@ -29910,7 +29910,7 @@
         <v>1.27</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.44</v>
@@ -30131,7 +30131,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR136" t="n">
         <v>1.73</v>
@@ -30346,10 +30346,10 @@
         <v>0.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR137" t="n">
         <v>1.47</v>
@@ -30564,7 +30564,7 @@
         <v>1.55</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ138" t="n">
         <v>1</v>
@@ -30782,10 +30782,10 @@
         <v>1.27</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR139" t="n">
         <v>1.65</v>
@@ -31218,7 +31218,7 @@
         <v>1.09</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.28</v>
@@ -31439,7 +31439,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR142" t="n">
         <v>1.46</v>
@@ -31654,7 +31654,7 @@
         <v>1.36</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.5</v>
@@ -31872,10 +31872,10 @@
         <v>0.82</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR144" t="n">
         <v>1.2</v>
@@ -32093,7 +32093,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR145" t="n">
         <v>1.64</v>
@@ -32311,7 +32311,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR146" t="n">
         <v>1.7</v>
@@ -32526,7 +32526,7 @@
         <v>1.36</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.22</v>
@@ -32747,7 +32747,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR148" t="n">
         <v>1.34</v>
@@ -32965,7 +32965,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR149" t="n">
         <v>1.44</v>
@@ -33180,7 +33180,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.5</v>
@@ -33398,7 +33398,7 @@
         <v>0.75</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.89</v>
@@ -33616,10 +33616,10 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR152" t="n">
         <v>1.46</v>
@@ -33834,10 +33834,10 @@
         <v>2.15</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR153" t="n">
         <v>1.22</v>
@@ -34052,10 +34052,10 @@
         <v>0.67</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR154" t="n">
         <v>1.62</v>
@@ -34488,10 +34488,10 @@
         <v>1.23</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR156" t="n">
         <v>1.59</v>
@@ -34706,10 +34706,10 @@
         <v>1.33</v>
       </c>
       <c r="AP157" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR157" t="n">
         <v>1.75</v>
@@ -34924,10 +34924,10 @@
         <v>1.31</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR158" t="n">
         <v>1.58</v>
@@ -35578,10 +35578,10 @@
         <v>0.62</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR161" t="n">
         <v>1.26</v>
@@ -35796,10 +35796,10 @@
         <v>1.14</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR162" t="n">
         <v>1.8</v>
@@ -36014,10 +36014,10 @@
         <v>1.08</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR163" t="n">
         <v>1.68</v>
@@ -36450,10 +36450,10 @@
         <v>1</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR165" t="n">
         <v>1.45</v>
@@ -36886,7 +36886,7 @@
         <v>1.33</v>
       </c>
       <c r="AP167" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.22</v>
@@ -37104,10 +37104,10 @@
         <v>2</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR168" t="n">
         <v>1.75</v>
@@ -37325,7 +37325,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR169" t="n">
         <v>1.71</v>
@@ -37543,7 +37543,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR170" t="n">
         <v>1.61</v>
@@ -38194,7 +38194,7 @@
         <v>1.31</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.22</v>
@@ -38415,7 +38415,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR174" t="n">
         <v>1.71</v>
@@ -38630,7 +38630,7 @@
         <v>0.92</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.28</v>
@@ -38848,7 +38848,7 @@
         <v>0.71</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.89</v>
@@ -39066,7 +39066,7 @@
         <v>1.13</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ177" t="n">
         <v>1</v>
@@ -39284,10 +39284,10 @@
         <v>0.93</v>
       </c>
       <c r="AP178" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR178" t="n">
         <v>1.69</v>
@@ -39505,7 +39505,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR179" t="n">
         <v>1.71</v>
@@ -39720,10 +39720,10 @@
         <v>1.4</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR180" t="n">
         <v>1.78</v>
@@ -39941,7 +39941,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR181" t="n">
         <v>1.39</v>
@@ -40159,7 +40159,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR182" t="n">
         <v>1.61</v>
@@ -40374,7 +40374,7 @@
         <v>1.29</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.44</v>
@@ -40595,7 +40595,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR184" t="n">
         <v>1.51</v>
@@ -41028,7 +41028,7 @@
         <v>1.5</v>
       </c>
       <c r="AP186" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.5</v>
@@ -41464,10 +41464,10 @@
         <v>2</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR188" t="n">
         <v>1.73</v>
@@ -41900,10 +41900,10 @@
         <v>1.25</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR190" t="n">
         <v>1.48</v>
@@ -42118,10 +42118,10 @@
         <v>0.87</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR191" t="n">
         <v>1.49</v>
@@ -42336,10 +42336,10 @@
         <v>1</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR192" t="n">
         <v>1.24</v>
@@ -42554,10 +42554,10 @@
         <v>1.5</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR193" t="n">
         <v>1.6</v>
@@ -42993,7 +42993,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR195" t="n">
         <v>1.4</v>
@@ -43208,7 +43208,7 @@
         <v>1.07</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.28</v>
@@ -44080,7 +44080,7 @@
         <v>1.44</v>
       </c>
       <c r="AP200" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.5</v>
@@ -44301,7 +44301,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AR201" t="n">
         <v>1.72</v>
@@ -44734,7 +44734,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.89</v>
@@ -44952,10 +44952,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR204" t="n">
         <v>1.58</v>
@@ -45173,7 +45173,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR205" t="n">
         <v>1.61</v>
@@ -45388,7 +45388,7 @@
         <v>1.31</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.22</v>
@@ -45824,7 +45824,7 @@
         <v>1</v>
       </c>
       <c r="AP208" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AQ208" t="n">
         <v>1</v>
@@ -46045,7 +46045,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR209" t="n">
         <v>1.67</v>
@@ -46263,7 +46263,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR210" t="n">
         <v>1.38</v>
@@ -46917,7 +46917,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR213" t="n">
         <v>1.44</v>
@@ -47132,7 +47132,7 @@
         <v>1.47</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.44</v>
@@ -47353,7 +47353,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ215" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AR215" t="n">
         <v>1.53</v>
@@ -47568,7 +47568,7 @@
         <v>1.29</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ216" t="n">
         <v>1.28</v>
@@ -47865,6 +47865,1314 @@
       </c>
       <c r="BP217" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>7237376</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45254.3125</v>
+      </c>
+      <c r="F218" t="n">
+        <v>37</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>3</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>4</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['51', '74', '77']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>3</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X218" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>7237377</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45255.08333333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>37</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>2</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['18', '45+2']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S219" t="n">
+        <v>4</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X219" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>7237378</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45255.08333333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>37</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['84', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S220" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>7237379</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45255.1875</v>
+      </c>
+      <c r="F221" t="n">
+        <v>37</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S221" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X221" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>7237380</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45255.1875</v>
+      </c>
+      <c r="F222" t="n">
+        <v>37</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X222" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>7237381</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45255.1875</v>
+      </c>
+      <c r="F223" t="n">
+        <v>37</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['20', '83']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X223" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.47</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.89</v>
@@ -2445,7 +2445,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR14" t="n">
         <v>1.61</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR21" t="n">
         <v>1.25</v>
@@ -5279,7 +5279,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR22" t="n">
         <v>2.03</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR23" t="n">
         <v>1.42</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.11</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.84</v>
@@ -6151,7 +6151,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR26" t="n">
         <v>1.47</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.84</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR29" t="n">
         <v>1.53</v>
@@ -7238,7 +7238,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.89</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR36" t="n">
         <v>1.35</v>
@@ -8764,7 +8764,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ38" t="n">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR39" t="n">
         <v>1.76</v>
@@ -9203,7 +9203,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR40" t="n">
         <v>1.41</v>
@@ -9421,7 +9421,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR41" t="n">
         <v>1.19</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.74</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.47</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.11</v>
@@ -10508,10 +10508,10 @@
         <v>2.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR46" t="n">
         <v>1.37</v>
@@ -10944,7 +10944,7 @@
         <v>0.67</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.89</v>
@@ -11165,7 +11165,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR49" t="n">
         <v>1.84</v>
@@ -11816,7 +11816,7 @@
         <v>1.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR53" t="n">
         <v>1.13</v>
@@ -12691,7 +12691,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR56" t="n">
         <v>1.5</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ58" t="n">
         <v>1</v>
@@ -13345,7 +13345,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR59" t="n">
         <v>1.64</v>
@@ -13560,7 +13560,7 @@
         <v>0.6</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.21</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.47</v>
@@ -13999,7 +13999,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR62" t="n">
         <v>1.63</v>
@@ -14214,7 +14214,7 @@
         <v>2.4</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.74</v>
@@ -14653,7 +14653,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR65" t="n">
         <v>1.82</v>
@@ -15086,7 +15086,7 @@
         <v>1.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.11</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.89</v>
@@ -15522,10 +15522,10 @@
         <v>1.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR69" t="n">
         <v>1.42</v>
@@ -15958,7 +15958,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.84</v>
@@ -16176,10 +16176,10 @@
         <v>0.8</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR72" t="n">
         <v>1.54</v>
@@ -16397,7 +16397,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR73" t="n">
         <v>1.79</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.21</v>
@@ -17266,10 +17266,10 @@
         <v>1.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR77" t="n">
         <v>1.49</v>
@@ -17487,7 +17487,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR78" t="n">
         <v>1.73</v>
@@ -18356,7 +18356,7 @@
         <v>1.29</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.21</v>
@@ -18577,7 +18577,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR83" t="n">
         <v>1.22</v>
@@ -18792,7 +18792,7 @@
         <v>2.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.74</v>
@@ -19446,10 +19446,10 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR87" t="n">
         <v>1.37</v>
@@ -20100,7 +20100,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.11</v>
@@ -20321,7 +20321,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR91" t="n">
         <v>1.6</v>
@@ -20754,7 +20754,7 @@
         <v>0.33</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.84</v>
@@ -21190,10 +21190,10 @@
         <v>1.43</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR95" t="n">
         <v>1.9</v>
@@ -21408,10 +21408,10 @@
         <v>1</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR96" t="n">
         <v>1.62</v>
@@ -21626,10 +21626,10 @@
         <v>1.43</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR97" t="n">
         <v>1.44</v>
@@ -22280,7 +22280,7 @@
         <v>0.88</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -22719,7 +22719,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR102" t="n">
         <v>1.74</v>
@@ -23152,7 +23152,7 @@
         <v>0.71</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.84</v>
@@ -23370,7 +23370,7 @@
         <v>1.89</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -23588,7 +23588,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.47</v>
@@ -23809,7 +23809,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR107" t="n">
         <v>1.23</v>
@@ -24027,7 +24027,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR108" t="n">
         <v>1.76</v>
@@ -24242,10 +24242,10 @@
         <v>1.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR109" t="n">
         <v>1.41</v>
@@ -24460,10 +24460,10 @@
         <v>1.22</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR110" t="n">
         <v>1.33</v>
@@ -24896,10 +24896,10 @@
         <v>1.22</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR112" t="n">
         <v>1.81</v>
@@ -25114,7 +25114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.21</v>
@@ -25335,7 +25335,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR114" t="n">
         <v>1.67</v>
@@ -25986,7 +25986,7 @@
         <v>0.78</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ117" t="n">
         <v>1</v>
@@ -26422,7 +26422,7 @@
         <v>2.33</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.74</v>
@@ -27733,7 +27733,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -27951,7 +27951,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR126" t="n">
         <v>1.47</v>
@@ -28166,7 +28166,7 @@
         <v>0.8</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ127" t="n">
         <v>1</v>
@@ -28384,7 +28384,7 @@
         <v>0.73</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.89</v>
@@ -28820,10 +28820,10 @@
         <v>1.2</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR130" t="n">
         <v>1.73</v>
@@ -29038,10 +29038,10 @@
         <v>1.4</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR131" t="n">
         <v>1.33</v>
@@ -29474,10 +29474,10 @@
         <v>1.1</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR133" t="n">
         <v>1.64</v>
@@ -29692,7 +29692,7 @@
         <v>2.45</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.74</v>
@@ -29913,7 +29913,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR135" t="n">
         <v>1.2</v>
@@ -30128,7 +30128,7 @@
         <v>1.36</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.21</v>
@@ -31000,7 +31000,7 @@
         <v>1.42</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR141" t="n">
         <v>1.75</v>
@@ -31657,7 +31657,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR143" t="n">
         <v>1.78</v>
@@ -32090,7 +32090,7 @@
         <v>1.33</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.21</v>
@@ -32308,7 +32308,7 @@
         <v>1.17</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.11</v>
@@ -32529,7 +32529,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR147" t="n">
         <v>1.79</v>
@@ -32744,7 +32744,7 @@
         <v>0.45</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.84</v>
@@ -32962,7 +32962,7 @@
         <v>2.25</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.74</v>
@@ -33183,7 +33183,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR150" t="n">
         <v>1.48</v>
@@ -34270,10 +34270,10 @@
         <v>1.25</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR155" t="n">
         <v>1.61</v>
@@ -35142,7 +35142,7 @@
         <v>1.31</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ159" t="n">
         <v>1</v>
@@ -35360,10 +35360,10 @@
         <v>1</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR160" t="n">
         <v>1.72</v>
@@ -36235,7 +36235,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR164" t="n">
         <v>1.48</v>
@@ -36668,7 +36668,7 @@
         <v>1.21</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ166" t="n">
         <v>1</v>
@@ -36889,7 +36889,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR167" t="n">
         <v>1.26</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ169" t="n">
         <v>1</v>
@@ -37540,7 +37540,7 @@
         <v>0.79</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.84</v>
@@ -37758,7 +37758,7 @@
         <v>0.77</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.89</v>
@@ -37976,10 +37976,10 @@
         <v>1.15</v>
       </c>
       <c r="AP172" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR172" t="n">
         <v>1.33</v>
@@ -38197,7 +38197,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR173" t="n">
         <v>1.53</v>
@@ -38412,7 +38412,7 @@
         <v>1.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.47</v>
@@ -38633,7 +38633,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR175" t="n">
         <v>1.65</v>
@@ -39502,7 +39502,7 @@
         <v>1</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.11</v>
@@ -39938,7 +39938,7 @@
         <v>1.13</v>
       </c>
       <c r="AP181" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.21</v>
@@ -40156,7 +40156,7 @@
         <v>0.93</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ182" t="n">
         <v>1</v>
@@ -40377,7 +40377,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR183" t="n">
         <v>1.62</v>
@@ -40810,10 +40810,10 @@
         <v>0.93</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR185" t="n">
         <v>1.75</v>
@@ -41031,7 +41031,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR186" t="n">
         <v>1.23</v>
@@ -41246,10 +41246,10 @@
         <v>1.43</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR187" t="n">
         <v>1.44</v>
@@ -41685,7 +41685,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR189" t="n">
         <v>1.46</v>
@@ -42772,10 +42772,10 @@
         <v>1.47</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR194" t="n">
         <v>1.7</v>
@@ -42990,7 +42990,7 @@
         <v>0.88</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ195" t="n">
         <v>0.84</v>
@@ -43211,7 +43211,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR196" t="n">
         <v>1.82</v>
@@ -43426,10 +43426,10 @@
         <v>1.4</v>
       </c>
       <c r="AP197" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR197" t="n">
         <v>1.38</v>
@@ -43644,7 +43644,7 @@
         <v>0.87</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.89</v>
@@ -43862,7 +43862,7 @@
         <v>1.06</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ199" t="n">
         <v>1</v>
@@ -44083,7 +44083,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR200" t="n">
         <v>1.75</v>
@@ -44298,7 +44298,7 @@
         <v>1.94</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.74</v>
@@ -44516,10 +44516,10 @@
         <v>1.19</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR202" t="n">
         <v>1.41</v>
@@ -45170,7 +45170,7 @@
         <v>0.88</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.84</v>
@@ -45391,7 +45391,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR206" t="n">
         <v>1.49</v>
@@ -45606,10 +45606,10 @@
         <v>1.41</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR207" t="n">
         <v>1.72</v>
@@ -46042,7 +46042,7 @@
         <v>1.35</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.21</v>
@@ -46260,7 +46260,7 @@
         <v>1</v>
       </c>
       <c r="AP210" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.11</v>
@@ -46481,7 +46481,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR211" t="n">
         <v>1.5</v>
@@ -46696,7 +46696,7 @@
         <v>0.76</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ212" t="n">
         <v>0.89</v>
@@ -46914,7 +46914,7 @@
         <v>1.59</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.47</v>
@@ -47135,7 +47135,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR214" t="n">
         <v>1.58</v>
@@ -47571,7 +47571,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR216" t="n">
         <v>1.5</v>
@@ -47786,10 +47786,10 @@
         <v>1.29</v>
       </c>
       <c r="AP217" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR217" t="n">
         <v>1.67</v>
@@ -49173,6 +49173,1314 @@
       </c>
       <c r="BP223" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>7237382</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45262.08333333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>38</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="n">
+        <v>2</v>
+      </c>
+      <c r="N224" t="n">
+        <v>4</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['22', '90+7']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['6', '62']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S224" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V224" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X224" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>7237383</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45262.08333333334</v>
+      </c>
+      <c r="F225" t="n">
+        <v>38</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Jeju United</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S225" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U225" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X225" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>7237384</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45262.08333333334</v>
+      </c>
+      <c r="F226" t="n">
+        <v>38</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V226" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X226" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>7237385</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>38</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Ulsan</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X227" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>7237386</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>38</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Gwangju</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S228" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U228" t="n">
+        <v>3</v>
+      </c>
+      <c r="V228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X228" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>7237387</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>South Korea K League 1</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>38</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Incheon United</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['41', '57']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X229" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/South Korea K League 1_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
